--- a/data/predicciones_criptos.xlsx
+++ b/data/predicciones_criptos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,19 +512,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2181362491351</v>
+        <v>2179121888987</v>
       </c>
       <c r="F2" t="n">
         <v>109567</v>
       </c>
       <c r="G2" t="n">
-        <v>0.35115618270335</v>
+        <v>0.15806620058685</v>
       </c>
       <c r="H2" t="n">
-        <v>2.141578072279181</v>
+        <v>2.141275155766338</v>
       </c>
       <c r="I2" t="n">
-        <v>3.404433422831131</v>
+        <v>3.404126761127093</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -553,19 +553,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>311628920883</v>
+        <v>311756091448</v>
       </c>
       <c r="F3" t="n">
-        <v>2579.11</v>
+        <v>2583.67</v>
       </c>
       <c r="G3" t="n">
-        <v>0.355057646240427</v>
+        <v>0.391350946790144</v>
       </c>
       <c r="H3" t="n">
-        <v>6.357733736566737</v>
+        <v>6.546014250405424</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.587845068688055</v>
+        <v>-1.413630270690066</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>158307602392</v>
+        <v>158303820762</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.020733124056134</v>
+        <v>-0.021639151831346</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.001221881973393</v>
+        <v>-0.004061266214381</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.023462988605747</v>
+        <v>-0.026301741328542</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -635,19 +635,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>134022911629</v>
+        <v>133958812120</v>
       </c>
       <c r="F5" t="n">
         <v>2.27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8385654678299811</v>
+        <v>0.765990039972624</v>
       </c>
       <c r="H5" t="n">
-        <v>7.110123761171988</v>
+        <v>7.188555841950739</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7237612303099971</v>
+        <v>0.7975168558265001</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -670,25 +670,21 @@
           <t>https://coin-images.coingecko.com/coins/images/825/large/bnb-icon2_2x.png?1696501970</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>/charts/bnb_chart.png</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>96205618964</v>
+        <v>96238546533</v>
       </c>
       <c r="F6" t="n">
-        <v>659.45</v>
+        <v>659.6799999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6907099403383871</v>
+        <v>-0.538962569636808</v>
       </c>
       <c r="H6" t="n">
-        <v>1.976367598608132</v>
+        <v>2.011994422877749</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.003854571618645</v>
+        <v>-0.969268928301472</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -711,25 +707,21 @@
           <t>https://coin-images.coingecko.com/coins/images/4128/large/solana.png?1718769756</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>/charts/sol_chart.png</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>81055114536</v>
+        <v>81009297575</v>
       </c>
       <c r="F7" t="n">
-        <v>151.43</v>
+        <v>151.52</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.391411644750716</v>
+        <v>-0.272073254433243</v>
       </c>
       <c r="H7" t="n">
-        <v>6.595636802057222</v>
+        <v>6.652234591670056</v>
       </c>
       <c r="I7" t="n">
-        <v>-6.180801237038958</v>
+        <v>-6.130987197435339</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -752,25 +744,21 @@
           <t>https://coin-images.coingecko.com/coins/images/6319/large/usdc.png?1696506694</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>/charts/usdc_chart.png</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>61708395916</v>
+        <v>62063994102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999903</v>
+        <v>0.999898</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000310454107178</v>
+        <v>0.000471707126087</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00239806358823</v>
+        <v>0.001920361098895</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01147197164156</v>
+        <v>0.010994225806979</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -793,25 +781,21 @@
           <t>https://coin-images.coingecko.com/coins/images/1094/large/tron-logo.png?1696502193</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>/charts/trx_chart.png</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>27138320739</v>
+        <v>27097615871</v>
       </c>
       <c r="F9" t="n">
-        <v>0.286397</v>
+        <v>0.285815</v>
       </c>
       <c r="G9" t="n">
-        <v>1.305695239972751</v>
+        <v>1.069049413442369</v>
       </c>
       <c r="H9" t="n">
-        <v>5.787203968533233</v>
+        <v>5.572249777634366</v>
       </c>
       <c r="I9" t="n">
-        <v>5.680231433608814</v>
+        <v>5.465494605432756</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -834,25 +818,21 @@
           <t>https://coin-images.coingecko.com/coins/images/5/large/dogecoin.png?1696501409</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>/charts/doge_chart.png</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>25690585092</v>
+        <v>25721717771</v>
       </c>
       <c r="F10" t="n">
-        <v>0.17126</v>
+        <v>0.171553</v>
       </c>
       <c r="G10" t="n">
-        <v>0.177352187933149</v>
+        <v>0.03982017787625301</v>
       </c>
       <c r="H10" t="n">
-        <v>6.95859202025815</v>
+        <v>7.142032161253454</v>
       </c>
       <c r="I10" t="n">
-        <v>-12.80871311017955</v>
+        <v>-12.65917503513083</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -875,25 +855,21 @@
           <t>https://coin-images.coingecko.com/coins/images/13442/large/steth_logo.png?1696513206</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>/charts/steth_chart.png</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>23456018835</v>
+        <v>23491907912</v>
       </c>
       <c r="F11" t="n">
-        <v>2577.18</v>
+        <v>2581.42</v>
       </c>
       <c r="G11" t="n">
-        <v>0.348683431064687</v>
+        <v>0.236109293867731</v>
       </c>
       <c r="H11" t="n">
-        <v>6.336492865907166</v>
+        <v>6.51144518139207</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.647647787306216</v>
+        <v>-1.485831544460067</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -916,25 +892,21 @@
           <t>https://coin-images.coingecko.com/coins/images/975/large/cardano.png?1696502090</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>/charts/ada_chart.png</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>21454522298</v>
+        <v>21517400148</v>
       </c>
       <c r="F12" t="n">
-        <v>0.59533</v>
+        <v>0.595502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008694021754050001</v>
+        <v>-0.04390588179684</v>
       </c>
       <c r="H12" t="n">
-        <v>7.323403334829733</v>
+        <v>7.354392252364591</v>
       </c>
       <c r="I12" t="n">
-        <v>-13.7250322078094</v>
+        <v>-13.70012088577562</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -957,25 +929,21 @@
           <t>https://coin-images.coingecko.com/coins/images/7598/large/wrapped_bitcoin_wbtc.png?1696507857</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>/charts/wbtc_chart.png</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>14086217881</v>
+        <v>14096475965</v>
       </c>
       <c r="F13" t="n">
-        <v>109349</v>
+        <v>109369</v>
       </c>
       <c r="G13" t="n">
-        <v>0.146669600850929</v>
+        <v>-0.001942232401776</v>
       </c>
       <c r="H13" t="n">
-        <v>1.90687263670559</v>
+        <v>1.926280775397116</v>
       </c>
       <c r="I13" t="n">
-        <v>3.290917472524678</v>
+        <v>3.310589202212904</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -998,25 +966,21 @@
           <t>https://coin-images.coingecko.com/coins/images/50882/large/hyperliquid.jpg?1729431300</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>/charts/hype_chart.png</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>13414642375</v>
+        <v>13399845935</v>
       </c>
       <c r="F14" t="n">
-        <v>40.03</v>
+        <v>40.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.076703424619641</v>
+        <v>2.794864660675377</v>
       </c>
       <c r="H14" t="n">
-        <v>9.801426766042168</v>
+        <v>10.00139218314678</v>
       </c>
       <c r="I14" t="n">
-        <v>8.652320342727798</v>
+        <v>8.850193058926749</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -1039,25 +1003,21 @@
           <t>https://coin-images.coingecko.com/coins/images/18834/large/wstETH.png?1696518295</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>/charts/wsteth_chart.png</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>10580416620</v>
+        <v>10603028564</v>
       </c>
       <c r="F15" t="n">
-        <v>3110.66</v>
+        <v>3116.92</v>
       </c>
       <c r="G15" t="n">
-        <v>0.240623602928855</v>
+        <v>0.261259933649508</v>
       </c>
       <c r="H15" t="n">
-        <v>6.18312810825921</v>
+        <v>6.396574871649038</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.873471043975614</v>
+        <v>-0.674209286023263</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1080,25 +1040,21 @@
           <t>https://coin-images.coingecko.com/coins/images/26375/large/sui-ocean-square.png?1727791290</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>/charts/sui_chart.png</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>10374848358</v>
+        <v>10342770305</v>
       </c>
       <c r="F16" t="n">
         <v>2.99</v>
       </c>
       <c r="G16" t="n">
-        <v>2.274745478460606</v>
+        <v>2.301660595455941</v>
       </c>
       <c r="H16" t="n">
-        <v>14.00578030098855</v>
+        <v>14.11109031330435</v>
       </c>
       <c r="I16" t="n">
-        <v>-9.415423230729052</v>
+        <v>-9.331747974351638</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1121,25 +1077,21 @@
           <t>https://coin-images.coingecko.com/coins/images/780/large/bitcoin-cash-circle.png?1696501932</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>/charts/bch_chart.png</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>9862065687</v>
+        <v>9881388748</v>
       </c>
       <c r="F17" t="n">
-        <v>495.36</v>
+        <v>496.75</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.1751349808269</v>
+        <v>-1.710930269768452</v>
       </c>
       <c r="H17" t="n">
-        <v>0.543412156407451</v>
+        <v>0.8251629961846141</v>
       </c>
       <c r="I17" t="n">
-        <v>21.74005447458484</v>
+        <v>22.08120425105527</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -1162,25 +1114,21 @@
           <t>https://coin-images.coingecko.com/coins/images/877/large/chainlink-new-logo.png?1696502009</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>/charts/link_chart.png</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>9319371358</v>
+        <v>9300287214</v>
       </c>
       <c r="F18" t="n">
-        <v>13.73</v>
+        <v>13.71</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.007841548152454001</v>
+        <v>-0.334536239287517</v>
       </c>
       <c r="H18" t="n">
-        <v>5.1400224936858</v>
+        <v>5.043445750803979</v>
       </c>
       <c r="I18" t="n">
-        <v>-4.248790599871617</v>
+        <v>-4.336743214979863</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1203,25 +1151,21 @@
           <t>https://coin-images.coingecko.com/coins/images/8418/large/leo-token.png?1696508607</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>/charts/leo_chart.png</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>8327537744</v>
+        <v>8329725908</v>
       </c>
       <c r="F19" t="n">
         <v>9.02</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7111077326447881</v>
+        <v>0.5655844670572741</v>
       </c>
       <c r="H19" t="n">
-        <v>0.203057923776176</v>
+        <v>0.212519187264159</v>
       </c>
       <c r="I19" t="n">
-        <v>2.176959180571939</v>
+        <v>2.186606821604448</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -1244,25 +1188,21 @@
           <t>https://coin-images.coingecko.com/coins/images/12559/large/Avalanche_Circle_RedWhite_Trans.png?1696512369</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>/charts/avax_chart.png</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>7821776762</v>
+        <v>7830287414</v>
       </c>
       <c r="F20" t="n">
-        <v>18.52</v>
+        <v>18.53</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.8052078308189901</v>
+        <v>-0.834752715557023</v>
       </c>
       <c r="H20" t="n">
-        <v>7.5967495119074</v>
+        <v>7.617709649557397</v>
       </c>
       <c r="I20" t="n">
-        <v>-13.68969122347274</v>
+        <v>-13.67287774201743</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -1285,25 +1225,21 @@
           <t>https://coin-images.coingecko.com/coins/images/100/large/fmpFRHHQ_400x400.jpg?1735231350</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>/charts/xlm_chart.png</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>7486831893</v>
+        <v>7483998222</v>
       </c>
       <c r="F21" t="n">
-        <v>0.242124</v>
+        <v>0.242125</v>
       </c>
       <c r="G21" t="n">
-        <v>1.371213155530215</v>
+        <v>1.581149501629812</v>
       </c>
       <c r="H21" t="n">
-        <v>3.099032079048023</v>
+        <v>3.099333515632212</v>
       </c>
       <c r="I21" t="n">
-        <v>-11.83246225835737</v>
+        <v>-11.83220447784404</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -1326,25 +1262,21 @@
           <t>https://coin-images.coingecko.com/coins/images/39926/large/usds.webp?1726666683</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>/charts/usds_chart.png</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>7220985338</v>
+        <v>7221172758</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9997689999999999</v>
+        <v>0.9997400000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005506852659405001</v>
+        <v>-0.009277894597255001</v>
       </c>
       <c r="H22" t="n">
-        <v>0.010319610660778</v>
+        <v>0.007439078246420001</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.001385227182637</v>
+        <v>-0.004265422470136</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -1367,25 +1299,21 @@
           <t>https://coin-images.coingecko.com/coins/images/17980/large/photo_2024-09-10_17.09.00.jpeg?1725963446</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>/charts/ton_chart.png</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>7083003683</v>
+        <v>7050257040</v>
       </c>
       <c r="F23" t="n">
         <v>2.86</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.525878253750344</v>
+        <v>-0.5004071014303181</v>
       </c>
       <c r="H23" t="n">
-        <v>1.802673408345955</v>
+        <v>1.852876291563891</v>
       </c>
       <c r="I23" t="n">
-        <v>-10.75443109878628</v>
+        <v>-10.71042061533567</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -1408,25 +1336,21 @@
           <t>https://coin-images.coingecko.com/coins/images/2518/large/weth.png?1696503332</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>/charts/weth_chart.png</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>6999533522</v>
+        <v>6993485886</v>
       </c>
       <c r="F24" t="n">
-        <v>2577.86</v>
+        <v>2583.99</v>
       </c>
       <c r="G24" t="n">
-        <v>0.322396335594072</v>
+        <v>0.227804029662534</v>
       </c>
       <c r="H24" t="n">
-        <v>6.312689364131682</v>
+        <v>6.56574477349227</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.678321829690602</v>
+        <v>-1.444287372776544</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -1449,25 +1373,21 @@
           <t>https://coin-images.coingecko.com/coins/images/11939/large/shiba.png?1696511800</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>/charts/shib_chart.png</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>6991378703</v>
+        <v>6992638627</v>
       </c>
       <c r="F25" t="n">
         <v>1.187e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.167125450392829</v>
+        <v>0.016247078233438</v>
       </c>
       <c r="H25" t="n">
-        <v>5.725543989894516</v>
+        <v>5.729917437616265</v>
       </c>
       <c r="I25" t="n">
-        <v>-10.33120671071158</v>
+        <v>-10.32749746727879</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -1490,25 +1410,21 @@
           <t>https://coin-images.coingecko.com/coins/images/2/large/litecoin.png?1696501400</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>/charts/ltc_chart.png</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>6838150514</v>
+        <v>6846347303</v>
       </c>
       <c r="F26" t="n">
-        <v>89.92</v>
+        <v>90</v>
       </c>
       <c r="G26" t="n">
-        <v>2.688052809063662</v>
+        <v>2.900627252022471</v>
       </c>
       <c r="H26" t="n">
-        <v>6.548662441455311</v>
+        <v>6.647798605599974</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.158866781904544</v>
+        <v>-0.06597150997621901</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -1531,25 +1447,21 @@
           <t>https://coin-images.coingecko.com/coins/images/3688/large/hbar.png?1696504364</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>/charts/hbar_chart.png</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>6733364374</v>
+        <v>6732184938</v>
       </c>
       <c r="F27" t="n">
-        <v>0.158816</v>
+        <v>0.158929</v>
       </c>
       <c r="G27" t="n">
-        <v>2.883667920959841</v>
+        <v>2.716588524047881</v>
       </c>
       <c r="H27" t="n">
-        <v>10.86605968471284</v>
+        <v>10.94513171508571</v>
       </c>
       <c r="I27" t="n">
-        <v>-8.917546585464381</v>
+        <v>-8.852584643610301</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -1572,25 +1484,21 @@
           <t>https://coin-images.coingecko.com/coins/images/33033/large/weETH.png?1701438396</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>/charts/weeth_chart.png</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>6705423380</v>
+        <v>6721886905</v>
       </c>
       <c r="F28" t="n">
-        <v>2761.35</v>
+        <v>2767.38</v>
       </c>
       <c r="G28" t="n">
-        <v>0.450420988019995</v>
+        <v>0.506260964908374</v>
       </c>
       <c r="H28" t="n">
-        <v>6.310577122495014</v>
+        <v>6.54294033262045</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.351232060759065</v>
+        <v>-1.135615280061231</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -1613,32 +1521,28 @@
           <t>https://coin-images.coingecko.com/coins/images/27045/large/wbt_token.png?1696526096</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>/charts/wbt_chart.png</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>6307666319</v>
+        <v>6307817636</v>
       </c>
       <c r="F29" t="n">
         <v>43.77</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02965344770715</v>
+        <v>-0.038236801286641</v>
       </c>
       <c r="H29" t="n">
-        <v>-7.884407527949339</v>
+        <v>-7.897554475358542</v>
       </c>
       <c r="I29" t="n">
-        <v>39.19149533910265</v>
+        <v>39.17162961148887</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Alto rendimiento mensual (+30%)</t>
+          <t>🟢 Rendimiento mensual superior al 30%</t>
         </is>
       </c>
     </row>
@@ -1658,25 +1562,21 @@
           <t>https://coin-images.coingecko.com/coins/images/35021/large/USDT.png?1707233575</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>/charts/bsc-usd_chart.png</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>6287790394</v>
+        <v>6287666503</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.005682636574781</v>
+        <v>-0.006844739040646</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.015307150014001</v>
+        <v>-0.014999579356948</v>
       </c>
       <c r="I30" t="n">
-        <v>0.104452719462424</v>
+        <v>0.104760658522087</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -1699,25 +1599,21 @@
           <t>https://coin-images.coingecko.com/coins/images/69/large/monero_logo.png?1696501460</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>/charts/xmr_chart.png</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>5952842093</v>
+        <v>5945427886</v>
       </c>
       <c r="F31" t="n">
-        <v>322.23</v>
+        <v>322.65</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05388296378632201</v>
+        <v>0.145120250560872</v>
       </c>
       <c r="H31" t="n">
-        <v>3.184563784189915</v>
+        <v>3.31851509356466</v>
       </c>
       <c r="I31" t="n">
-        <v>-6.061006302736152</v>
+        <v>-5.939057333378563</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -1740,25 +1636,21 @@
           <t>https://coin-images.coingecko.com/coins/images/12171/large/polkadot.png?1696512008</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>/charts/dot_chart.png</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>5393173261</v>
+        <v>5394052447</v>
       </c>
       <c r="F32" t="n">
         <v>3.54</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.031195263614031</v>
+        <v>-0.9396145297089221</v>
       </c>
       <c r="H32" t="n">
-        <v>7.509003014045078</v>
+        <v>7.621516168437505</v>
       </c>
       <c r="I32" t="n">
-        <v>-15.53744175124101</v>
+        <v>-15.44904776943299</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -1781,25 +1673,21 @@
           <t>https://coin-images.coingecko.com/coins/images/11610/large/Bitget_logo.png?1736925727</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>/charts/bgb_chart.png</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>5345548648</v>
+        <v>5347007433</v>
       </c>
       <c r="F33" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.223612753325745</v>
+        <v>-1.103173598033613</v>
       </c>
       <c r="H33" t="n">
-        <v>2.074940824965026</v>
+        <v>2.203087876621803</v>
       </c>
       <c r="I33" t="n">
-        <v>-5.392609638225354</v>
+        <v>-5.273837508241047</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -1822,25 +1710,21 @@
           <t>https://coin-images.coingecko.com/coins/images/33613/large/usde.png?1733810059</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>/charts/usde_chart.png</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>5310061949</v>
+        <v>5308810168</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9998239999999999</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.016624029475253</v>
+        <v>-0.017400771464355</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.019136474382866</v>
+        <v>0.01711848997741</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.142347734943983</v>
+        <v>-0.106137449332247</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -1863,25 +1747,21 @@
           <t>https://coin-images.coingecko.com/coins/images/40143/large/cbbtc.webp?1726136727</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>/charts/cbbtc_chart.png</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>5165347918</v>
+        <v>5169443125</v>
       </c>
       <c r="F35" t="n">
-        <v>109467</v>
+        <v>109591</v>
       </c>
       <c r="G35" t="n">
-        <v>0.198860646477784</v>
+        <v>0.163932752312855</v>
       </c>
       <c r="H35" t="n">
-        <v>2.001682601088953</v>
+        <v>2.116967401338256</v>
       </c>
       <c r="I35" t="n">
-        <v>3.320337632945484</v>
+        <v>3.437112809412792</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -1904,25 +1784,21 @@
           <t>https://coin-images.coingecko.com/coins/images/12504/large/uniswap-logo.png?1720676669</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>/charts/uni_chart.png</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>4575190597</v>
+        <v>4577961024</v>
       </c>
       <c r="F36" t="n">
         <v>7.62</v>
       </c>
       <c r="G36" t="n">
-        <v>2.85255819377096</v>
+        <v>2.898393558758961</v>
       </c>
       <c r="H36" t="n">
-        <v>12.22662515493704</v>
+        <v>12.28974833496734</v>
       </c>
       <c r="I36" t="n">
-        <v>13.8189383870273</v>
+        <v>13.88295718228861</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -1945,25 +1821,21 @@
           <t>https://coin-images.coingecko.com/coins/images/12645/large/aave-token-round.png?1720472354</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>/charts/aave_chart.png</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>4236286787</v>
+        <v>4232356019</v>
       </c>
       <c r="F37" t="n">
-        <v>278.9</v>
+        <v>278.75</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4414406208307921</v>
+        <v>0.310929503792142</v>
       </c>
       <c r="H37" t="n">
-        <v>11.03888102932529</v>
+        <v>10.97777546337189</v>
       </c>
       <c r="I37" t="n">
-        <v>3.839192849281895</v>
+        <v>3.782049328126235</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -1986,25 +1858,21 @@
           <t>https://coin-images.coingecko.com/coins/images/29850/large/pepe-token.jpeg?1696528776</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>/charts/pepe_chart.png</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>4215286924</v>
+        <v>4215417593</v>
       </c>
       <c r="F38" t="n">
-        <v>1.001e-05</v>
+        <v>1.002e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.786347191405104</v>
+        <v>-1.32277957767784</v>
       </c>
       <c r="H38" t="n">
-        <v>8.547774161162835</v>
+        <v>8.636472638592849</v>
       </c>
       <c r="I38" t="n">
-        <v>-21.17753851002913</v>
+        <v>-21.11312970592905</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -2027,25 +1895,21 @@
           <t>https://coin-images.coingecko.com/coins/images/54342/large/pi_network.jpg?1739347576</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>/charts/pi_chart.png</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>3769879272</v>
+        <v>3774326427</v>
       </c>
       <c r="F39" t="n">
-        <v>0.493869</v>
+        <v>0.494047</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.3551191775329141</v>
+        <v>-0.4075007695175331</v>
       </c>
       <c r="H39" t="n">
-        <v>-11.75298517196268</v>
+        <v>-11.72113762800931</v>
       </c>
       <c r="I39" t="n">
-        <v>-24.32942041845857</v>
+        <v>-24.30211159544744</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
@@ -2068,25 +1932,21 @@
           <t>https://coin-images.coingecko.com/coins/images/9956/large/Badge_Dai.png?1696509996</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>/charts/dai_chart.png</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>3610512143</v>
+        <v>3610338960</v>
       </c>
       <c r="F40" t="n">
-        <v>0.999826</v>
+        <v>0.999895</v>
       </c>
       <c r="G40" t="n">
-        <v>0.002028148408136</v>
+        <v>0.007434861452482001</v>
       </c>
       <c r="H40" t="n">
-        <v>0.001234751697741</v>
+        <v>0.008090287474436001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00292685057497</v>
+        <v>0.009782502352677001</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -2109,25 +1969,21 @@
           <t>https://coin-images.coingecko.com/coins/images/33669/large/sUSDe-Symbol-Color.png?1716307680</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>/charts/susde_chart.png</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>3143790019</v>
+        <v>3143690803</v>
       </c>
       <c r="F41" t="n">
         <v>1.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.063736668065988</v>
+        <v>-0.06672091878437</v>
       </c>
       <c r="H41" t="n">
-        <v>0.026703925636125</v>
+        <v>0.023823463177735</v>
       </c>
       <c r="I41" t="n">
-        <v>0.011981915629163</v>
+        <v>0.009101877119534</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -2150,25 +2006,21 @@
           <t>https://coin-images.coingecko.com/coins/images/26455/large/aptos_round.png?1696525528</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>/charts/apt_chart.png</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>3032113751</v>
+        <v>3036235208</v>
       </c>
       <c r="F42" t="n">
         <v>4.71</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.67357249143189</v>
+        <v>-1.548344151433167</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.144789597229853</v>
+        <v>-1.023320382811026</v>
       </c>
       <c r="I42" t="n">
-        <v>-6.13519470671497</v>
+        <v>-6.019857496727788</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
@@ -2191,25 +2043,21 @@
           <t>https://coin-images.coingecko.com/coins/images/4463/large/WeChat_Image_20220118095654.png?1696505053</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>/charts/okb_chart.png</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>3000617484</v>
+        <v>3000949460</v>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>50.02</v>
       </c>
       <c r="G43" t="n">
-        <v>0.689856012273368</v>
+        <v>0.609862277979984</v>
       </c>
       <c r="H43" t="n">
-        <v>0.174829699635151</v>
+        <v>0.200843480169769</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.4624390221924231</v>
+        <v>-0.436590730021708</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
@@ -2232,25 +2080,21 @@
           <t>https://coin-images.coingecko.com/coins/images/28452/large/ARUsPeNQ_400x400.jpeg?1696527447</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>/charts/tao_chart.png</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>2982794698</v>
+        <v>2983671804</v>
       </c>
       <c r="F44" t="n">
-        <v>332.24</v>
+        <v>333.12</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.628270604247789</v>
+        <v>-0.653767420007626</v>
       </c>
       <c r="H44" t="n">
-        <v>4.230604174533066</v>
+        <v>4.506496968905858</v>
       </c>
       <c r="I44" t="n">
-        <v>-15.10643875052831</v>
+        <v>-14.88173006709638</v>
       </c>
       <c r="J44" t="b">
         <v>0</v>
@@ -2273,11 +2117,7 @@
           <t>https://coin-images.coingecko.com/coins/images/36291/large/blackrock.png?1711013223</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>/charts/buidl_chart.png</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
         <v>2846195399</v>
       </c>
@@ -2314,25 +2154,21 @@
           <t>https://coin-images.coingecko.com/coins/images/10365/large/near.jpg?1696510367</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>/charts/near_chart.png</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>2777519124</v>
+        <v>2786391614</v>
       </c>
       <c r="F46" t="n">
         <v>2.26</v>
       </c>
       <c r="G46" t="n">
-        <v>1.880691268948393</v>
+        <v>1.865695802510083</v>
       </c>
       <c r="H46" t="n">
-        <v>11.29153564750274</v>
+        <v>11.30014110027404</v>
       </c>
       <c r="I46" t="n">
-        <v>-11.72395140468477</v>
+        <v>-11.71712559028115</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
@@ -2355,25 +2191,21 @@
           <t>https://coin-images.coingecko.com/coins/images/28046/large/JitoSOL-200.png?1696527060</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>/charts/jitosol_chart.png</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>2704170974</v>
+        <v>2703109132</v>
       </c>
       <c r="F47" t="n">
-        <v>183.84</v>
+        <v>183.85</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.31475144909571</v>
+        <v>-0.304898217763449</v>
       </c>
       <c r="H47" t="n">
-        <v>6.736291928688071</v>
+        <v>6.743495104369771</v>
       </c>
       <c r="I47" t="n">
-        <v>-5.473171176602375</v>
+        <v>-5.466791965348682</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
@@ -2396,25 +2228,21 @@
           <t>https://coin-images.coingecko.com/coins/images/14495/large/Internet_Computer_logo.png?1696514180</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>/charts/icp_chart.png</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>2674718790</v>
+        <v>2676715507</v>
       </c>
       <c r="F48" t="n">
         <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.450966341471521</v>
+        <v>-0.474340264317571</v>
       </c>
       <c r="H48" t="n">
-        <v>6.141356719047992</v>
+        <v>6.299994341939816</v>
       </c>
       <c r="I48" t="n">
-        <v>-7.368476912066817</v>
+        <v>-7.230030927563194</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -2437,25 +2265,21 @@
           <t>https://coin-images.coingecko.com/coins/images/453/large/ethereum-classic-logo.png?1696501717</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>/charts/etc_chart.png</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>2597663601</v>
+        <v>2602424085</v>
       </c>
       <c r="F49" t="n">
-        <v>17.03</v>
+        <v>17.06</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.280063732128937</v>
+        <v>-0.190978889558945</v>
       </c>
       <c r="H49" t="n">
-        <v>5.206235829763353</v>
+        <v>5.409125892167104</v>
       </c>
       <c r="I49" t="n">
-        <v>-3.958272866195777</v>
+        <v>-3.773056544578947</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -2478,25 +2302,21 @@
           <t>https://coin-images.coingecko.com/coins/images/7310/large/cro_token_logo.png?1696507599</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>/charts/cro_chart.png</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>2577168095</v>
+        <v>2580162316</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08283299999999999</v>
+        <v>0.082938</v>
       </c>
       <c r="G50" t="n">
-        <v>0.506725719317982</v>
+        <v>0.195915177082295</v>
       </c>
       <c r="H50" t="n">
-        <v>3.213559101522399</v>
+        <v>3.345115154258526</v>
       </c>
       <c r="I50" t="n">
-        <v>-19.71739518990199</v>
+        <v>-19.61506694268205</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -2519,30 +2339,1789 @@
           <t>https://coin-images.coingecko.com/coins/images/26580/large/ONDO.png?1696525656</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>/charts/ondo_chart.png</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>2496745149</v>
+        <v>2500306751</v>
       </c>
       <c r="F51" t="n">
-        <v>0.788926</v>
+        <v>0.791577</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.485483798735057</v>
+        <v>-0.127821572299491</v>
       </c>
       <c r="H51" t="n">
-        <v>6.913722272434051</v>
+        <v>7.272906208871863</v>
       </c>
       <c r="I51" t="n">
-        <v>-8.184167650780555</v>
+        <v>-7.875706104502414</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sUSDS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>susds</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52721/large/sUSDS_Coin.png?1734086971</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>/charts/susds_chart.png</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2221271883</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.058</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.019808704567001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.11084705299373</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.415821879227509</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>USD1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>usd1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54977/large/USD1_1000x1000_transparent.png?1749297002</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>/charts/usd1_chart.png</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2207147552</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.018388665631035</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.03906877797716701</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.121818132304934</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Kaspa</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>kas</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/25751/large/kaspa-icon-exchanges.png?1696524837</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>/charts/kas_chart.png</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2063813503</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.07828199999999999</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.286784463410491</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4.809952697057991</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-13.60086853440658</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mantle</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>mnt</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30980/large/Mantle-Logo-mark.png?1739213200</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>1958635301</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5819369999999999</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.386857700469233</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-3.953852878764217</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-14.79288867628852</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Tokenize Xchange</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tkx</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4984/large/TKX_-_Logo_-_RGB-15.png?1696505519</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>1946345898</v>
+      </c>
+      <c r="F56" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.5720384652572581</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-12.39356887824842</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-25.78007177263828</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>gt</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/8183/large/200X200.png?1735246724</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>1917875003</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.4222897560259931</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-1.30655159635429</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-19.01774212095845</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Cosmos Hub</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>atom</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/1481/large/cosmos_hub.png?1696502525</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>1913909033</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.739005184207839</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6.714924004747651</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-6.100337785470653</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Fasttoken</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ftn</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28478/large/lightenicon_200x200.png?1696527472</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>1902945108</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.216207902183201</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.202333983916286</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.102681299267435</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>VeChain</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>vet</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/1167/large/VET.png?1742383283</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>1886588344</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.02194538</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.101357080479713</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7.074491028042779</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-12.39613214338896</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Artificial Superintelligence Alliance</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>fet</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/5681/large/ASI.png?1719827289</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>/charts/fet_chart.png</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1869330573</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.717661</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.349309283216577</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10.71390588435585</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-13.82085229357186</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Official Trump</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>trump</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53746/large/trump.png?1737171561</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>1778100519</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.09067440181696901</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.192108646469215</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-23.37237596293679</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>sky</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39925/large/sky.jpg?1724827980</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>1735849665</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.081526</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.4265585789041451</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7.095630893288622</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.761310011506867</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Lombard Staked BTC</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>lbtc</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39969/large/LBTC_Logo.png?1724959872</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>1720430874</v>
+      </c>
+      <c r="F64" t="n">
+        <v>109634</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.112147819044163</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.136587663878162</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.672065484066418</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Arbitrum</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>arb</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/16547/large/arb.jpg?1721358242</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>1709365825</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.344499</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-2.373787455441525</v>
+      </c>
+      <c r="H65" t="n">
+        <v>13.05098303847829</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-6.926252835445354</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Render</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>render</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/11636/large/rndr.png?1696511529</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>1694879664</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7053018330902101</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10.5992062677392</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-19.40792795859723</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>POL (ex-MATIC)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>pol</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/32440/large/polygon.png?1698233684</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>1684080658</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.187347</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.9375369657583381</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8.366112249636</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-14.20939130068742</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ethena</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ena</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/36530/large/ethena.png?1711701436</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>1658044588</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.272624</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.9964400061526181</v>
+      </c>
+      <c r="H68" t="n">
+        <v>10.19852449379121</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-19.67062983200211</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Filecoin</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>fil</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12817/large/filecoin.png?1696512609</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>1623628379</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.5841122290806881</v>
+      </c>
+      <c r="H69" t="n">
+        <v>9.514547487174212</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-9.556828834635429</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Worldcoin</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>wld</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31069/large/worldcoin.jpeg?1696529903</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>1589151028</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9412509999999999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.8811085507498621</v>
+      </c>
+      <c r="H70" t="n">
+        <v>9.303336872044444</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-22.95847335923886</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Algorand</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>algo</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4380/large/download.png?1696504978</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>1583277405</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.183367</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.627184717419906</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6.882332174538979</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-9.083725837365744</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Quant</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>qnt</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/3370/large/5ZOu7brX_400x400.jpg?1696504070</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>1560874066</v>
+      </c>
+      <c r="F72" t="n">
+        <v>107.33</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1.362842259977599</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9.747952812650926</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-6.749254615886444</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jupiter Perpetuals Liquidity Provider Token</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>jlp</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/33094/large/jlp.png?1700631386</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>1531314996</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.054242063842903</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.495729031650317</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.161754106569773</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sei</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sei</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28205/large/Sei_Logo_-_Transparent.png?1696527207</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>1508141022</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.271398</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-4.643025306952283</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.678846462179042</v>
+      </c>
+      <c r="I74" t="n">
+        <v>34.02739822198766</v>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>🟢 Rendimiento mensual superior al 30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>First Digital USD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>fdusd</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31079/large/FDUSD_icon_black.png?1731097953</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>1469481473</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.141718858979823</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.209582774263217</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.002877455154935</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>USDtb</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>usdtb</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52804/large/USDtbSmall.png?1734344946</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>1461465381</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.010157407972198</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.013564329302101</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.035522872151087</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>KuCoin</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>kcs</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/1047/large/sa9z79.png?1696502152</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>1410787342</v>
+      </c>
+      <c r="F77" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.361461106587872</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.151181802615157</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-1.484705247459739</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Binance Staked SOL</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>bnsol</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>1392478255</v>
+      </c>
+      <c r="F78" t="n">
+        <v>160.47</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.5444277275342111</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6.648758814084403</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-5.631868524307036</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jupiter</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>jup</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/34188/large/jup.png?1704266489</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>1368671238</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.455879</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.539859398740638</v>
+      </c>
+      <c r="H79" t="n">
+        <v>15.56966671093408</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-17.75509697927698</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>USDT0</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>usdt0</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53705/large/usdt0.jpg?1737086183</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>1299978683</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.032820642112377</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.03958220876903101</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.08390923745713701</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Bonk</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>bonk</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28600/large/bonk.jpg?1696527587</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>1283063214</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.655e-05</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10.73423082257555</v>
+      </c>
+      <c r="H81" t="n">
+        <v>27.25348508308764</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-5.46076904273847</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NEXO</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>nexo</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/3695/large/CG-nexo-token-200x200_2x.png?1730414360</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>1219529561</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.4425292475946611</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.236532566859499</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-2.861460299687518</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Rocket Pool ETH</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>reth</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/20764/large/reth.png?1696520159</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>1215795396</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2944.96</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.343588394450915</v>
+      </c>
+      <c r="H83" t="n">
+        <v>6.616348538797324</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-1.129802541113154</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Fartcoin</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>fartcoin</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/50891/large/fart.jpg?1729503972</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>1201867321</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>7.767575339327176</v>
+      </c>
+      <c r="H84" t="n">
+        <v>25.47754440326756</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.4530988051059</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SPX6900</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>spx</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31401/large/centeredcoin_%281%29.png?1737048493</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>1182951081</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1.254205400080994</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6.852720192488322</v>
+      </c>
+      <c r="I85" t="n">
+        <v>13.7396065317768</v>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Kelp DAO Restaked ETH</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>rseth</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/33800/large/Icon___Dark.png?1702991855</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>1174411177</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2708.88</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.323386370325406</v>
+      </c>
+      <c r="H86" t="n">
+        <v>6.707401768098248</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-1.137900652820481</v>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Flare</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>flr</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28624/large/FLR-icon200x200.png?1696527609</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>1146977864</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.01692903</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1.713302522599129</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.513289243164176</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-7.558543714704253</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Celestia</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>tia</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31967/large/tia.jpg?1696530772</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>1123207482</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G88" t="n">
+        <v>8.027703708240979</v>
+      </c>
+      <c r="H88" t="n">
+        <v>10.32312981391949</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-29.16914736896904</v>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Injective</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>inj</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12882/large/Other_200x200.png?1738782212</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>1117418815</v>
+      </c>
+      <c r="F89" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.325606018117551</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6.555112242397246</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-11.37185206377279</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Virtuals Protocol</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>virtual</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/34057/large/LOGOMARK.png?1708356054</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>1067113684</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.301388095710633</v>
+      </c>
+      <c r="H90" t="n">
+        <v>17.39326814380003</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-17.81254183700925</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Stacks</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>stx</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/2069/large/Stacks_Logo_png.png?1709979332</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>1059097261</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.6909149999999999</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.208911120064106</v>
+      </c>
+      <c r="H91" t="n">
+        <v>7.512960307661968</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-13.19254314507841</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sonic</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/38108/large/200x200_Sonic_Logo.png?1734679256</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>1057572995</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.328293</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.260174798838619</v>
+      </c>
+      <c r="H92" t="n">
+        <v>9.298366404537092</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-20.73487845027156</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Optimism</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/25244/large/Optimism.png?1696524385</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>1002285037</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.572124</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.677817115224927</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8.829651687349823</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-16.34997855450167</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Mantle Staked Ether</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>meth</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/33345/large/symbol_transparent_bg.png?1701697066</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>981896833</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2762.75</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.6217552193292241</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6.686534637242948</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-1.190710980089554</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>XDC Network</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>xdc</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/2912/large/xdc-icon.png?1696503661</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>969819300</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.05978899999999999</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.848971222935353</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.874591094744489</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-0.021382708202666</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Pudgy Penguins</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>pengu</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52622/large/PUDGY_PENGUINS_PENGU_PFP.png?1733809110</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>966104961</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.01535901</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.396664454881078</v>
+      </c>
+      <c r="H96" t="n">
+        <v>66.42381749705554</v>
+      </c>
+      <c r="I96" t="n">
+        <v>40.64601967701537</v>
+      </c>
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>📊 Subida mensual fuerte + tendencia semanal positiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>StakeWise Staked ETH</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>oseth</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/33117/large/Frame_27513839.png?1700732599</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>964260554</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2715.44</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.3884824505742761</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6.836683774370196</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-1.157675008301329</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Kaia</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>kaia</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39901/large/KAIA.png?1724734368</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>951456567</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.162431</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.5575838156193721</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-9.429174752977945</v>
+      </c>
+      <c r="I98" t="n">
+        <v>40.59617452460589</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/predicciones_criptos.xlsx
+++ b/data/predicciones_criptos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,13 +1538,9 @@
         <v>39.17162961148887</v>
       </c>
       <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>🟢 Rendimiento mensual superior al 30%</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4041,13 +4037,9 @@
         <v>40.64601967701537</v>
       </c>
       <c r="J96" t="b">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>📊 Subida mensual fuerte + tendencia semanal positiva</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4119,9 +4111,1821 @@
         <v>40.59617452460589</v>
       </c>
       <c r="J98" t="b">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>🟢 Rendimiento mensual superior al 30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PAX Gold</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>paxg</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/9519/large/paxgold.png?1696509604</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>/charts/paxg_chart.png</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>931501024</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3334.09</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.7453123512414841</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.444625610405908</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-0.886004824973551</v>
+      </c>
+      <c r="J99" t="b">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Solv Protocol BTC</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>solvbtc</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/36800/large/solvBTC.png?1719810684</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>/charts/solvbtc_chart.png</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>926497438</v>
+      </c>
+      <c r="F100" t="n">
+        <v>109560</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.284884133536832</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2.168828028781043</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.555667558073679</v>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SyrupUSDC</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>syrupusdc</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54658/large/SyrupUSDCO.png?1748850129</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>924795748</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.0460048104494</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.041372400634743</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.4724804904481411</v>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>dogwifhat</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>wif</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/33566/large/dogwifhat.jpg?1702499428</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>/charts/wif_chart.png</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>901941065</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.904585</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.517137268054306</v>
+      </c>
+      <c r="H102" t="n">
+        <v>19.9198995507424</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-10.54919185994349</v>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Wrapped BNB</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>wbnb</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12591/large/binance-coin-logo.png?1696512401</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>/charts/wbnb_chart.png</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>884419359</v>
+      </c>
+      <c r="F103" t="n">
+        <v>661.73</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.215802075720544</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2.470726676938155</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.405621828180371</v>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Renzo Restaked ETH</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ezeth</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/34753/large/Ezeth_logo_circle.png?1713496404</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>/charts/ezeth_chart.png</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>871517806</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2728.79</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.4474272372153331</v>
+      </c>
+      <c r="H104" t="n">
+        <v>7.104305974894171</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.472745469733487</v>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Immutable</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>imx</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/17233/large/immutableX-symbol-BLK-RGB.png?1696516787</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>/charts/imx_chart.png</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>865865666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.464059</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.6293704622054971</v>
+      </c>
+      <c r="H105" t="n">
+        <v>15.68068724124131</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-21.35993819296908</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>The Graph</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>grt</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13397/large/Graph_Token.png?1696513159</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>/charts/grt_chart.png</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>862423528</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.08734399999999999</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.317923107829118</v>
+      </c>
+      <c r="H106" t="n">
+        <v>10.7127602711823</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-12.05145357858769</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>PayPal USD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>pyusd</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31212/large/PYUSD_Logo_%282%29.png?1696530039</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>860550774</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.999833</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.006196817731039</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.03206048656595301</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.033132497713418</v>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>clBTC</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>clbtc</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54164/large/clBTC.png?1738482999</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>847997864</v>
+      </c>
+      <c r="F108" t="n">
+        <v>109813</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.6040075842988011</v>
+      </c>
+      <c r="H108" t="n">
+        <v>4.19795732612783</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3.210592754855558</v>
+      </c>
+      <c r="J108" t="b">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Story</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54035/large/Transparent_bg.png?1738075331</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>836269646</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1.51677065032162</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-1.378305942576083</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-30.95391225794541</v>
+      </c>
+      <c r="J109" t="b">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Tether Gold</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>xaut</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/10481/large/Tether_Gold.png?1696510471</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>820361359</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3327.71</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.6529421989609181</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-0.233965257406147</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-0.8559408883874851</v>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Vaulta</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55616/large/Vaulta_CEX_Icon_Circle_-_cmc.png?1746859132</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>783377155</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.497361</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.560944488996868</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.812238342539765</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-23.79567837798205</v>
+      </c>
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Jupiter Staked SOL</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>jupsol</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/37482/large/jupsol.png?1714473916</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>761706486</v>
+      </c>
+      <c r="F112" t="n">
+        <v>170.11</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.900527521731026</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7.413048766936116</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-4.710091465596649</v>
+      </c>
+      <c r="J112" t="b">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Marinade Staked SOL</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>msol</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/17752/large/mSOL.png?1696517278</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>753297624</v>
+      </c>
+      <c r="F113" t="n">
+        <v>198.31</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.259626734996708</v>
+      </c>
+      <c r="H113" t="n">
+        <v>7.456483426104222</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-4.6416719509699</v>
+      </c>
+      <c r="J113" t="b">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Liquid Staked ETH</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>lseth</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28848/large/LsETH-receipt-token-circle.png?1696527824</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>750309330</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2801.68</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.375674861583247</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6.897076639062129</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-0.9974912922329411</v>
+      </c>
+      <c r="J114" t="b">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>FLOKI</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>floki</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/16746/large/PNG_image.png?1696516318</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>748337597</v>
+      </c>
+      <c r="F115" t="n">
+        <v>7.745000000000001e-05</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1.423775905710172</v>
+      </c>
+      <c r="H115" t="n">
+        <v>12.17243658571348</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-11.99413656009944</v>
+      </c>
+      <c r="J115" t="b">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>PancakeSwap</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>cake</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12632/large/pancakeswap-cake-logo_%281%29.png?1696512440</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>742426989</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2.505064450600476</v>
+      </c>
+      <c r="H116" t="n">
+        <v>8.61544776580573</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-4.60285756728105</v>
+      </c>
+      <c r="J116" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jito</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>jto</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/33228/large/jto.png?1701137022</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>740777820</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.248765514258712</v>
+      </c>
+      <c r="H117" t="n">
+        <v>10.59200097913748</v>
+      </c>
+      <c r="I117" t="n">
+        <v>14.84465584220405</v>
+      </c>
+      <c r="J117" t="b">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Curve DAO</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>crv</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12124/large/Curve.png?1696511967</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>732819849</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.535118</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.7842574238279111</v>
+      </c>
+      <c r="H118" t="n">
+        <v>7.545302319068738</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-22.94800177825459</v>
+      </c>
+      <c r="J118" t="b">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Theta Network</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/2538/large/theta-token-logo.png?1696503349</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>716548048</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.7169719999999999</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-0.363838052559835</v>
+      </c>
+      <c r="H119" t="n">
+        <v>8.769252518930209</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-9.472587278947795</v>
+      </c>
+      <c r="J119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>OUSG</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ousg</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/29023/large/OUSG.png?1696527993</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>709547187</v>
+      </c>
+      <c r="F120" t="n">
+        <v>111.65</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.011080613595834</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.07710188622960701</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.328982893169922</v>
+      </c>
+      <c r="J120" t="b">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Lido DAO</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ldo</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13573/large/Lido_DAO.png?1696513326</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>692120963</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.772608</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.10251078973077</v>
+      </c>
+      <c r="H121" t="n">
+        <v>13.15236436430647</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-11.02243559720266</v>
+      </c>
+      <c r="J121" t="b">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Superstate Short Duration U.S. Government Securities Fund (USTB)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ustb</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/35012/large/ustb.jpeg?1707102680</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>681013251</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.011179856879205</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.077984976355118</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.335258106868906</v>
+      </c>
+      <c r="J122" t="b">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Stables Labs USDX</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>usdx</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/50360/large/USDX200px.png?1731906044</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>672427818</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.998745</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.027689055825637</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.04304037571289401</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.136757934768491</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>GALA</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>gala</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12493/large/GALA_token_image_-_200PNG.png?1709725869</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>665495349</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.01476492</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.8906971251350531</v>
+      </c>
+      <c r="H124" t="n">
+        <v>10.83331917303243</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-15.09085053026243</v>
+      </c>
+      <c r="J124" t="b">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Aerodrome Finance</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>aero</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31745/large/token.png?1696530564</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>661285549</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.773211</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-3.246732994797752</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-0.816320815490978</v>
+      </c>
+      <c r="I125" t="n">
+        <v>41.49245405224639</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>🟢 Rendimiento mensual superior al 30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Zcash</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>zec</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/486/large/circle-zcash-color.png?1696501740</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>644045295</v>
+      </c>
+      <c r="F126" t="n">
+        <v>39.88</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2.66662516097577</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2.085575944971349</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-24.78709225575369</v>
+      </c>
+      <c r="J126" t="b">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Ethereum Name Service</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ens</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/19785/large/ENS.jpg?1727872989</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>642978611</v>
+      </c>
+      <c r="F127" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.178512202811252</v>
+      </c>
+      <c r="H127" t="n">
+        <v>5.990936382396931</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-12.01198978132464</v>
+      </c>
+      <c r="J127" t="b">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Wrapped HYPE</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>whype</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54469/large/_UP3jBsi_400x400.jpg?1739905920</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>641618045</v>
+      </c>
+      <c r="F128" t="n">
+        <v>40.54</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3.53321854772128</v>
+      </c>
+      <c r="H128" t="n">
+        <v>11.89403058381308</v>
+      </c>
+      <c r="I128" t="n">
+        <v>10.32845530727019</v>
+      </c>
+      <c r="J128" t="b">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Ondo US Dollar Yield</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>usdy</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31700/large/usdy_%281%29.png?1696530524</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="n">
+        <v>636321110</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.003516661968156</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.55934805474961</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.291718394792253</v>
+      </c>
+      <c r="J129" t="b">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>IOTA</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>iota</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/692/large/IOTA_Thumbnail_%281%29.png?1743772896</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>629695757</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.162898</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1.14506020037874</v>
+      </c>
+      <c r="H130" t="n">
+        <v>7.619131332112297</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-14.29250112611476</v>
+      </c>
+      <c r="J130" t="b">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>The Sandbox</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>sand</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12129/large/sandbox_logo.jpg?1696511971</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>621512296</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.254115</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-0.6710463138810581</v>
+      </c>
+      <c r="H131" t="n">
+        <v>5.817146924442918</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-10.70190728863598</v>
+      </c>
+      <c r="J131" t="b">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>JasmyCoin</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>jasmy</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13876/large/JASMY200x200.jpg?1696513620</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>610555196</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.01261748</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.53571463309804</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-0.342003509163069</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-17.93144710419026</v>
+      </c>
+      <c r="J132" t="b">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>BitTorrent</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>btt</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/22457/large/btt_logo.png?1696521780</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="n">
+        <v>606646077</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6.152219999999999e-07</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.339818401702815</v>
+      </c>
+      <c r="H133" t="n">
+        <v>5.113657618773733</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-11.84038380620835</v>
+      </c>
+      <c r="J133" t="b">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Solv Protocol Staked BTC</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>xsolvbtc</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39384/large/xSolvBTC.png?1744170824</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="n">
+        <v>600817362</v>
+      </c>
+      <c r="F134" t="n">
+        <v>109266</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.324547013123505</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2.132196171127348</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3.540209073782324</v>
+      </c>
+      <c r="J134" t="b">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Pyth Network</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>pyth</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31924/large/pyth.png?1701245725</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>594140910</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.103359</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-0.413264895799994</v>
+      </c>
+      <c r="H135" t="n">
+        <v>14.54490467315602</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-16.29308794843877</v>
+      </c>
+      <c r="J135" t="b">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Walrus</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>wal</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54914/large/WAL_logo.png?1742494301</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>591407504</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.428358</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2.109521574103647</v>
+      </c>
+      <c r="H136" t="n">
+        <v>12.27153968371148</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-15.02450785457585</v>
+      </c>
+      <c r="J136" t="b">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Usual USD</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>usd0</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/38272/large/USD0LOGO.png?1716962811</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>587250382</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.9976389999999999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-0.047490027992804</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.018061743609765</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.014208629442008</v>
+      </c>
+      <c r="J137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Saros</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>saros</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/34594/large/saros-token-logo.png?1705476813</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>583017324</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.222097</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-0.9840296113547461</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-0.8882427944465761</v>
+      </c>
+      <c r="I138" t="n">
+        <v>11.25593167573568</v>
+      </c>
+      <c r="J138" t="b">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Tezos</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>xtz</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/976/large/Tezos-logo.png?1696502091</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="n">
+        <v>580881333</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.553721</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.6549720326863591</v>
+      </c>
+      <c r="H139" t="n">
+        <v>6.572785674708788</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-5.75363722103801</v>
+      </c>
+      <c r="J139" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Raydium</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ray</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13928/large/PSigc4ie_400x400.jpg?1696513668</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>580428364</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.572331735282084</v>
+      </c>
+      <c r="H140" t="n">
+        <v>12.58347310484763</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-12.82041010078382</v>
+      </c>
+      <c r="J140" t="b">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Pendle</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>pendle</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/15069/large/Pendle_Logo_Normal-03.png?1696514728</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>578586628</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-0.897602962103848</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5.410836795141299</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-18.03660376374422</v>
+      </c>
+      <c r="J141" t="b">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Super OETH</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>superoeth</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39828/large/Super_OETH.png?1724208268</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="n">
+        <v>577119870</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2591.14</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.482470651680607</v>
+      </c>
+      <c r="H142" t="n">
+        <v>6.93376866311213</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-1.195133519969543</v>
+      </c>
+      <c r="J142" t="b">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>tBTC</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>tbtc</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/11224/large/0x18084fba666a33d37592fa2633fd49a74dd93a88.png?1696511155</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>576046393</v>
+      </c>
+      <c r="F143" t="n">
+        <v>109459</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.217928953475294</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2.123615580480281</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3.450990652030833</v>
+      </c>
+      <c r="J143" t="b">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Maple Finance</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>syrup</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51232/large/_syrup_token_logo.png?1747292046</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>575514317</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.535905</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4.261941017426841</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-11.00890582666198</v>
+      </c>
+      <c r="I144" t="n">
+        <v>20.92562740792459</v>
+      </c>
+      <c r="J144" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Mantle Restaked ETH</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>cmeth</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51114/large/symbol.png?1730117724</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>555602261</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2763.22</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.4065430904621921</v>
+      </c>
+      <c r="H145" t="n">
+        <v>6.794553248211018</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-1.190735470056644</v>
+      </c>
+      <c r="J145" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>cgETH Hashkey Cloud</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>cgeth.hashkey</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54162/large/Cgeth_Hashkey.png?1738482570</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>546626167</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2733.98</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2.054946801074354</v>
+      </c>
+      <c r="H146" t="n">
+        <v>7.621076690833775</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-0.07278821187809001</v>
+      </c>
+      <c r="J146" t="b">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/predicciones_criptos.xlsx
+++ b/data/predicciones_criptos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:L288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,10 +481,15 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>predicted</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>reason</t>
         </is>
@@ -526,10 +531,13 @@
       <c r="I2" t="n">
         <v>3.404126761127093</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -567,10 +575,13 @@
       <c r="I3" t="n">
         <v>-1.413630270690066</v>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -608,10 +619,13 @@
       <c r="I4" t="n">
         <v>-0.026301741328542</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -649,10 +663,13 @@
       <c r="I5" t="n">
         <v>0.7975168558265001</v>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -686,10 +703,13 @@
       <c r="I6" t="n">
         <v>-0.969268928301472</v>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -723,10 +743,13 @@
       <c r="I7" t="n">
         <v>-6.130987197435339</v>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -760,10 +783,13 @@
       <c r="I8" t="n">
         <v>0.010994225806979</v>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -797,10 +823,13 @@
       <c r="I9" t="n">
         <v>5.465494605432756</v>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -834,10 +863,13 @@
       <c r="I10" t="n">
         <v>-12.65917503513083</v>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -871,10 +903,13 @@
       <c r="I11" t="n">
         <v>-1.485831544460067</v>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -908,10 +943,13 @@
       <c r="I12" t="n">
         <v>-13.70012088577562</v>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -945,10 +983,13 @@
       <c r="I13" t="n">
         <v>3.310589202212904</v>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -982,10 +1023,13 @@
       <c r="I14" t="n">
         <v>8.850193058926749</v>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1019,10 +1063,13 @@
       <c r="I15" t="n">
         <v>-0.674209286023263</v>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1056,10 +1103,13 @@
       <c r="I16" t="n">
         <v>-9.331747974351638</v>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1093,10 +1143,13 @@
       <c r="I17" t="n">
         <v>22.08120425105527</v>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1130,10 +1183,13 @@
       <c r="I18" t="n">
         <v>-4.336743214979863</v>
       </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1167,10 +1223,13 @@
       <c r="I19" t="n">
         <v>2.186606821604448</v>
       </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1204,10 +1263,13 @@
       <c r="I20" t="n">
         <v>-13.67287774201743</v>
       </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1241,10 +1303,13 @@
       <c r="I21" t="n">
         <v>-11.83220447784404</v>
       </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1278,10 +1343,13 @@
       <c r="I22" t="n">
         <v>-0.004265422470136</v>
       </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1315,10 +1383,13 @@
       <c r="I23" t="n">
         <v>-10.71042061533567</v>
       </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1352,10 +1423,13 @@
       <c r="I24" t="n">
         <v>-1.444287372776544</v>
       </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1389,10 +1463,13 @@
       <c r="I25" t="n">
         <v>-10.32749746727879</v>
       </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1426,10 +1503,13 @@
       <c r="I26" t="n">
         <v>-0.06597150997621901</v>
       </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1463,10 +1543,13 @@
       <c r="I27" t="n">
         <v>-8.852584643610301</v>
       </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1500,10 +1583,13 @@
       <c r="I28" t="n">
         <v>-1.135615280061231</v>
       </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1537,10 +1623,13 @@
       <c r="I29" t="n">
         <v>39.17162961148887</v>
       </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1574,10 +1663,13 @@
       <c r="I30" t="n">
         <v>0.104760658522087</v>
       </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1611,10 +1703,13 @@
       <c r="I31" t="n">
         <v>-5.939057333378563</v>
       </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1648,10 +1743,13 @@
       <c r="I32" t="n">
         <v>-15.44904776943299</v>
       </c>
-      <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1685,10 +1783,13 @@
       <c r="I33" t="n">
         <v>-5.273837508241047</v>
       </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1722,10 +1823,13 @@
       <c r="I34" t="n">
         <v>-0.106137449332247</v>
       </c>
-      <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1759,10 +1863,13 @@
       <c r="I35" t="n">
         <v>3.437112809412792</v>
       </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1796,10 +1903,13 @@
       <c r="I36" t="n">
         <v>13.88295718228861</v>
       </c>
-      <c r="J36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1833,10 +1943,13 @@
       <c r="I37" t="n">
         <v>3.782049328126235</v>
       </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1870,10 +1983,13 @@
       <c r="I38" t="n">
         <v>-21.11312970592905</v>
       </c>
-      <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1907,10 +2023,13 @@
       <c r="I39" t="n">
         <v>-24.30211159544744</v>
       </c>
-      <c r="J39" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1944,10 +2063,13 @@
       <c r="I40" t="n">
         <v>0.009782502352677001</v>
       </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1981,10 +2103,13 @@
       <c r="I41" t="n">
         <v>0.009101877119534</v>
       </c>
-      <c r="J41" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2018,10 +2143,13 @@
       <c r="I42" t="n">
         <v>-6.019857496727788</v>
       </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2055,10 +2183,13 @@
       <c r="I43" t="n">
         <v>-0.436590730021708</v>
       </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2092,10 +2223,13 @@
       <c r="I44" t="n">
         <v>-14.88173006709638</v>
       </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2129,10 +2263,13 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2166,10 +2303,13 @@
       <c r="I46" t="n">
         <v>-11.71712559028115</v>
       </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2203,10 +2343,13 @@
       <c r="I47" t="n">
         <v>-5.466791965348682</v>
       </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2240,10 +2383,13 @@
       <c r="I48" t="n">
         <v>-7.230030927563194</v>
       </c>
-      <c r="J48" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2277,10 +2423,13 @@
       <c r="I49" t="n">
         <v>-3.773056544578947</v>
       </c>
-      <c r="J49" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2314,10 +2463,13 @@
       <c r="I50" t="n">
         <v>-19.61506694268205</v>
       </c>
-      <c r="J50" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2351,10 +2503,13 @@
       <c r="I51" t="n">
         <v>-7.875706104502414</v>
       </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2392,10 +2547,13 @@
       <c r="I52" t="n">
         <v>0.415821879227509</v>
       </c>
-      <c r="J52" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2433,10 +2591,13 @@
       <c r="I53" t="n">
         <v>0.121818132304934</v>
       </c>
-      <c r="J53" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2474,10 +2635,13 @@
       <c r="I54" t="n">
         <v>-13.60086853440658</v>
       </c>
-      <c r="J54" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2511,10 +2675,13 @@
       <c r="I55" t="n">
         <v>-14.79288867628852</v>
       </c>
-      <c r="J55" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2548,10 +2715,13 @@
       <c r="I56" t="n">
         <v>-25.78007177263828</v>
       </c>
-      <c r="J56" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2585,10 +2755,13 @@
       <c r="I57" t="n">
         <v>-19.01774212095845</v>
       </c>
-      <c r="J57" t="b">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2622,10 +2795,13 @@
       <c r="I58" t="n">
         <v>-6.100337785470653</v>
       </c>
-      <c r="J58" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2659,10 +2835,13 @@
       <c r="I59" t="n">
         <v>-0.102681299267435</v>
       </c>
-      <c r="J59" t="b">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2696,10 +2875,13 @@
       <c r="I60" t="n">
         <v>-12.39613214338896</v>
       </c>
-      <c r="J60" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2737,10 +2919,13 @@
       <c r="I61" t="n">
         <v>-13.82085229357186</v>
       </c>
-      <c r="J61" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2774,10 +2959,13 @@
       <c r="I62" t="n">
         <v>-23.37237596293679</v>
       </c>
-      <c r="J62" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2811,10 +2999,13 @@
       <c r="I63" t="n">
         <v>2.761310011506867</v>
       </c>
-      <c r="J63" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2848,10 +3039,13 @@
       <c r="I64" t="n">
         <v>3.672065484066418</v>
       </c>
-      <c r="J64" t="b">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2885,10 +3079,13 @@
       <c r="I65" t="n">
         <v>-6.926252835445354</v>
       </c>
-      <c r="J65" t="b">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2922,10 +3119,13 @@
       <c r="I66" t="n">
         <v>-19.40792795859723</v>
       </c>
-      <c r="J66" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2959,10 +3159,13 @@
       <c r="I67" t="n">
         <v>-14.20939130068742</v>
       </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2996,10 +3199,13 @@
       <c r="I68" t="n">
         <v>-19.67062983200211</v>
       </c>
-      <c r="J68" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3033,10 +3239,13 @@
       <c r="I69" t="n">
         <v>-9.556828834635429</v>
       </c>
-      <c r="J69" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3070,10 +3279,13 @@
       <c r="I70" t="n">
         <v>-22.95847335923886</v>
       </c>
-      <c r="J70" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3107,10 +3319,13 @@
       <c r="I71" t="n">
         <v>-9.083725837365744</v>
       </c>
-      <c r="J71" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3144,10 +3359,13 @@
       <c r="I72" t="n">
         <v>-6.749254615886444</v>
       </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3181,10 +3399,13 @@
       <c r="I73" t="n">
         <v>-0.161754106569773</v>
       </c>
-      <c r="J73" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3218,12 +3439,15 @@
       <c r="I74" t="n">
         <v>34.02739822198766</v>
       </c>
-      <c r="J74" t="b">
+      <c r="J74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K74" t="b">
         <v>1</v>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>🟢 Rendimiento mensual superior al 30%</t>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Rendimiento mensual superior al 30</t>
         </is>
       </c>
     </row>
@@ -3259,10 +3483,13 @@
       <c r="I75" t="n">
         <v>-0.002877455154935</v>
       </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3296,10 +3523,13 @@
       <c r="I76" t="n">
         <v>-0.035522872151087</v>
       </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3333,10 +3563,13 @@
       <c r="I77" t="n">
         <v>-1.484705247459739</v>
       </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3370,10 +3603,13 @@
       <c r="I78" t="n">
         <v>-5.631868524307036</v>
       </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3407,10 +3643,13 @@
       <c r="I79" t="n">
         <v>-17.75509697927698</v>
       </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3444,10 +3683,13 @@
       <c r="I80" t="n">
         <v>-0.08390923745713701</v>
       </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3481,10 +3723,13 @@
       <c r="I81" t="n">
         <v>-5.46076904273847</v>
       </c>
-      <c r="J81" t="b">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3518,10 +3763,13 @@
       <c r="I82" t="n">
         <v>-2.861460299687518</v>
       </c>
-      <c r="J82" t="b">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3555,10 +3803,13 @@
       <c r="I83" t="n">
         <v>-1.129802541113154</v>
       </c>
-      <c r="J83" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3592,10 +3843,13 @@
       <c r="I84" t="n">
         <v>3.4530988051059</v>
       </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3629,10 +3883,13 @@
       <c r="I85" t="n">
         <v>13.7396065317768</v>
       </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3666,10 +3923,13 @@
       <c r="I86" t="n">
         <v>-1.137900652820481</v>
       </c>
-      <c r="J86" t="b">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3703,10 +3963,13 @@
       <c r="I87" t="n">
         <v>-7.558543714704253</v>
       </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3740,10 +4003,13 @@
       <c r="I88" t="n">
         <v>-29.16914736896904</v>
       </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3777,10 +4043,13 @@
       <c r="I89" t="n">
         <v>-11.37185206377279</v>
       </c>
-      <c r="J89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3814,10 +4083,13 @@
       <c r="I90" t="n">
         <v>-17.81254183700925</v>
       </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3851,10 +4123,13 @@
       <c r="I91" t="n">
         <v>-13.19254314507841</v>
       </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3888,10 +4163,13 @@
       <c r="I92" t="n">
         <v>-20.73487845027156</v>
       </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3925,10 +4203,13 @@
       <c r="I93" t="n">
         <v>-16.34997855450167</v>
       </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3962,10 +4243,13 @@
       <c r="I94" t="n">
         <v>-1.190710980089554</v>
       </c>
-      <c r="J94" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3999,10 +4283,13 @@
       <c r="I95" t="n">
         <v>-0.021382708202666</v>
       </c>
-      <c r="J95" t="b">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4036,10 +4323,17 @@
       <c r="I96" t="n">
         <v>40.64601967701537</v>
       </c>
-      <c r="J96" t="b">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Rendimiento mensual superior al 30 | Tendencia semanal positiva</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4073,10 +4367,13 @@
       <c r="I97" t="n">
         <v>-1.157675008301329</v>
       </c>
-      <c r="J97" t="b">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4110,14 +4407,13 @@
       <c r="I98" t="n">
         <v>40.59617452460589</v>
       </c>
-      <c r="J98" t="b">
-        <v>1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>🟢 Rendimiento mensual superior al 30%</t>
-        </is>
-      </c>
+      <c r="J98" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4155,10 +4451,13 @@
       <c r="I99" t="n">
         <v>-0.886004824973551</v>
       </c>
-      <c r="J99" t="b">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4196,10 +4495,13 @@
       <c r="I100" t="n">
         <v>3.555667558073679</v>
       </c>
-      <c r="J100" t="b">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4233,10 +4535,13 @@
       <c r="I101" t="n">
         <v>0.4724804904481411</v>
       </c>
-      <c r="J101" t="b">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4274,10 +4579,13 @@
       <c r="I102" t="n">
         <v>-10.54919185994349</v>
       </c>
-      <c r="J102" t="b">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4315,10 +4623,13 @@
       <c r="I103" t="n">
         <v>-0.405621828180371</v>
       </c>
-      <c r="J103" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4356,10 +4667,13 @@
       <c r="I104" t="n">
         <v>-0.472745469733487</v>
       </c>
-      <c r="J104" t="b">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4397,10 +4711,13 @@
       <c r="I105" t="n">
         <v>-21.35993819296908</v>
       </c>
-      <c r="J105" t="b">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4438,10 +4755,13 @@
       <c r="I106" t="n">
         <v>-12.05145357858769</v>
       </c>
-      <c r="J106" t="b">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4475,10 +4795,13 @@
       <c r="I107" t="n">
         <v>0.033132497713418</v>
       </c>
-      <c r="J107" t="b">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4512,10 +4835,13 @@
       <c r="I108" t="n">
         <v>3.210592754855558</v>
       </c>
-      <c r="J108" t="b">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4549,10 +4875,13 @@
       <c r="I109" t="n">
         <v>-30.95391225794541</v>
       </c>
-      <c r="J109" t="b">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4586,10 +4915,13 @@
       <c r="I110" t="n">
         <v>-0.8559408883874851</v>
       </c>
-      <c r="J110" t="b">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4623,10 +4955,13 @@
       <c r="I111" t="n">
         <v>-23.79567837798205</v>
       </c>
-      <c r="J111" t="b">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4660,10 +4995,13 @@
       <c r="I112" t="n">
         <v>-4.710091465596649</v>
       </c>
-      <c r="J112" t="b">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4697,10 +5035,13 @@
       <c r="I113" t="n">
         <v>-4.6416719509699</v>
       </c>
-      <c r="J113" t="b">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4734,10 +5075,13 @@
       <c r="I114" t="n">
         <v>-0.9974912922329411</v>
       </c>
-      <c r="J114" t="b">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4771,10 +5115,13 @@
       <c r="I115" t="n">
         <v>-11.99413656009944</v>
       </c>
-      <c r="J115" t="b">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4808,10 +5155,13 @@
       <c r="I116" t="n">
         <v>-4.60285756728105</v>
       </c>
-      <c r="J116" t="b">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4845,10 +5195,13 @@
       <c r="I117" t="n">
         <v>14.84465584220405</v>
       </c>
-      <c r="J117" t="b">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4882,10 +5235,13 @@
       <c r="I118" t="n">
         <v>-22.94800177825459</v>
       </c>
-      <c r="J118" t="b">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4919,10 +5275,13 @@
       <c r="I119" t="n">
         <v>-9.472587278947795</v>
       </c>
-      <c r="J119" t="b">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4956,10 +5315,13 @@
       <c r="I120" t="n">
         <v>0.328982893169922</v>
       </c>
-      <c r="J120" t="b">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4993,10 +5355,13 @@
       <c r="I121" t="n">
         <v>-11.02243559720266</v>
       </c>
-      <c r="J121" t="b">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5030,10 +5395,13 @@
       <c r="I122" t="n">
         <v>0.335258106868906</v>
       </c>
-      <c r="J122" t="b">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5067,10 +5435,13 @@
       <c r="I123" t="n">
         <v>-0.136757934768491</v>
       </c>
-      <c r="J123" t="b">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5104,10 +5475,13 @@
       <c r="I124" t="n">
         <v>-15.09085053026243</v>
       </c>
-      <c r="J124" t="b">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5141,14 +5515,13 @@
       <c r="I125" t="n">
         <v>41.49245405224639</v>
       </c>
-      <c r="J125" t="b">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>🟢 Rendimiento mensual superior al 30%</t>
-        </is>
-      </c>
+      <c r="J125" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5182,10 +5555,13 @@
       <c r="I126" t="n">
         <v>-24.78709225575369</v>
       </c>
-      <c r="J126" t="b">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5219,10 +5595,13 @@
       <c r="I127" t="n">
         <v>-12.01198978132464</v>
       </c>
-      <c r="J127" t="b">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5256,10 +5635,13 @@
       <c r="I128" t="n">
         <v>10.32845530727019</v>
       </c>
-      <c r="J128" t="b">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5293,10 +5675,13 @@
       <c r="I129" t="n">
         <v>0.291718394792253</v>
       </c>
-      <c r="J129" t="b">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5330,10 +5715,13 @@
       <c r="I130" t="n">
         <v>-14.29250112611476</v>
       </c>
-      <c r="J130" t="b">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5367,10 +5755,13 @@
       <c r="I131" t="n">
         <v>-10.70190728863598</v>
       </c>
-      <c r="J131" t="b">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5404,10 +5795,13 @@
       <c r="I132" t="n">
         <v>-17.93144710419026</v>
       </c>
-      <c r="J132" t="b">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5441,10 +5835,13 @@
       <c r="I133" t="n">
         <v>-11.84038380620835</v>
       </c>
-      <c r="J133" t="b">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5478,10 +5875,13 @@
       <c r="I134" t="n">
         <v>3.540209073782324</v>
       </c>
-      <c r="J134" t="b">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5515,10 +5915,13 @@
       <c r="I135" t="n">
         <v>-16.29308794843877</v>
       </c>
-      <c r="J135" t="b">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5552,10 +5955,13 @@
       <c r="I136" t="n">
         <v>-15.02450785457585</v>
       </c>
-      <c r="J136" t="b">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5589,10 +5995,13 @@
       <c r="I137" t="n">
         <v>-0.014208629442008</v>
       </c>
-      <c r="J137" t="b">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5626,10 +6035,13 @@
       <c r="I138" t="n">
         <v>11.25593167573568</v>
       </c>
-      <c r="J138" t="b">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5663,10 +6075,13 @@
       <c r="I139" t="n">
         <v>-5.75363722103801</v>
       </c>
-      <c r="J139" t="b">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5700,10 +6115,13 @@
       <c r="I140" t="n">
         <v>-12.82041010078382</v>
       </c>
-      <c r="J140" t="b">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5737,10 +6155,13 @@
       <c r="I141" t="n">
         <v>-18.03660376374422</v>
       </c>
-      <c r="J141" t="b">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5774,10 +6195,13 @@
       <c r="I142" t="n">
         <v>-1.195133519969543</v>
       </c>
-      <c r="J142" t="b">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5811,10 +6235,13 @@
       <c r="I143" t="n">
         <v>3.450990652030833</v>
       </c>
-      <c r="J143" t="b">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5848,10 +6275,13 @@
       <c r="I144" t="n">
         <v>20.92562740792459</v>
       </c>
-      <c r="J144" t="b">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5885,10 +6315,13 @@
       <c r="I145" t="n">
         <v>-1.190735470056644</v>
       </c>
-      <c r="J145" t="b">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5922,10 +6355,5733 @@
       <c r="I146" t="n">
         <v>-0.07278821187809001</v>
       </c>
-      <c r="J146" t="b">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Flow</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>flow</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13446/large/5f6294c0c7a8cda55cb1c936_Flow_Wordmark.png?1696513210</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>/charts/flow_chart.png</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>539499184</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.338502</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-0.7315858023299451</v>
+      </c>
+      <c r="H147" t="n">
+        <v>6.281583618322505</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-10.64966312963412</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Falcon USD</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>usdf</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54558/large/ff_200_X_200.png?1740741076</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>/charts/usdf_chart.png</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>536642122</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.9999300000000001</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-0.019281877547521</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.038718842253446</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.019922899182523</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ab</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4376/large/400%E6%96%B9.png?1740377493</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>/charts/ab_chart.png</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>531038008</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.00804234</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-3.848789306434069</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-18.92563891746452</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-6.3814728430382</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28938/large/file_589.jpg?1701868471</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>525426336</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.522913</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.059519654270161</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1.267182688393155</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-27.22066597669144</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Decentraland</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>mana</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/878/large/decentraland-mana.png?1696502010</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>520729284</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.271052</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1.988080506508133</v>
+      </c>
+      <c r="H151" t="n">
+        <v>9.857491566201329</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-5.36541250128957</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Avalanche Bridged BTC (Avalanche)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>btc.b</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/26115/large/btcb.png?1696525205</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>519125260</v>
+      </c>
+      <c r="F152" t="n">
+        <v>109980</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.4461436154385101</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2.425180891914174</v>
+      </c>
+      <c r="I152" t="n">
+        <v>4.067958983251301</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ApeCoin</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ape</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/24383/large/apecoin.jpg?1696523566</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>504571392</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.6311639999999999</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.06695815618846601</v>
+      </c>
+      <c r="H153" t="n">
+        <v>6.930876385015367</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-9.912918595449781</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>TrueUSD</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>tusd</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/3449/large/tusd.png?1696504140</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>493324136</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.9990389999999999</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.003311083422754</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.033843012135289</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-0.029266929106545</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Onyxcoin</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>xcn</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/24210/large/onyxlogo.jpg?1696523397</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>490859931</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.01432707</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2.482323668523105</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-5.813353601511957</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-8.302886542611738</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Staked HYPE</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>sthype</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54509/large/hyperliquid.jpg?1740065301</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>489409619</v>
+      </c>
+      <c r="F156" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="G156" t="n">
+        <v>3.093380813808583</v>
+      </c>
+      <c r="H156" t="n">
+        <v>11.59912994995059</v>
+      </c>
+      <c r="I156" t="n">
+        <v>10.33620816364243</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>THORChain</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>rune</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/6595/large/Rune200x200.png?1696506946</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>488506052</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-0.038837604463845</v>
+      </c>
+      <c r="H157" t="n">
+        <v>5.236342371724559</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-20.2860867168144</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Bitcoin SV</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>bsv</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/6799/large/BSV.png?1696507128</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="n">
+        <v>484415057</v>
+      </c>
+      <c r="F158" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-3.322131568973203</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-20.78405335922677</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-29.2048475329483</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Ripple USD</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>rlusd</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39651/large/RLUSD_200x200_%281%29.png?1727376633</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="n">
+        <v>469328310</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.013471307461174</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.006926403715497</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.021032756307511</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Bridged USDC (Polygon PoS Bridge)</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>usdc.e</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/33000/large/usdc.png?1700119918</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>448685144</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.9998089999999999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.000240311330653</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.0004390625679100001</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.010559296148523</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Brett</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>brett</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/35529/large/1000050750.png?1709031995</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>442077653</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.04441811</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.265751328629965</v>
+      </c>
+      <c r="H161" t="n">
+        <v>15.57521844308249</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-19.52762854189784</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Kava</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>kava</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/9761/large/kava.png?1696509822</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="n">
+        <v>441302803</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.40724</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-0.701653675782803</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.9522684833399261</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-6.849229255711157</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Morpho</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>morpho</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/29837/large/Morpho-token-icon.png?1726771230</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="n">
+        <v>436889416</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.9258021074145941</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3.43860452016314</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-0.105586533315555</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>APENFT</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>nft</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/15687/large/apenft.jpg?1696515316</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="n">
+        <v>435468959</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4.40587e-07</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.147147385868899</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.650551483278698</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2.389421059170124</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Beldex</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>bdx</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/5111/large/Beldex.png?1696505631</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="n">
+        <v>433942948</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.060727</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-0.7304561549635491</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.6491774650124701</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-3.630156800527997</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Movement</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39345/large/movement-testnet-token.png?1721878759</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="n">
+        <v>433592643</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.166478</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-3.736234271121724</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-7.364886308720973</v>
+      </c>
+      <c r="I166" t="n">
+        <v>6.206491172224168</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Dog (Bitcoin)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/37352/large/DOGGOTOTHEMOON.png?1714096969</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="n">
+        <v>433099336</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.00432982</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1.104904316973602</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-2.828432080577636</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-7.344821187397993</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>DeXe</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>dexe</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12713/large/DEXE_token_logo.png?1696512514</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="n">
+        <v>430727955</v>
+      </c>
+      <c r="F168" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.862449355573937</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-15.24808304507371</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-15.97653267700319</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>USDD</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>usdd</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/25380/large/UUSD.jpg?1696524513</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="n">
+        <v>424790842</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-0.07672966595091001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-0.020899079825369</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-0.079111202912579</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Starknet</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>strk</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/26433/large/starknet.png?1696525507</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="n">
+        <v>423476603</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.117774</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1.926939978395243</v>
+      </c>
+      <c r="H170" t="n">
+        <v>10.50956699458109</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-17.39881107859328</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Helium</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>hnt</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4284/large/helium_logo_use.png?1748092589</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="n">
+        <v>418339376</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1.557425226232029</v>
+      </c>
+      <c r="H171" t="n">
+        <v>7.445097798596528</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-30.90854136281368</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Reserve Rights</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>rsr</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/8365/large/RSR_Blue_Circle_1000.png?1721777856</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="n">
+        <v>418069709</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.00721819</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.308346508235911</v>
+      </c>
+      <c r="H172" t="n">
+        <v>15.51123502999653</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-3.513577102122658</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Venom</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>venom</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28660/large/Venom_Icon.png?1696527645</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="n">
+        <v>416462237</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.199619</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.543917997049713</v>
+      </c>
+      <c r="H173" t="n">
+        <v>18.63082069016944</v>
+      </c>
+      <c r="I173" t="n">
+        <v>66.6628647616337</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.7866666666666666</v>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Crecimiento mensual superior al 60 | Tendencia semanal positiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Mog Coin</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>mog</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31059/large/MOG_LOGO_200x200.png?1696529893</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="n">
+        <v>415620981</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.06e-06</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-0.9244416605711331</v>
+      </c>
+      <c r="H174" t="n">
+        <v>19.58916594828676</v>
+      </c>
+      <c r="I174" t="n">
+        <v>5.317709580767196</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>dYdX</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>dydx</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/32594/large/dydx.png?1698673495</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="n">
+        <v>410623865</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.547017</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.434122046966311</v>
+      </c>
+      <c r="H175" t="n">
+        <v>15.85365847877361</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-6.442915211862388</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K175" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Circle USYC</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>usyc</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51054/large/Hashnote_SDYC_200x200.png?1730370965</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="n">
+        <v>409847079</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.009216580517665001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.06480938867858201</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.332151423942138</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>USDB</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>usdb</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/35595/large/65c67f0ebf2f6a1bd0feb13c_usdb-icon-yellow.png?1709255427</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="n">
+        <v>407505165</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.199109663016631</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.032741505671662</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.608881837406149</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Compound</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>comp</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/10775/large/COMP.png?1696510737</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="n">
+        <v>407154765</v>
+      </c>
+      <c r="F178" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-0.8093696758240441</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-4.388755949953229</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-3.453134723571348</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>BUILDon</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55974/large/T7asvmCb_400x400.jpg?1747902862</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="n">
+        <v>404512764</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.404641</v>
+      </c>
+      <c r="G179" t="n">
+        <v>3.227059780362119</v>
+      </c>
+      <c r="H179" t="n">
+        <v>12.37792495792628</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3.166285552351646</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Stader ETHx</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ethx</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30870/large/staderx.png?1696529717</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>400418596</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2749.46</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.1610806905515</v>
+      </c>
+      <c r="H180" t="n">
+        <v>6.686647817546429</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-0.6905737361809301</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>NEO</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>neo</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/480/large/NEO_512_512.png?1696501735</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="n">
+        <v>399979972</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-0.9946587259878441</v>
+      </c>
+      <c r="H181" t="n">
+        <v>5.515902762308207</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-9.319351694632246</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>MultiversX</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>egld</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12335/large/egld-token-logo.png?1696512162</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>399557592</v>
+      </c>
+      <c r="F182" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-0.7241824337915761</v>
+      </c>
+      <c r="H182" t="n">
+        <v>8.289615913555352</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-12.56956009999218</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Conflux</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>cfx</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13079/large/3vuYMbjN.png?1696512867</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>389400344</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.07632699999999999</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1.937929768653752</v>
+      </c>
+      <c r="H183" t="n">
+        <v>8.837525467938461</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-4.284363348493501</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>KAITO</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54411/large/Qm4DW488_400x400.jpg?1739552780</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>386066600</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1.48101631894547</v>
+      </c>
+      <c r="H184" t="n">
+        <v>18.18602494963211</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-13.63312815341338</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Axie Infinity</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>axs</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13029/large/axie_infinity_logo.png?1696512817</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>382010074</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-2.294985221623436</v>
+      </c>
+      <c r="H185" t="n">
+        <v>7.16878673922539</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-11.63902751866185</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ether.fi Staked ETH</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>eeth</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/33049/large/ether.fi_eETH.png?1700473063</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="n">
+        <v>379206574</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2575.73</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-0.170236765826883</v>
+      </c>
+      <c r="H186" t="n">
+        <v>6.385250039411662</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-1.505118867601877</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>AIOZ Network</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>aioz</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/14631/large/aioz-logo-200.png?1696514309</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>377851428</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.317818</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-0.7612824870804911</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2.075233984921466</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-16.09632829292298</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>DeepBook</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>deep</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/50648/large/DEEP_Logo_256x256_px_%282%29.png?1728612340</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="n">
+        <v>377664642</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.150738</v>
+      </c>
+      <c r="G188" t="n">
+        <v>3.049556646351656</v>
+      </c>
+      <c r="H188" t="n">
+        <v>22.46804820990696</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-2.090806463705334</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K188" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>eCash</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>xec</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/16646/large/Logo_final-22.png?1696516207</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="n">
+        <v>376506486</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.893e-05</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-0.348152598195701</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.9614308206374821</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-14.86580794841332</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Ether.fi</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ethfi</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/35958/large/etherfi.jpeg?1710254562</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>374874547</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.998073</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1.6237986920922</v>
+      </c>
+      <c r="H190" t="n">
+        <v>10.31711025635471</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-19.83660422539553</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Ket</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ket</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53789/large/edfw.jpg?1737381234</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>371105857</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.3712800000000001</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-6.513931783925181</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-5.866418389163423</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-35.88781794455505</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K191" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>EigenCloud (prev. EigenLayer)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>eigen</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/37441/large/eigencloud.jpg?1751003565</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>364724150</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-3.670297671377997</v>
+      </c>
+      <c r="H192" t="n">
+        <v>9.649672990651281</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-24.11678545003828</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="b">
+        <v>0</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Telcoin</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>tel</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/1899/large/tel.png?1696502892</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="n">
+        <v>359519676</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.00391033</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-3.787252855297009</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.484887332506863</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-12.26553879250178</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Coinbase Wrapped Staked ETH</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>cbeth</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/27008/large/cbeth.png?1709186989</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>/charts/cbeth_chart.png</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>357878157</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2852.2</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.173599042282641</v>
+      </c>
+      <c r="H194" t="n">
+        <v>6.731529008101969</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-1.02759235907985</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ZKsync</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>zk</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/38043/large/ZKTokenBlack.png?1718614502</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>/charts/zk_chart.png</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>354327942</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.04974476</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2.093309262424768</v>
+      </c>
+      <c r="H195" t="n">
+        <v>14.49098806820471</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-16.61065655844157</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Chiliz</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>chz</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/8834/large/CHZ_Token_updated.png?1696508986</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="n">
+        <v>354322007</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.03654955</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-0.376777073271557</v>
+      </c>
+      <c r="H196" t="n">
+        <v>7.43430610432695</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-9.28601814047734</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>EOS</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>eos</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/738/large/CG_EOS_Icon.png?1731705232</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>354087898</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.496759</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-0.46550581856798</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.668308621048174</v>
+      </c>
+      <c r="I197" t="n">
+        <v>-25.67379127963646</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Arweave</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4343/large/oRt6SiEN_400x400.jpg?1696504946</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="n">
+        <v>353769981</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.5557844830161041</v>
+      </c>
+      <c r="H198" t="n">
+        <v>17.56247362296866</v>
+      </c>
+      <c r="I198" t="n">
+        <v>-21.16560071137645</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Ether.fi Staked BTC</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ebtc</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/50411/large/eBTC.png?1727664788</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="n">
+        <v>351785056</v>
+      </c>
+      <c r="F199" t="n">
+        <v>109630</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.15697893250442</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2.519437119468452</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3.654548569463814</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>JUST</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>jst</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/11095/large/JUST.jpg?1696511035</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="n">
+        <v>342760528</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.03461921</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-0.4236121115421571</v>
+      </c>
+      <c r="H200" t="n">
+        <v>4.658435064645082</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1.046832409288845</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Swell Ethereum</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>sweth</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30326/large/_lB7zEtS_400x400.jpg?1696529227</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="n">
+        <v>342728556</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2828.6</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.010384282716574</v>
+      </c>
+      <c r="H201" t="n">
+        <v>6.695721663832977</v>
+      </c>
+      <c r="I201" t="n">
+        <v>-1.180145989562664</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Sun Token</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>sun</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12424/large/RSFOmQ.png?1696512245</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="n">
+        <v>336449326</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.01757438</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.5628867409500781</v>
+      </c>
+      <c r="H202" t="n">
+        <v>7.08544693928745</v>
+      </c>
+      <c r="I202" t="n">
+        <v>-7.532973615214416</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Ronin</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ron</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/20009/large/photo_2024-04-06_22-52-24.jpg?1712415367</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="n">
+        <v>336250534</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.510524</v>
+      </c>
+      <c r="G203" t="n">
+        <v>10.87420347172002</v>
+      </c>
+      <c r="H203" t="n">
+        <v>18.27583456974644</v>
+      </c>
+      <c r="I203" t="n">
+        <v>-15.68666441754651</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K203" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Beam</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>beam</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/32417/large/cgicon.png?1747892021</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="n">
+        <v>334332240</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.00637565</v>
+      </c>
+      <c r="G204" t="n">
+        <v>8.968329190741871</v>
+      </c>
+      <c r="H204" t="n">
+        <v>22.1202018015915</v>
+      </c>
+      <c r="I204" t="n">
+        <v>-4.853434536256496</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K204" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Wormhole</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/35087/large/womrhole_logo_full_color_rgb_2000px_72ppi_fb766ac85a.png?1708688954</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="n">
+        <v>332890681</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.071547</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-3.508358062573265</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.190266930272953</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-14.9165130167515</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Olympus</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ohm</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/14483/large/token_OHM_%281%29.png?1696514169</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="n">
+        <v>331948338</v>
+      </c>
+      <c r="F206" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-0.426574172774164</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1.705352976096801</v>
+      </c>
+      <c r="I206" t="n">
+        <v>2.905883419452508</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Axelar</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>axl</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/27277/large/V-65_xQ1_400x400.jpeg?1696526329</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="n">
+        <v>329418292</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.331634</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.286305596369149</v>
+      </c>
+      <c r="H207" t="n">
+        <v>3.194332359418239</v>
+      </c>
+      <c r="I207" t="n">
+        <v>-0.813922570496419</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Global Dollar</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>usdg</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51281/large/GDN_USDG_Token_200x200.png?1730484111</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="n">
+        <v>322616757</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.999814</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-0.015713369551184</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.001214825036699</v>
+      </c>
+      <c r="I208" t="n">
+        <v>-0.00524025807018</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>grass</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/40094/large/Grass.jpg?1725697048</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="n">
+        <v>320834029</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-0.540058552098253</v>
+      </c>
+      <c r="H209" t="n">
+        <v>-6.094297259278496</v>
+      </c>
+      <c r="I209" t="n">
+        <v>-37.58303509545915</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Terra Luna Classic</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>lunc</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/8284/large/01_LunaClassic_color.png?1696508486</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="n">
+        <v>315384866</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5.769000000000001e-05</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-0.27601459026422</v>
+      </c>
+      <c r="H210" t="n">
+        <v>5.388431018521244</v>
+      </c>
+      <c r="I210" t="n">
+        <v>-5.823819667417641</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Legacy Frax Dollar</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>frax</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13422/large/frax-logo.png?1739780303</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="n">
+        <v>314175914</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.999413</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.019165489538214</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.123721097658487</v>
+      </c>
+      <c r="I211" t="n">
+        <v>-0.033340846640191</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Binance-Peg BUSD</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>busd</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31273/large/new_binance-peg-busd.png?1696530096</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="n">
+        <v>312944585</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-0.013793512885378</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.205266213958834</v>
+      </c>
+      <c r="I212" t="n">
+        <v>-0.106340938794338</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Frax Ether</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>frxeth</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28284/large/frxETH_icon.png?1696527284</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="n">
+        <v>312075297</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2585.4</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.09235450525255601</v>
+      </c>
+      <c r="H213" t="n">
+        <v>6.65106427469114</v>
+      </c>
+      <c r="I213" t="n">
+        <v>-1.248286493569382</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Popcat</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>popcat</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/33760/large/image.jpg?1702964227</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="n">
+        <v>309013646</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.315473</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.3624685884467611</v>
+      </c>
+      <c r="H214" t="n">
+        <v>23.72984391994151</v>
+      </c>
+      <c r="I214" t="n">
+        <v>-22.68415905786022</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K214" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>SuperVerse</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>super</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/14040/large/SV-Logo-200x200.png?1706880312</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="n">
+        <v>305539354</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.6764</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.8328311082359831</v>
+      </c>
+      <c r="H215" t="n">
+        <v>16.758467193258</v>
+      </c>
+      <c r="I215" t="n">
+        <v>-3.287565598806175</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Bybit Staked SOL</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>bbsol</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/40095/large/400x400.png?1725628094</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="n">
+        <v>304213709</v>
+      </c>
+      <c r="F216" t="n">
+        <v>165.64</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-0.389004317275799</v>
+      </c>
+      <c r="H216" t="n">
+        <v>7.380056110610616</v>
+      </c>
+      <c r="I216" t="n">
+        <v>-4.940289975299794</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Cheems Token</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>cheems</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30376/large/Hg4_Lhbg_400x400.jpg?1696529270</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="n">
+        <v>303689639</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1.49e-06</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2.509772699318262</v>
+      </c>
+      <c r="H217" t="n">
+        <v>9.119638323850751</v>
+      </c>
+      <c r="I217" t="n">
+        <v>3.945279934292688</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K217" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>trip</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54717/large/IMG-20250120-184423-846.png?1741186152</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="n">
+        <v>302850139</v>
+      </c>
+      <c r="F218" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.120864477211491</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1.899670295350242</v>
+      </c>
+      <c r="I218" t="n">
+        <v>26.22562127291115</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Recomendacion por analisis multivariable</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>GHO</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>gho</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30663/large/gho-token-logo.png?1720517092</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="n">
+        <v>301823586</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.999455</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-0.003189391568919</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.038144801479684</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.02617310131229</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K219" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Trust Wallet</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>twt</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/11085/large/Trust.png?1696511026</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="n">
+        <v>300250231</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.720627</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2.245728062206979</v>
+      </c>
+      <c r="H220" t="n">
+        <v>7.207888921845364</v>
+      </c>
+      <c r="I220" t="n">
+        <v>-11.54370801710428</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Gnosis</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>gno</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/662/large/logo_square_simple_300px.png?1696501854</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="n">
+        <v>298254597</v>
+      </c>
+      <c r="F221" t="n">
+        <v>113.03</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.519811951731877</v>
+      </c>
+      <c r="H221" t="n">
+        <v>4.765953266983781</v>
+      </c>
+      <c r="I221" t="n">
+        <v>-14.5006863679377</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Wrapped AVAX</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>wavax</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/15075/large/wrapped-avax.png?1696514734</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="n">
+        <v>295613395</v>
+      </c>
+      <c r="F222" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-0.129578357028707</v>
+      </c>
+      <c r="H222" t="n">
+        <v>7.791015242140665</v>
+      </c>
+      <c r="I222" t="n">
+        <v>-13.46085981617814</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>aBTC</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>abtc</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/50837/large/aBTC_512.png?1729260701</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="n">
+        <v>294922148</v>
+      </c>
+      <c r="F223" t="n">
+        <v>109818</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.117718590229107</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2.276122861550853</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3.561986898496721</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Treehouse ETH</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>teth</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/40155/large/tETH_Logo_%28Color__No_Background%29.png?1748368386</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="n">
+        <v>290479355</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3128.05</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.061564420839539</v>
+      </c>
+      <c r="H224" t="n">
+        <v>6.821085757657317</v>
+      </c>
+      <c r="I224" t="n">
+        <v>-0.4917969429396941</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Amp</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>amp</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12409/large/amp-200x200.png?1696512231</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="n">
+        <v>287706145</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.00341566</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.182433068889644</v>
+      </c>
+      <c r="H225" t="n">
+        <v>4.053333034399302</v>
+      </c>
+      <c r="I225" t="n">
+        <v>-17.86010816133367</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Akash Network</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>akt</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12785/large/akash-logo.png?1696512580</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="n">
+        <v>286339242</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.366600904629859</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.540623685470268</v>
+      </c>
+      <c r="I226" t="n">
+        <v>-24.09690827549394</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>OpenEden OpenDollar</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>usdo</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53750/large/USDO_LOGO-white.png?1737181887</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="n">
+        <v>281643533</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-0.082074413287977</v>
+      </c>
+      <c r="H227" t="n">
+        <v>-0.05073848325681601</v>
+      </c>
+      <c r="I227" t="n">
+        <v>-0.07689412876354701</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Creditcoin</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ctc</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/10569/large/Creditcoin_Symbol_dark56.png?1737796066</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="n">
+        <v>274482723</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.6040249999999999</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-0.271396586465855</v>
+      </c>
+      <c r="H228" t="n">
+        <v>3.775524963856284</v>
+      </c>
+      <c r="I228" t="n">
+        <v>-7.047057697558206</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Polygon</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>matic</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4713/large/polygon.png?1698233745</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="n">
+        <v>273543174</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.187566</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-0.9846739501596111</v>
+      </c>
+      <c r="H229" t="n">
+        <v>8.422645154003176</v>
+      </c>
+      <c r="I229" t="n">
+        <v>-13.72793557364341</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>cWBTC</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>cwbtc</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/10823/large/cwbtc.png?1696510780</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="n">
+        <v>273381741</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2205.87</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.15832120101863</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2.266613430124479</v>
+      </c>
+      <c r="I230" t="n">
+        <v>3.497110880270336</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Compounding OpenDollar</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>cusdo</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53751/large/cUSDO_logo_white.png?1737182014</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="n">
+        <v>273273440</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-0.6570768494509971</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.130469893037723</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.167195982612845</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Plume</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>plume</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53623/large/plume-token.png?1736896935</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="n">
+        <v>273247889</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.107534</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-3.699760260145556</v>
+      </c>
+      <c r="H232" t="n">
+        <v>37.13780245689382</v>
+      </c>
+      <c r="I232" t="n">
+        <v>-21.8776275833068</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K232" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Spiko EU T-Bills Money Market Fund</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>eutbl</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39657/large/EUTBL.png?1723517425</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="n">
+        <v>272034862</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-0.402660071283312</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.262751588102686</v>
+      </c>
+      <c r="I233" t="n">
+        <v>3.444080624643089</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Aethir</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ath</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/36179/large/logogram_circle_dark_green_vb_green_%281%29.png?1718232706</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="n">
+        <v>270263313</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.02731156</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-2.52761202184258</v>
+      </c>
+      <c r="H234" t="n">
+        <v>-1.294422285866837</v>
+      </c>
+      <c r="I234" t="n">
+        <v>-46.06319502878758</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Zebec Network</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>zbcn</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/37052/large/zbcn.jpeg?1713168241</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="n">
+        <v>269928592</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.00313599</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-6.604041590075869</v>
+      </c>
+      <c r="H235" t="n">
+        <v>-11.93897230298485</v>
+      </c>
+      <c r="I235" t="n">
+        <v>-27.32384950826589</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="K235" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>BTSE Token</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>btse</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/10807/large/BTSE_logo_Square.jpeg?1696510765</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="n">
+        <v>264099790</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.330448899768047</v>
+      </c>
+      <c r="H236" t="n">
+        <v>-0.482662273934462</v>
+      </c>
+      <c r="I236" t="n">
+        <v>-3.094029144940544</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Keeta</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>kta</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54723/large/2025-03-05_22.53.06.jpg?1741234207</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="n">
+        <v>262560377</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.6495989999999999</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-5.974458660994958</v>
+      </c>
+      <c r="H237" t="n">
+        <v>-6.090646672246082</v>
+      </c>
+      <c r="I237" t="n">
+        <v>-43.76879679502572</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K237" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>pumpBTC</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>pumpbtc</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39232/large/200pxPumpBTCLogo.png?1721227861</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="n">
+        <v>262365897</v>
+      </c>
+      <c r="F238" t="n">
+        <v>101254</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-4.498217328485444</v>
+      </c>
+      <c r="H238" t="n">
+        <v>-3.540087769308855</v>
+      </c>
+      <c r="I238" t="n">
+        <v>-2.501966759931275</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K238" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Livepeer</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>lpt</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/7137/large/badge-logo-circuit-green.png?1719357686</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="n">
+        <v>262062008</v>
+      </c>
+      <c r="F239" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-0.705377195241592</v>
+      </c>
+      <c r="H239" t="n">
+        <v>13.02250410005696</v>
+      </c>
+      <c r="I239" t="n">
+        <v>-21.13652660081385</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Turbo</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>turbo</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30117/large/TurboMark-QL_200.png?1708079597</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="n">
+        <v>259244493</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.00375825</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.6774143882961361</v>
+      </c>
+      <c r="H240" t="n">
+        <v>11.38051496482186</v>
+      </c>
+      <c r="I240" t="n">
+        <v>-14.86067494820403</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Decred</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>dcr</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/329/large/decred.png?1696501665</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>/charts/dcr_chart.png</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>259202822</v>
+      </c>
+      <c r="F241" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-2.004878500549249</v>
+      </c>
+      <c r="H241" t="n">
+        <v>8.536686927838836</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.381429700847943</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Dash</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>dash</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/19/large/dash-logo.png?1696501423</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="n">
+        <v>253843385</v>
+      </c>
+      <c r="F242" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.661387317406381</v>
+      </c>
+      <c r="H242" t="n">
+        <v>6.161583829092268</v>
+      </c>
+      <c r="I242" t="n">
+        <v>-8.159484776092002</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>1inch</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1inch</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13469/large/1inch-token.png?1696513230</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="n">
+        <v>253795422</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.182055</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.9599767607352711</v>
+      </c>
+      <c r="H243" t="n">
+        <v>4.209351876214811</v>
+      </c>
+      <c r="I243" t="n">
+        <v>-17.54306165994133</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Universal BTC</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>unibtc</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39599/large/uniBTC_200px.png?1723064455</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="n">
+        <v>252271592</v>
+      </c>
+      <c r="F244" t="n">
+        <v>106848</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-0.001503951609681</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2.637586678731617</v>
+      </c>
+      <c r="I244" t="n">
+        <v>4.666919234985784</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>BENQI Liquid Staked AVAX</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>savax</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/23657/large/savax_blue.png?1696522860</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="n">
+        <v>250025276</v>
+      </c>
+      <c r="F245" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-0.192870324291016</v>
+      </c>
+      <c r="H245" t="n">
+        <v>7.974130102383974</v>
+      </c>
+      <c r="I245" t="n">
+        <v>-13.11399128219771</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>safe</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/27032/large/Artboard_1_copy_8circle-1.png?1696526084</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="n">
+        <v>249031704</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.409896</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-0.271540141521889</v>
+      </c>
+      <c r="H246" t="n">
+        <v>7.074527640923566</v>
+      </c>
+      <c r="I246" t="n">
+        <v>-22.79465392201658</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Useless Coin</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>useless</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55684/large/useless.png?1746984379</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="n">
+        <v>246331057</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.246124</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-3.51762083626564</v>
+      </c>
+      <c r="H247" t="n">
+        <v>79.88958298057243</v>
+      </c>
+      <c r="I247" t="n">
+        <v>2525.507647713709</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Crecimiento mensual superior al 60 | Tendencia semanal positiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Drift Staked SOL</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>dsol</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/37479/large/solana.png?1714471411</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="n">
+        <v>246113497</v>
+      </c>
+      <c r="F248" t="n">
+        <v>170.8</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-0.360193774730826</v>
+      </c>
+      <c r="H248" t="n">
+        <v>7.483999574601734</v>
+      </c>
+      <c r="I248" t="n">
+        <v>-4.792866732649409</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ETHPlus</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>eth+</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/38061/large/ETH__Logo.png?1716440789</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="n">
+        <v>245346905</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2706.72</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.521982122133537</v>
+      </c>
+      <c r="H249" t="n">
+        <v>6.335314864439311</v>
+      </c>
+      <c r="I249" t="n">
+        <v>-1.492962025010192</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Moca Network</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>moca</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/37812/large/moca.jpg?1720693068</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="n">
+        <v>244790658</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.07245</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1.0724363109705</v>
+      </c>
+      <c r="H250" t="n">
+        <v>3.027166903726215</v>
+      </c>
+      <c r="I250" t="n">
+        <v>-16.69381951840755</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Staked Frax Ether</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>sfrxeth</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28285/large/sfrxETH_icon.png?1696527285</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="n">
+        <v>243560473</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2915.2</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.219637409132233</v>
+      </c>
+      <c r="H251" t="n">
+        <v>6.767980115176423</v>
+      </c>
+      <c r="I251" t="n">
+        <v>-0.9817093419727571</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>cat in a dogs world</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>mew</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/36440/large/MEW.png?1711442286</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="n">
+        <v>243381895</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.00273657</v>
+      </c>
+      <c r="G252" t="n">
+        <v>2.10680397864435</v>
+      </c>
+      <c r="H252" t="n">
+        <v>11.68943396846736</v>
+      </c>
+      <c r="I252" t="n">
+        <v>-20.35032284621738</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Peanut the Squirrel</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>pnut</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51301/large/Peanut_the_Squirrel.png?1734941241</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="n">
+        <v>238048780</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.238033</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-2.28386256570586</v>
+      </c>
+      <c r="H253" t="n">
+        <v>21.28991526102129</v>
+      </c>
+      <c r="I253" t="n">
+        <v>-16.15281694130593</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K253" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Theta Fuel</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>tfuel</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/8029/large/1_0YusgngOrriVg4ZYx4wOFQ.png?1696508251</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="n">
+        <v>232964238</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.03333091</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.41764966479628</v>
+      </c>
+      <c r="H254" t="n">
+        <v>6.622120436118012</v>
+      </c>
+      <c r="I254" t="n">
+        <v>-8.028313723126248</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Golem</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>glm</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/542/large/Golem_Submark_Positive_RGB.png?1696501761</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="n">
+        <v>232412503</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.232493</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.449502742127851</v>
+      </c>
+      <c r="H255" t="n">
+        <v>6.980429655238766</v>
+      </c>
+      <c r="I255" t="n">
+        <v>-5.395505949143961</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>SafePal</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>sfp</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13905/large/sfp.png?1696513647</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="n">
+        <v>229748403</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.459423</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1.238499334239803</v>
+      </c>
+      <c r="H256" t="n">
+        <v>5.895573228587934</v>
+      </c>
+      <c r="I256" t="n">
+        <v>-6.577700353806354</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>mx</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/8545/large/mexc.jpg?1747142259</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="n">
+        <v>225222015</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1.143464698700426</v>
+      </c>
+      <c r="H257" t="n">
+        <v>4.507231188043286</v>
+      </c>
+      <c r="I257" t="n">
+        <v>-10.39351536861095</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Kusama</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>ksm</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/9568/large/m4zRhP5e_400x400.jpg?1696509648</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="n">
+        <v>221761689</v>
+      </c>
+      <c r="F258" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-0.398335423060923</v>
+      </c>
+      <c r="H258" t="n">
+        <v>3.307530636327912</v>
+      </c>
+      <c r="I258" t="n">
+        <v>-21.23301746940073</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Mina Protocol</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>mina</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/15628/large/JM4_vQ34_400x400.png?1696515261</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="n">
+        <v>220930366</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.178128</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.3504304570977611</v>
+      </c>
+      <c r="H259" t="n">
+        <v>7.256732102592848</v>
+      </c>
+      <c r="I259" t="n">
+        <v>-18.55672945861991</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Resolv USR</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>usr</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/40008/large/USR_LOGO.png?1725222638</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="n">
+        <v>218024464</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.999806</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-0.007178515349093001</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.007597163907804001</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.0008543484464590001</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qtum</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>qtum</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/684/large/Qtum_Logo_blue_CG.png?1696501874</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="n">
+        <v>216935160</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-0.354202689719825</v>
+      </c>
+      <c r="H261" t="n">
+        <v>6.193541070761996</v>
+      </c>
+      <c r="I261" t="n">
+        <v>-2.31383761637606</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Euler</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>eul</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/26149/large/Coingecko_logo_%281%29.png?1706026067</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="n">
+        <v>215558021</v>
+      </c>
+      <c r="F262" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="G262" t="n">
+        <v>4.909423827858316</v>
+      </c>
+      <c r="H262" t="n">
+        <v>27.00071666780305</v>
+      </c>
+      <c r="I262" t="n">
+        <v>29.82231551932909</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Tendencia semanal positiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Zilliqa</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>zil</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/2687/large/Zilliqa-logo.png?1696503475</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="n">
+        <v>215465589</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.01104662</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-0.495078161606659</v>
+      </c>
+      <c r="H263" t="n">
+        <v>5.138959833364304</v>
+      </c>
+      <c r="I263" t="n">
+        <v>-6.86437034928737</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Arkham</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>arkm</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30929/large/Arkham_Logo_CG.png?1696529771</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="n">
+        <v>214509256</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.485112</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1.044417956273916</v>
+      </c>
+      <c r="H264" t="n">
+        <v>13.31840751238737</v>
+      </c>
+      <c r="I264" t="n">
+        <v>-14.56847243700389</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>LayerZero</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>zro</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28206/large/ftxG9_TJ_400x400.jpeg?1696527208</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="n">
+        <v>212345573</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1.818806315092459</v>
+      </c>
+      <c r="H265" t="n">
+        <v>13.25674821296563</v>
+      </c>
+      <c r="I265" t="n">
+        <v>-19.0911853939931</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>MANTRA</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>om</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12151/large/OM_Token.png?1696511991</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="n">
+        <v>211716892</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.216566</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1.223376404748554</v>
+      </c>
+      <c r="H266" t="n">
+        <v>8.336550590110484</v>
+      </c>
+      <c r="I266" t="n">
+        <v>-35.03024650942063</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Blockchain Capital</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>bcap</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/56040/large/bcap_logo_200.png?1748088291</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="n">
+        <v>208515082</v>
+      </c>
+      <c r="F267" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="n">
+        <v>-5.724876441515653</v>
+      </c>
+      <c r="I267" t="n">
+        <v>28.88513513513513</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K267" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Berachain</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>bera</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/25235/large/BERA.png?1738822008</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="n">
+        <v>208436672</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-2.41498386625132</v>
+      </c>
+      <c r="H268" t="n">
+        <v>4.915118318191553</v>
+      </c>
+      <c r="I268" t="n">
+        <v>-33.35010980697314</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>IoTeX</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>iotx</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/3334/large/Group_1142815061.png?1751528330</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="n">
+        <v>206024904</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.02183079</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.588327679982094</v>
+      </c>
+      <c r="H269" t="n">
+        <v>3.752972431238701</v>
+      </c>
+      <c r="I269" t="n">
+        <v>-7.061042783279207</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>EURC</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>eurc</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/26045/large/euro.png?1696525125</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="n">
+        <v>205595233</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-0.407471018899512</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.231513571871915</v>
+      </c>
+      <c r="I270" t="n">
+        <v>3.317087769727022</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Ravencoin</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>rvn</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/3412/large/ravencoin.png?1696504108</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="n">
+        <v>205289621</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.01340102</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-0.6311348074119361</v>
+      </c>
+      <c r="H271" t="n">
+        <v>-2.885371784953051</v>
+      </c>
+      <c r="I271" t="n">
+        <v>18.71815613677644</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Synthetix Network</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>snx</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/3406/large/SNX.png?1696504103</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="n">
+        <v>205016875</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.5973959999999999</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.379453153202892</v>
+      </c>
+      <c r="H272" t="n">
+        <v>5.975536052768203</v>
+      </c>
+      <c r="I272" t="n">
+        <v>-16.22287521015832</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Baby Doge Coin</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>babydoge</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/16125/large/babydoge.jpg?1696515731</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="n">
+        <v>201421189</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1.196e-09</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1.29620493820832</v>
+      </c>
+      <c r="H273" t="n">
+        <v>11.42154688039387</v>
+      </c>
+      <c r="I273" t="n">
+        <v>-17.97829771807034</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Toshi</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>toshi</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31126/large/Toshi_Logo_-_Circular.png?1721677476</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="n">
+        <v>198274976</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.00047051</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1.321192305791011</v>
+      </c>
+      <c r="H274" t="n">
+        <v>7.228311481411049</v>
+      </c>
+      <c r="I274" t="n">
+        <v>-19.50627015356831</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Notcoin</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/33453/large/rFmThDiD_400x400.jpg?1701876350</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="n">
+        <v>197460312</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.00192777</v>
+      </c>
+      <c r="G275" t="n">
+        <v>2.190507107973212</v>
+      </c>
+      <c r="H275" t="n">
+        <v>12.363715058611</v>
+      </c>
+      <c r="I275" t="n">
+        <v>-18.32687472125039</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Wrapped Beacon ETH</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>wbeth</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30061/large/wbeth-icon.png?1696528983</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="n">
+        <v>196889753</v>
+      </c>
+      <c r="F276" t="n">
+        <v>2775.52</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.154100820515926</v>
+      </c>
+      <c r="H276" t="n">
+        <v>6.720558639190985</v>
+      </c>
+      <c r="I276" t="n">
+        <v>-0.8378535525696531</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Basic Attention</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/677/large/basic-attention-token.png?1696501867</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="n">
+        <v>194677243</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.13021</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-0.344725272409493</v>
+      </c>
+      <c r="H277" t="n">
+        <v>8.500186283528006</v>
+      </c>
+      <c r="I277" t="n">
+        <v>-4.166736065935265</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="b">
+        <v>0</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Astar</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>astr</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/22617/large/astr.png?1696521933</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="n">
+        <v>193847563</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.02383794</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1.105723870879351</v>
+      </c>
+      <c r="H278" t="n">
+        <v>7.022648595148234</v>
+      </c>
+      <c r="I278" t="n">
+        <v>-12.35924248375612</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="b">
+        <v>0</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Convex Finance</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>cvx</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/15585/large/convex.png?1696515221</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="n">
+        <v>193537256</v>
+      </c>
+      <c r="F279" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-0.9162961900418221</v>
+      </c>
+      <c r="H279" t="n">
+        <v>-1.983172484649413</v>
+      </c>
+      <c r="I279" t="n">
+        <v>-12.55615875865619</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="b">
+        <v>0</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Legacy Token</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>lgct</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/50673/large/token2d.jpg?1728682508</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="n">
+        <v>192538738</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G280" t="n">
+        <v>2.717105692578044</v>
+      </c>
+      <c r="H280" t="n">
+        <v>2.726258805283108</v>
+      </c>
+      <c r="I280" t="n">
+        <v>-7.393889012825842</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="b">
+        <v>0</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>SwissBorg</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>borg</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/2117/large/YJUrRy7r_400x400.png?1696503083</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="n">
+        <v>191972915</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.195519</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-2.510640850219202</v>
+      </c>
+      <c r="H281" t="n">
+        <v>-0.9576940287777341</v>
+      </c>
+      <c r="I281" t="n">
+        <v>-7.837336847221112</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="b">
+        <v>0</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>0x Protocol</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>zrx</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/863/large/0x.png?1696501996</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="n">
+        <v>191580086</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.225853</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-0.238665744034331</v>
+      </c>
+      <c r="H282" t="n">
+        <v>6.896748681098683</v>
+      </c>
+      <c r="I282" t="n">
+        <v>-9.748815501129522</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Neiro</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>neiro</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39488/large/neiro.jpg?1731449567</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="n">
+        <v>190923140</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.00045381</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-2.802995188012485</v>
+      </c>
+      <c r="H283" t="n">
+        <v>31.6192693402017</v>
+      </c>
+      <c r="I283" t="n">
+        <v>-4.227749140768728</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="K283" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Tradable NA Rent Financing Platform SSTN</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>pc0000031</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/66150/large/tradable.jpg?1748488921</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="n">
+        <v>189500000</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="b">
+        <v>0</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Oasis</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>rose</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13162/large/200x200_%28Rounded%29.png?1743579893</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="n">
+        <v>188559703</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.02552039</v>
+      </c>
+      <c r="G285" t="n">
+        <v>2.756409066155424</v>
+      </c>
+      <c r="H285" t="n">
+        <v>13.17891691405093</v>
+      </c>
+      <c r="I285" t="n">
+        <v>-16.00654861182379</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="b">
+        <v>0</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/858/large/GAS_512_512.png?1696501992</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="n">
+        <v>188448910</v>
+      </c>
+      <c r="F286" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.6310765366291571</v>
+      </c>
+      <c r="H286" t="n">
+        <v>6.708995175488782</v>
+      </c>
+      <c r="I286" t="n">
+        <v>-5.111068423550781</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="b">
+        <v>0</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>USDa</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>usda</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51599/large/SUSDA.png?1731604761</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="n">
+        <v>188106878</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.9931829999999999</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.064715017946829</v>
+      </c>
+      <c r="H287" t="n">
+        <v>-0.084882314155589</v>
+      </c>
+      <c r="I287" t="n">
+        <v>-0.238498252294313</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="b">
+        <v>0</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>SKOR AI</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>skorai</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55924/large/Picsart_25-04-12_21-12-13-419.png?1747760073</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="n">
+        <v>188105594</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.215604</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.376966536631369</v>
+      </c>
+      <c r="H288" t="n">
+        <v>19.20382502944489</v>
+      </c>
+      <c r="I288" t="n">
+        <v>5.559773032294486</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K288" t="b">
+        <v>0</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/predicciones_criptos.xlsx
+++ b/data/predicciones_criptos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L288"/>
+  <dimension ref="A1:L289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,7 +576,7 @@
         <v>-1.413630270690066</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>3.310589202212904</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>22.08120425105527</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>2.186606821604448</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>-11.83220447784404</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>39.17162961148887</v>
       </c>
       <c r="J29" t="n">
-        <v>0.08</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>-0.436590730021708</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -2960,7 +2960,7 @@
         <v>-23.37237596293679</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>-9.083725837365744</v>
       </c>
       <c r="J71" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -3440,7 +3440,7 @@
         <v>34.02739822198766</v>
       </c>
       <c r="J74" t="n">
-        <v>0.7</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="K74" t="b">
         <v>1</v>
@@ -3724,7 +3724,7 @@
         <v>-5.46076904273847</v>
       </c>
       <c r="J81" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>3.4530988051059</v>
       </c>
       <c r="J84" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>-7.558543714704253</v>
       </c>
       <c r="J87" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>-29.16914736896904</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -4324,7 +4324,7 @@
         <v>40.64601967701537</v>
       </c>
       <c r="J96" t="n">
-        <v>0.76</v>
+        <v>0.8133333333333334</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
@@ -4368,7 +4368,7 @@
         <v>-1.157675008301329</v>
       </c>
       <c r="J97" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>40.59617452460589</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2</v>
+        <v>0.1933333333333333</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>-10.54919185994349</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>41.49245405224639</v>
       </c>
       <c r="J125" t="n">
-        <v>0.22</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>-24.78709225575369</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
@@ -5636,7 +5636,7 @@
         <v>10.32845530727019</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>-17.93144710419026</v>
       </c>
       <c r="J132" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>11.25593167573568</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>20.92562740792459</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
@@ -6316,7 +6316,7 @@
         <v>-1.190735470056644</v>
       </c>
       <c r="J145" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K145" t="b">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>-5.36541250128957</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K151" t="b">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>10.33620816364243</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K156" t="b">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>66.6628647616337</v>
       </c>
       <c r="J173" t="n">
-        <v>0.7866666666666666</v>
+        <v>0.76</v>
       </c>
       <c r="K173" t="b">
         <v>1</v>
@@ -7532,7 +7532,7 @@
         <v>-6.442915211862388</v>
       </c>
       <c r="J175" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K175" t="b">
         <v>0</v>
@@ -8172,7 +8172,7 @@
         <v>-35.88781794455505</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="K191" t="b">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>-4.853434536256496</v>
       </c>
       <c r="J204" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K204" t="b">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>-0.813922570496419</v>
       </c>
       <c r="J207" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K207" t="b">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>-22.68415905786022</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K214" t="b">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>-3.287565598806175</v>
       </c>
       <c r="J215" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K215" t="b">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>-4.940289975299794</v>
       </c>
       <c r="J216" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K216" t="b">
         <v>0</v>
@@ -9220,7 +9220,7 @@
         <v>3.945279934292688</v>
       </c>
       <c r="J217" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K217" t="b">
         <v>0</v>
@@ -9304,7 +9304,7 @@
         <v>0.02617310131229</v>
       </c>
       <c r="J219" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
@@ -9384,7 +9384,7 @@
         <v>-14.5006863679377</v>
       </c>
       <c r="J221" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K221" t="b">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>-21.8776275833068</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="K232" t="b">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>-27.32384950826589</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04666666666666667</v>
+        <v>0.06</v>
       </c>
       <c r="K235" t="b">
         <v>0</v>
@@ -10024,7 +10024,7 @@
         <v>-43.76879679502572</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="K237" t="b">
         <v>0</v>
@@ -10064,7 +10064,7 @@
         <v>-2.501966759931275</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K238" t="b">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>-8.159484776092002</v>
       </c>
       <c r="J242" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K242" t="b">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>2525.507647713709</v>
       </c>
       <c r="J247" t="n">
-        <v>0.58</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="K247" t="b">
         <v>1</v>
@@ -10672,7 +10672,7 @@
         <v>-16.15281694130593</v>
       </c>
       <c r="J253" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K253" t="b">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>29.82231551932909</v>
       </c>
       <c r="J262" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="K262" t="b">
         <v>1</v>
@@ -11236,7 +11236,7 @@
         <v>28.88513513513513</v>
       </c>
       <c r="J267" t="n">
-        <v>0.12</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="K267" t="b">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>18.71815613677644</v>
       </c>
       <c r="J271" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K271" t="b">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>-4.227749140768728</v>
       </c>
       <c r="J283" t="n">
-        <v>0.04666666666666667</v>
+        <v>0.02</v>
       </c>
       <c r="K283" t="b">
         <v>0</v>
@@ -12076,12 +12076,56 @@
         <v>5.559773032294486</v>
       </c>
       <c r="J288" t="n">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K288" t="b">
         <v>0</v>
       </c>
       <c r="L288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Moo Deng</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>moodeng</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/50264/large/MOODENG.jpg?1726726975</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>/charts/moodeng_chart.png</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>188745454</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.189982</v>
+      </c>
+      <c r="G289" t="n">
+        <v>12.6837776520067</v>
+      </c>
+      <c r="H289" t="n">
+        <v>40.4236651718855</v>
+      </c>
+      <c r="I289" t="n">
+        <v>-12.48789007620941</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K289" t="b">
+        <v>0</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/predicciones_criptos.xlsx
+++ b/data/predicciones_criptos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L289"/>
+  <dimension ref="A1:L384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,7 +576,7 @@
         <v>-1.413630270690066</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>22.08120425105527</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>-11.83220447784404</v>
       </c>
       <c r="J21" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>-10.71042061533567</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>39.17162961148887</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>-0.436590730021708</v>
       </c>
       <c r="J43" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>-14.88173006709638</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>-13.60086853440658</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>-19.01774212095845</v>
       </c>
       <c r="J57" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>3.672065484066418</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>-22.95847335923886</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -3440,14 +3440,14 @@
         <v>34.02739822198766</v>
       </c>
       <c r="J74" t="n">
-        <v>0.7066666666666667</v>
+        <v>0.76</v>
       </c>
       <c r="K74" t="b">
         <v>1</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Rendimiento mensual superior al 30</t>
+          <t>Buen rendimiento mensual (+30%) | Buena puntuacion en analisis multivariable</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
         <v>-0.002877455154935</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>-0.035522872151087</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>-5.46076904273847</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>3.4530988051059</v>
       </c>
       <c r="J84" t="n">
-        <v>0.07333333333333333</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>-7.558543714704253</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>-29.16914736896904</v>
       </c>
       <c r="J88" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>-20.73487845027156</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>-16.34997855450167</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>-1.190710980089554</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>-0.021382708202666</v>
       </c>
       <c r="J95" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -4324,14 +4324,14 @@
         <v>40.64601967701537</v>
       </c>
       <c r="J96" t="n">
-        <v>0.8133333333333334</v>
+        <v>0.8066666666666666</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Rendimiento mensual superior al 30 | Tendencia semanal positiva</t>
+          <t>Buen rendimiento mensual (+30%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
         <v>-1.157675008301329</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>40.59617452460589</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1933333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>-10.54919185994349</v>
       </c>
       <c r="J102" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>-4.60285756728105</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>-11.02243559720266</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>0.335258106868906</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>41.49245405224639</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1733333333333333</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>-24.78709225575369</v>
       </c>
       <c r="J126" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
@@ -5636,7 +5636,7 @@
         <v>10.32845530727019</v>
       </c>
       <c r="J128" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>-17.93144710419026</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>11.25593167573568</v>
       </c>
       <c r="J138" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>20.92562740792459</v>
       </c>
       <c r="J144" t="n">
-        <v>0.07333333333333333</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
@@ -6316,7 +6316,7 @@
         <v>-1.190735470056644</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K145" t="b">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>-5.36541250128957</v>
       </c>
       <c r="J151" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K151" t="b">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>10.33620816364243</v>
       </c>
       <c r="J156" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K156" t="b">
         <v>0</v>
@@ -7448,14 +7448,14 @@
         <v>66.6628647616337</v>
       </c>
       <c r="J173" t="n">
-        <v>0.76</v>
+        <v>0.52</v>
       </c>
       <c r="K173" t="b">
         <v>1</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Crecimiento mensual superior al 60 | Tendencia semanal positiva</t>
+          <t>Crecimiento mensual sobresaliente (+60%) | Fuerte tendencia semanal (+10%)</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
         <v>5.317709580767196</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K174" t="b">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>-2.090806463705334</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K188" t="b">
         <v>0</v>
@@ -8172,7 +8172,7 @@
         <v>-35.88781794455505</v>
       </c>
       <c r="J191" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.02</v>
       </c>
       <c r="K191" t="b">
         <v>0</v>
@@ -8212,7 +8212,7 @@
         <v>-24.11678545003828</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K192" t="b">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>-12.26553879250178</v>
       </c>
       <c r="J193" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K193" t="b">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1.046832409288845</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K200" t="b">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>-7.532973615214416</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K202" t="b">
         <v>0</v>
@@ -8660,7 +8660,7 @@
         <v>-15.68666441754651</v>
       </c>
       <c r="J203" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K203" t="b">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>-4.853434536256496</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K204" t="b">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>-14.9165130167515</v>
       </c>
       <c r="J205" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K205" t="b">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>-0.813922570496419</v>
       </c>
       <c r="J207" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K207" t="b">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>-22.68415905786022</v>
       </c>
       <c r="J214" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K214" t="b">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>-4.940289975299794</v>
       </c>
       <c r="J216" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K216" t="b">
         <v>0</v>
@@ -9260,14 +9260,14 @@
         <v>26.22562127291115</v>
       </c>
       <c r="J218" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="K218" t="b">
         <v>1</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Recomendacion por analisis multivariable</t>
+          <t>Buena puntuacion en analisis multivariable</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9304,7 @@
         <v>0.02617310131229</v>
       </c>
       <c r="J219" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>-11.54370801710428</v>
       </c>
       <c r="J220" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K220" t="b">
         <v>0</v>
@@ -9384,7 +9384,7 @@
         <v>-14.5006863679377</v>
       </c>
       <c r="J221" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K221" t="b">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>-13.46085981617814</v>
       </c>
       <c r="J222" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K222" t="b">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>3.561986898496721</v>
       </c>
       <c r="J223" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K223" t="b">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>-0.4917969429396941</v>
       </c>
       <c r="J224" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K224" t="b">
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>3.497110880270336</v>
       </c>
       <c r="J230" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K230" t="b">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>-21.8776275833068</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K232" t="b">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>-27.32384950826589</v>
       </c>
       <c r="J235" t="n">
-        <v>0.06</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K235" t="b">
         <v>0</v>
@@ -10024,7 +10024,7 @@
         <v>-43.76879679502572</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K237" t="b">
         <v>0</v>
@@ -10064,7 +10064,7 @@
         <v>-2.501966759931275</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K238" t="b">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>-8.159484776092002</v>
       </c>
       <c r="J242" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K242" t="b">
         <v>0</v>
@@ -10428,14 +10428,14 @@
         <v>2525.507647713709</v>
       </c>
       <c r="J247" t="n">
-        <v>0.5733333333333334</v>
+        <v>0.8133333333333334</v>
       </c>
       <c r="K247" t="b">
         <v>1</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Crecimiento mensual superior al 60 | Tendencia semanal positiva</t>
+          <t>Explosion mensual (+100%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
         </is>
       </c>
     </row>
@@ -10672,7 +10672,7 @@
         <v>-16.15281694130593</v>
       </c>
       <c r="J253" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K253" t="b">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0.0008543484464590001</v>
       </c>
       <c r="J260" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K260" t="b">
         <v>0</v>
@@ -10992,7 +10992,7 @@
         <v>-2.31383761637606</v>
       </c>
       <c r="J261" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K261" t="b">
         <v>0</v>
@@ -11032,14 +11032,14 @@
         <v>29.82231551932909</v>
       </c>
       <c r="J262" t="n">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="K262" t="b">
         <v>1</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Tendencia semanal positiva</t>
+          <t>Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
         <v>-6.86437034928737</v>
       </c>
       <c r="J263" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K263" t="b">
         <v>0</v>
@@ -11116,7 +11116,7 @@
         <v>-14.56847243700389</v>
       </c>
       <c r="J264" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K264" t="b">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>-19.0911853939931</v>
       </c>
       <c r="J265" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K265" t="b">
         <v>0</v>
@@ -11236,7 +11236,7 @@
         <v>28.88513513513513</v>
       </c>
       <c r="J267" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.06</v>
       </c>
       <c r="K267" t="b">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>-33.35010980697314</v>
       </c>
       <c r="J268" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K268" t="b">
         <v>0</v>
@@ -11316,7 +11316,7 @@
         <v>-7.061042783279207</v>
       </c>
       <c r="J269" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K269" t="b">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>18.71815613677644</v>
       </c>
       <c r="J271" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.06</v>
       </c>
       <c r="K271" t="b">
         <v>0</v>
@@ -11476,7 +11476,7 @@
         <v>-17.97829771807034</v>
       </c>
       <c r="J273" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K273" t="b">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>-18.32687472125039</v>
       </c>
       <c r="J275" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K275" t="b">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>-12.35924248375612</v>
       </c>
       <c r="J278" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K278" t="b">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>-4.227749140768728</v>
       </c>
       <c r="J283" t="n">
-        <v>0.02</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K283" t="b">
         <v>0</v>
@@ -11956,7 +11956,7 @@
         <v>-16.00654861182379</v>
       </c>
       <c r="J285" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K285" t="b">
         <v>0</v>
@@ -12076,7 +12076,7 @@
         <v>5.559773032294486</v>
       </c>
       <c r="J288" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K288" t="b">
         <v>0</v>
@@ -12120,12 +12120,3872 @@
         <v>-12.48789007620941</v>
       </c>
       <c r="J289" t="n">
-        <v>0.08</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="K289" t="b">
         <v>0</v>
       </c>
       <c r="L289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>WEMIX</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>wemix</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12998/large/wemixcoin_color_200.png?1696512788</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="n">
+        <v>185559861</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.409828</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-4.074858309121512</v>
+      </c>
+      <c r="H290" t="n">
+        <v>8.525242184137417</v>
+      </c>
+      <c r="I290" t="n">
+        <v>-1.129843369938731</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K290" t="b">
+        <v>0</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>GoMining Token</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>gomining</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/15662/large/GoMining_Logo.png?1714757256</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>/charts/gomining_chart.png</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>173556334</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.426237</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.330268659792173</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.839172278745255</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.477208580444714</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="b">
+        <v>0</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Tribe</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>tribe</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/14575/large/tribe.PNG?1696514256</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>/charts/tribe_chart.png</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>172810499</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.378956</v>
+      </c>
+      <c r="G292" t="n">
+        <v>1.072489896337324</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.4329803423174861</v>
+      </c>
+      <c r="I292" t="n">
+        <v>-6.855098801741073</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="b">
+        <v>0</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>yearn.finance</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>yfi</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/11849/large/yearn.jpg?1696511720</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>/charts/yfi_chart.png</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>171813237</v>
+      </c>
+      <c r="F293" t="n">
+        <v>5084.35</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-2.567881858139967</v>
+      </c>
+      <c r="H293" t="n">
+        <v>-0.9313022698150201</v>
+      </c>
+      <c r="I293" t="n">
+        <v>-3.233286290414927</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="b">
+        <v>0</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Verus</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>vrsc</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/6769/large/Screenshot_33.png?1696507103</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="n">
+        <v>171688399</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-3.115551402275422</v>
+      </c>
+      <c r="H294" t="n">
+        <v>-1.605995396509903</v>
+      </c>
+      <c r="I294" t="n">
+        <v>-13.98363746428585</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="b">
+        <v>0</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>VeThor</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>vtho</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/5230/large/VETHO.png?1742383301</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="n">
+        <v>171043911</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.00187141</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-2.195481153753927</v>
+      </c>
+      <c r="H295" t="n">
+        <v>-3.599888404608408</v>
+      </c>
+      <c r="I295" t="n">
+        <v>-11.52695523853806</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="b">
+        <v>0</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Aster Staked BNB</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>asbnb</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54129/large/asBNB.png?1744789305</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="n">
+        <v>168050967</v>
+      </c>
+      <c r="F296" t="n">
+        <v>683.63</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-0.6216099566378051</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.543031744860314</v>
+      </c>
+      <c r="I296" t="n">
+        <v>-0.756420963240059</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K296" t="b">
+        <v>0</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Blur</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>blur</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28453/large/blur.png?1696527448</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="n">
+        <v>166274431</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.068939</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-2.774499539906756</v>
+      </c>
+      <c r="H297" t="n">
+        <v>-3.430576857333929</v>
+      </c>
+      <c r="I297" t="n">
+        <v>-21.41862298043247</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="b">
+        <v>0</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Siacoin</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>sc</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/289/large/siacoin.png?1696501638</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="n">
+        <v>165574678</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.00295574</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-1.217426611143195</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1.439606322154472</v>
+      </c>
+      <c r="I298" t="n">
+        <v>-9.803630780273743</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="b">
+        <v>0</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Elixir deUSD</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>deusd</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39494/large/deUSD_Logo_%281%29.png?1723689002</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="n">
+        <v>164889411</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.999976</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.004379949435302</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.07610912182964301</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.026114110530444</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="b">
+        <v>0</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>OriginTrail</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>trac</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/1877/large/TRAC.jpg?1696502873</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="n">
+        <v>164831931</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.329964</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1.114455360110832</v>
+      </c>
+      <c r="H300" t="n">
+        <v>2.093108781475263</v>
+      </c>
+      <c r="I300" t="n">
+        <v>-14.1267229746276</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K300" t="b">
+        <v>0</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>ai16z</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>ai16z</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51090/large/AI16Z.jpg?1730027175</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="n">
+        <v>164059630</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.149301</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-4.461143143977305</v>
+      </c>
+      <c r="H301" t="n">
+        <v>-4.328120041396573</v>
+      </c>
+      <c r="I301" t="n">
+        <v>-30.79976552723882</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K301" t="b">
+        <v>0</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>MimboGameGroup</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>mgg</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/66393/large/mimbo.jpg?1749367847</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="n">
+        <v>163868562</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.00142995</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-0.29810477188049</v>
+      </c>
+      <c r="H302" t="n">
+        <v>4.753293726069501</v>
+      </c>
+      <c r="I302" t="n">
+        <v>21.18961591278832</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.4066666666666667</v>
+      </c>
+      <c r="K302" t="b">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>Recomendacion por analisis multivariable</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Celo</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>celo</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/11090/large/InjXBNx9_400x400.jpg?1696511031</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="n">
+        <v>163834584</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.285304</v>
+      </c>
+      <c r="G303" t="n">
+        <v>4.503680001612967</v>
+      </c>
+      <c r="H303" t="n">
+        <v>9.239199423787975</v>
+      </c>
+      <c r="I303" t="n">
+        <v>-8.65285976745222</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K303" t="b">
+        <v>0</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>KOGE</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>koge</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13827/large/bnb48.png?1696513570</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="n">
+        <v>162576242</v>
+      </c>
+      <c r="F304" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-0.278688018973484</v>
+      </c>
+      <c r="H304" t="n">
+        <v>-0.071940739560775</v>
+      </c>
+      <c r="I304" t="n">
+        <v>-24.41997290272294</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="b">
+        <v>0</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ZetaChain</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>zeta</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/26718/large/Twitter_icon.png?1696525788</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="n">
+        <v>161708649</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.174827</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-1.784245873844842</v>
+      </c>
+      <c r="H305" t="n">
+        <v>-0.8613007897986761</v>
+      </c>
+      <c r="I305" t="n">
+        <v>-17.54381302839132</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="b">
+        <v>0</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Nervos Network</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>ckb</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/9566/large/Nervos_White.png?1696509646</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="n">
+        <v>161257757</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.00344303</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-2.18474340691503</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.710715206254076</v>
+      </c>
+      <c r="I306" t="n">
+        <v>-15.16888882484637</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="b">
+        <v>0</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Aave USDC (Sonic)</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>asonusdc</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55659/large/aSonUSDC_200x200.png?1746866473</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="n">
+        <v>159691061</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.999691</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-0.031596365228788</v>
+      </c>
+      <c r="H307" t="n">
+        <v>-0.011687185412838</v>
+      </c>
+      <c r="I307" t="n">
+        <v>-0.02777123232285</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="b">
+        <v>0</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Steakhouse USDC Morpho Vault</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>steakusdc</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51473/large/steakUSDC.png?1731396462</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="n">
+        <v>158831815</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.012734817960278</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.059582168070502</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.330852639830966</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="b">
+        <v>0</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Wrapped fragSOL</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>wfragsol</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54574/large/wfragSOL.png?1740494202</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="n">
+        <v>158416336</v>
+      </c>
+      <c r="F309" t="n">
+        <v>156.97</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-2.228924229766797</v>
+      </c>
+      <c r="H309" t="n">
+        <v>-4.00732123105914</v>
+      </c>
+      <c r="I309" t="n">
+        <v>-1.299814162685677</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="b">
+        <v>0</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ORDI</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>ordi</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30162/large/ordi.png?1696529082</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="n">
+        <v>156279059</v>
+      </c>
+      <c r="F310" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-2.666208340237463</v>
+      </c>
+      <c r="H310" t="n">
+        <v>-0.397118645190299</v>
+      </c>
+      <c r="I310" t="n">
+        <v>-12.79945679381139</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="b">
+        <v>0</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Threshold Network</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/22228/large/nFPNiSbL_400x400.jpg?1696521570</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="n">
+        <v>155620775</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.01538858</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-1.400888891943648</v>
+      </c>
+      <c r="H311" t="n">
+        <v>-9.628363676819511</v>
+      </c>
+      <c r="I311" t="n">
+        <v>4.392008408060252</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="b">
+        <v>0</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qubic</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>qubic</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/32949/large/QubicLogo-Token.png?1731185925</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="n">
+        <v>155588831</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1.3e-06</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-3.367959441288828</v>
+      </c>
+      <c r="H312" t="n">
+        <v>-6.443663224406889</v>
+      </c>
+      <c r="I312" t="n">
+        <v>-9.269192371854864</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K312" t="b">
+        <v>0</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Sologenic</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>solo</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/10771/large/solo.png?1696510734</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="n">
+        <v>154156944</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.388828</v>
+      </c>
+      <c r="G313" t="n">
+        <v>30.55373104629811</v>
+      </c>
+      <c r="H313" t="n">
+        <v>53.02750692547342</v>
+      </c>
+      <c r="I313" t="n">
+        <v>57.46227086244219</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.8866666666666667</v>
+      </c>
+      <c r="K313" t="b">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>Buen rendimiento mensual (+30%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Kinesis Gold</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>kau</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/29788/large/kau-currency-ticker.png?1696528718</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="n">
+        <v>154085058</v>
+      </c>
+      <c r="F314" t="n">
+        <v>107.23</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-0.110488944025881</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.727584017234675</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.116753765151209</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K314" t="b">
+        <v>0</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Fluid</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>fluid</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/14688/large/Logo_1_%28brighter%29.png?1734430693</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="n">
+        <v>153275256</v>
+      </c>
+      <c r="F315" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-1.494363409187427</v>
+      </c>
+      <c r="H315" t="n">
+        <v>-2.506440709762445</v>
+      </c>
+      <c r="I315" t="n">
+        <v>-2.172282440318701</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="b">
+        <v>0</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Banana For Scale</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>bananas31</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52230/large/Banana_token_image.png?1732801941</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="n">
+        <v>152067331</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.01521073</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-4.285533828526153</v>
+      </c>
+      <c r="H316" t="n">
+        <v>21.27925790625024</v>
+      </c>
+      <c r="I316" t="n">
+        <v>159.2683749555226</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K316" t="b">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>Explosion mensual (+100%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>UXLINK</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>uxlink</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39229/large/uxlink.jpg?1721201390</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="n">
+        <v>151645230</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.370845</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-1.299384081890835</v>
+      </c>
+      <c r="H317" t="n">
+        <v>15.82055066921277</v>
+      </c>
+      <c r="I317" t="n">
+        <v>-4.551014439902161</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K317" t="b">
+        <v>0</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>aelf</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>elf</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/1371/large/aelf-logo.png?1696502429</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="n">
+        <v>151483126</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.198146</v>
+      </c>
+      <c r="G318" t="n">
+        <v>2.652283807491153</v>
+      </c>
+      <c r="H318" t="n">
+        <v>7.007799435200565</v>
+      </c>
+      <c r="I318" t="n">
+        <v>-10.65008778482681</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K318" t="b">
+        <v>0</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Polymesh</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>polyx</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/23496/large/Polymesh-symbol.png?1696522706</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="n">
+        <v>151479265</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.128668</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.09683156796684901</v>
+      </c>
+      <c r="H319" t="n">
+        <v>4.024895527975034</v>
+      </c>
+      <c r="I319" t="n">
+        <v>-8.53412708937161</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K319" t="b">
+        <v>0</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Rekt</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>rekt</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51727/large/rektcion_trans_200px.png?1731910587</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="n">
+        <v>150400545</v>
+      </c>
+      <c r="F320" t="n">
+        <v>3.57695e-07</v>
+      </c>
+      <c r="G320" t="n">
+        <v>9.035445356863391</v>
+      </c>
+      <c r="H320" t="n">
+        <v>23.41619637610157</v>
+      </c>
+      <c r="I320" t="n">
+        <v>37.21380388528376</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.8866666666666667</v>
+      </c>
+      <c r="K320" t="b">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>Buen rendimiento mensual (+30%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>AgentFun.AI</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>agentfun</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52133/large/AIFUN_%282%29.png?1732639482</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="n">
+        <v>150119308</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-1.297182832576729</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.149676508485657</v>
+      </c>
+      <c r="I321" t="n">
+        <v>-21.43936690564185</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="b">
+        <v>0</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Gigachad</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>giga</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/34755/large/IMG_0015.png?1705957165</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="n">
+        <v>148274965</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.01543907</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-6.109580917731808</v>
+      </c>
+      <c r="H322" t="n">
+        <v>-10.00275577700833</v>
+      </c>
+      <c r="I322" t="n">
+        <v>-31.17611753946589</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="b">
+        <v>0</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Zano</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>zano</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/8370/large/zano.png?1696508563</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="n">
+        <v>147125434</v>
+      </c>
+      <c r="F323" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="G323" t="n">
+        <v>8.610324701499897</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.123147332484865</v>
+      </c>
+      <c r="I323" t="n">
+        <v>-2.709078235406632</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K323" t="b">
+        <v>0</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Holo</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/3348/large/hot-mark-med.png?1747766692</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="n">
+        <v>146657892</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.00082622</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-2.063265708731876</v>
+      </c>
+      <c r="H324" t="n">
+        <v>-1.546859323078864</v>
+      </c>
+      <c r="I324" t="n">
+        <v>-14.93767147981043</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="b">
+        <v>0</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Stargate Finance</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/24413/large/STG_LOGO.png?1696523595</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="n">
+        <v>145976324</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.150589</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-1.554695266419381</v>
+      </c>
+      <c r="H325" t="n">
+        <v>-1.815628615889379</v>
+      </c>
+      <c r="I325" t="n">
+        <v>-16.92291943985111</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Nexus Mutual</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>nxm</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/11810/large/NXMmain.png?1696511684</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="n">
+        <v>144743401</v>
+      </c>
+      <c r="F326" t="n">
+        <v>59.12</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-1.315535979403141</v>
+      </c>
+      <c r="H326" t="n">
+        <v>4.243685478962562</v>
+      </c>
+      <c r="I326" t="n">
+        <v>-0.047427938148765</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K326" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>STASIS EURO</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>eurs</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/5164/large/EURS_300x300.png?1696505680</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="n">
+        <v>144283443</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-1.349361644656841</v>
+      </c>
+      <c r="H327" t="n">
+        <v>-0.7814677985861921</v>
+      </c>
+      <c r="I327" t="n">
+        <v>2.140891045728902</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="b">
+        <v>0</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>CoW Protocol</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>cow</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/24384/large/CoW-token_logo.png?1719524382</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="n">
+        <v>141882266</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.290601</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-1.905896063659856</v>
+      </c>
+      <c r="H328" t="n">
+        <v>2.591243195878043</v>
+      </c>
+      <c r="I328" t="n">
+        <v>-22.68250106939329</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K328" t="b">
+        <v>0</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>EthereumPoW</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>ethw</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/26997/large/logo-clear.png?1696526049</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="n">
+        <v>140686652</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-0.7600893210176111</v>
+      </c>
+      <c r="H329" t="n">
+        <v>-0.403944476866815</v>
+      </c>
+      <c r="I329" t="n">
+        <v>-8.29251934296121</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="b">
+        <v>0</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Kinesis Silver</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>kag</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/29789/large/kag-currency-ticker.png?1696528719</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="n">
+        <v>140632200</v>
+      </c>
+      <c r="F330" t="n">
+        <v>36.81</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-1.168146123093157</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1.783346593837996</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.06846773131718101</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="b">
+        <v>0</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>GMX</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>gmx</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/18323/large/arbit.png?1696517814</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="n">
+        <v>140217945</v>
+      </c>
+      <c r="F331" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-2.349585586546924</v>
+      </c>
+      <c r="H331" t="n">
+        <v>-0.5789781450671291</v>
+      </c>
+      <c r="I331" t="n">
+        <v>-15.10919686112438</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="b">
+        <v>0</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Prom</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>prom</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/8825/large/Ticker.png?1696508978</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="n">
+        <v>139956532</v>
+      </c>
+      <c r="F332" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.8186967834672221</v>
+      </c>
+      <c r="H332" t="n">
+        <v>22.38256633732004</v>
+      </c>
+      <c r="I332" t="n">
+        <v>43.17450146034166</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Buen rendimiento mensual (+30%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Ankr Network</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>ankr</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4324/large/U85xTl2.png?1696504928</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="n">
+        <v>139904559</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.01399748</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-1.476541831583871</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.8958587418382531</v>
+      </c>
+      <c r="I333" t="n">
+        <v>-13.62772268067522</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K333" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Origin Ether</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>oeth</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/29733/large/OETH.png?1696528663</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="n">
+        <v>139187273</v>
+      </c>
+      <c r="F334" t="n">
+        <v>2536.33</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-1.377067499071108</v>
+      </c>
+      <c r="H334" t="n">
+        <v>1.832658354905808</v>
+      </c>
+      <c r="I334" t="n">
+        <v>-0.060574824621586</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K334" t="b">
+        <v>0</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>FUNToken</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>fun</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/761/large/FUN.png?1696501914</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="n">
+        <v>138997287</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.01315389</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-0.235236154670854</v>
+      </c>
+      <c r="H335" t="n">
+        <v>31.51784134649767</v>
+      </c>
+      <c r="I335" t="n">
+        <v>266.4637033990667</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K335" t="b">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>Explosion mensual (+100%) | Fuerte tendencia semanal (+10%) | Buena puntuacion en analisis multivariable</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Infrared Bera</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>ibera</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54671/large/ibera.jpg?1740966414</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>/charts/ibera_chart.png</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>137615816</v>
+      </c>
+      <c r="F336" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-1.96225858646157</v>
+      </c>
+      <c r="H336" t="n">
+        <v>-2.677094688926385</v>
+      </c>
+      <c r="I336" t="n">
+        <v>-29.0214076253454</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="b">
+        <v>0</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Casper Network</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>cspr</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/15279/large/Casper_Monogram_Favicon_White_on_Red_Circle_RGB_200px.png?1749832573</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>/charts/cspr_chart.png</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>137071938</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.01036343</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-2.484483976761112</v>
+      </c>
+      <c r="H337" t="n">
+        <v>-6.164714931044064</v>
+      </c>
+      <c r="I337" t="n">
+        <v>-21.36335714978747</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K337" t="b">
+        <v>0</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Freysa AI</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>fai</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52315/large/FAI.png?1733076295</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>/charts/fai_chart.png</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>136263036</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.01663553</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-0.199139872497529</v>
+      </c>
+      <c r="H338" t="n">
+        <v>-4.28818986405169</v>
+      </c>
+      <c r="I338" t="n">
+        <v>-12.30027189053258</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="b">
+        <v>0</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>MAG7.ssi</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>mag7.ssi</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52962/large/mag7.png?1734863745</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="n">
+        <v>136113939</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.767292</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-0.483757698407588</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.7129195425765621</v>
+      </c>
+      <c r="I339" t="n">
+        <v>-0.8430173740105851</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K339" t="b">
+        <v>0</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Chia</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>xch</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/15174/large/zV5K5y9f_400x400.png?1696514829</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="n">
+        <v>134751665</v>
+      </c>
+      <c r="F340" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-3.316635531478009</v>
+      </c>
+      <c r="H340" t="n">
+        <v>-6.242986772151665</v>
+      </c>
+      <c r="I340" t="n">
+        <v>-16.28692181705772</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K340" t="b">
+        <v>0</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Drift Protocol</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>drift</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/37509/large/DRIFT.png?1715842607</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="n">
+        <v>134464837</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.394441</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-0.5624415781067851</v>
+      </c>
+      <c r="H341" t="n">
+        <v>5.646295769942792</v>
+      </c>
+      <c r="I341" t="n">
+        <v>-20.13485927990476</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="K341" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Snek</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>snek</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30496/large/snek_icon_200_v2.png?1737994261</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="n">
+        <v>134272137</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.00180139</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-5.338223353713698</v>
+      </c>
+      <c r="H342" t="n">
+        <v>-9.340110610186503</v>
+      </c>
+      <c r="I342" t="n">
+        <v>-29.19520734166939</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Harmony</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4344/large/Y88JAze.png?1696504947</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="n">
+        <v>134235827</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.00916113</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-2.815157951132257</v>
+      </c>
+      <c r="H343" t="n">
+        <v>-6.497665436841836</v>
+      </c>
+      <c r="I343" t="n">
+        <v>-21.31820318937763</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K343" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>CoinEx</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>cet</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4817/large/coinex-token.png?1696505367</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="n">
+        <v>134083550</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.050366</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.333578451287538</v>
+      </c>
+      <c r="H344" t="n">
+        <v>-6.882762557421142</v>
+      </c>
+      <c r="I344" t="n">
+        <v>-19.51476990991648</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Resolv RLP</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>rlp</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/40017/large/orangeLogo..png?1725344586</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="n">
+        <v>132930883</v>
+      </c>
+      <c r="F345" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.603523393167491</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.360753647187372</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.543455327093184</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="K345" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>KUB Coin</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>kub</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/15760/large/KUB_Coin_2025.png?1741751451</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="n">
+        <v>131571742</v>
+      </c>
+      <c r="F346" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-0.298603647549984</v>
+      </c>
+      <c r="H346" t="n">
+        <v>-1.943759151501483</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1.452860414381445</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="b">
+        <v>0</v>
+      </c>
+      <c r="L346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>TDCCP</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>tdccp</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55581/large/tdccp-logo.jpg?1746787823</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="n">
+        <v>129953388</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.203052</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-2.454978580760825</v>
+      </c>
+      <c r="H347" t="n">
+        <v>-5.069449043633151</v>
+      </c>
+      <c r="I347" t="n">
+        <v>-4.011050559946679</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K347" t="b">
+        <v>0</v>
+      </c>
+      <c r="L347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Conscious Token</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>conscious</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55111/large/conscious_token_logo.png?1743754945</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="n">
+        <v>129946144</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.129947</v>
+      </c>
+      <c r="G348" t="n">
+        <v>1.916533700658077</v>
+      </c>
+      <c r="H348" t="n">
+        <v>9.447578592726991</v>
+      </c>
+      <c r="I348" t="n">
+        <v>23.925163867219</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="K348" t="b">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>Tendencia semanal positiva | Alta confianza del modelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>DigiByte</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>dgb</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/63/large/digibyte.png?1696501454</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="n">
+        <v>129940861</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.007303899999999999</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-2.383960444779298</v>
+      </c>
+      <c r="H349" t="n">
+        <v>-3.463150240093763</v>
+      </c>
+      <c r="I349" t="n">
+        <v>-18.67734229487051</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K349" t="b">
+        <v>0</v>
+      </c>
+      <c r="L349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>AUSD</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>ausd</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39284/large/Circle_Agora_White_on_Olive_1080px.png?1722961274</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="n">
+        <v>129816235</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.9991819999999999</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-0.04216970136813501</v>
+      </c>
+      <c r="H350" t="n">
+        <v>-0.023764863961875</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.010699752596621</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="b">
+        <v>0</v>
+      </c>
+      <c r="L350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>icx</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/1060/large/ICON-symbol-coingecko_latest.png?1706638336</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="n">
+        <v>129714469</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.121311</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-1.25684031741597</v>
+      </c>
+      <c r="H351" t="n">
+        <v>-2.498098283203195</v>
+      </c>
+      <c r="I351" t="n">
+        <v>-22.51186307466467</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="b">
+        <v>0</v>
+      </c>
+      <c r="L351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Vana</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>vana</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51404/large/logo.png?1731086679</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="n">
+        <v>129363133</v>
+      </c>
+      <c r="F352" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-3.465187631110382</v>
+      </c>
+      <c r="H352" t="n">
+        <v>-3.918396711569448</v>
+      </c>
+      <c r="I352" t="n">
+        <v>-33.49167283221084</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
+      <c r="K352" t="b">
+        <v>0</v>
+      </c>
+      <c r="L352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Function ƒBTC</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>fbtc</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39182/large/fbtc.png?1740123952</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="n">
+        <v>129143415</v>
+      </c>
+      <c r="F353" t="n">
+        <v>107354</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-1.920941626058651</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.207992666500588</v>
+      </c>
+      <c r="I353" t="n">
+        <v>1.448375432435249</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
+      <c r="K353" t="b">
+        <v>0</v>
+      </c>
+      <c r="L353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Coinshift USDL Morpho Vault</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>csusdl</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52413/large/csUSDL-badge_2_2x.png?1738166925</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="n">
+        <v>128090215</v>
+      </c>
+      <c r="F354" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.013404068186482</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.088913317379001</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.3848671968665751</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="b">
+        <v>0</v>
+      </c>
+      <c r="L354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>cETH</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>ceth</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/10643/large/ceth.png?1696510617</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="n">
+        <v>127975554</v>
+      </c>
+      <c r="F355" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-1.719417965399076</v>
+      </c>
+      <c r="H355" t="n">
+        <v>1.462691278363529</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.358636478921627</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K355" t="b">
+        <v>0</v>
+      </c>
+      <c r="L355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Noble Dollar (USDN)</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>usdn</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55257/large/USDN.png?1745046774</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="n">
+        <v>127962328</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.999903</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.000307406503892</v>
+      </c>
+      <c r="H356" t="n">
+        <v>2.781601148392004e-05</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.010118894397678</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="b">
+        <v>0</v>
+      </c>
+      <c r="L356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>GOHOME</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>gohome</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54909/large/20250314_132950.png?1742455637</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="n">
+        <v>127849857</v>
+      </c>
+      <c r="F357" t="n">
+        <v>243.83</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-0.09729613752128501</v>
+      </c>
+      <c r="H357" t="n">
+        <v>-0.065291529576688</v>
+      </c>
+      <c r="I357" t="n">
+        <v>-2.556513792205956</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="b">
+        <v>0</v>
+      </c>
+      <c r="L357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Solayer</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>layer</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53498/large/Layer_Green.png?1744950002</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="n">
+        <v>126719910</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.603447</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-3.304391627236192</v>
+      </c>
+      <c r="H358" t="n">
+        <v>-7.05755495758265</v>
+      </c>
+      <c r="I358" t="n">
+        <v>-20.61154401074652</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="b">
+        <v>0</v>
+      </c>
+      <c r="L358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>WOO</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>woo</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12921/large/WOO_Logos_2023_Profile_Pic_WOO.png?1696512709</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="n">
+        <v>126624944</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.066328</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-2.722162652004423</v>
+      </c>
+      <c r="H359" t="n">
+        <v>-2.069125360097008</v>
+      </c>
+      <c r="I359" t="n">
+        <v>-12.61581678804914</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="b">
+        <v>0</v>
+      </c>
+      <c r="L359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Kamino</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>kmno</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/35801/large/tP0Lcgwp_400x400.jpg?1709824189</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="n">
+        <v>125249848</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.055339</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-3.28295628292807</v>
+      </c>
+      <c r="H360" t="n">
+        <v>-6.90536354174418</v>
+      </c>
+      <c r="I360" t="n">
+        <v>4.613843273766828</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
+      <c r="K360" t="b">
+        <v>0</v>
+      </c>
+      <c r="L360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>AI Companions</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>aic</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/40130/large/AI_Companions.png?1725942702</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="n">
+        <v>124806924</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.124807</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-3.761588587726594</v>
+      </c>
+      <c r="H361" t="n">
+        <v>-16.85362247456233</v>
+      </c>
+      <c r="I361" t="n">
+        <v>19.85002231336454</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K361" t="b">
+        <v>0</v>
+      </c>
+      <c r="L361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>XYO Network</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>xyo</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4519/large/XYO_Network-logo.png?1696505103</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="n">
+        <v>123880856</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.00889153</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-2.228750869447759</v>
+      </c>
+      <c r="H362" t="n">
+        <v>-0.6959385141627761</v>
+      </c>
+      <c r="I362" t="n">
+        <v>-15.893109279352</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K362" t="b">
+        <v>0</v>
+      </c>
+      <c r="L362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>GMT</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>gmt</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/23597/large/token-gmt-200x200.png?1703153841</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="n">
+        <v>123786836</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.04218409</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-3.362321985581733</v>
+      </c>
+      <c r="H363" t="n">
+        <v>-3.588971264373914</v>
+      </c>
+      <c r="I363" t="n">
+        <v>-16.18022690345209</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="b">
+        <v>0</v>
+      </c>
+      <c r="L363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Melania Meme</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>melania</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53775/large/melania-meme.png?1737329885</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="n">
+        <v>122283008</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0.189612</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-4.091320556995107</v>
+      </c>
+      <c r="H364" t="n">
+        <v>-4.763131309838747</v>
+      </c>
+      <c r="I364" t="n">
+        <v>-37.21193217157764</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K364" t="b">
+        <v>0</v>
+      </c>
+      <c r="L364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Non-Playable Coin</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>npc</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31193/large/NPC_200x200.png?1696530021</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="n">
+        <v>121818399</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.01512068</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-2.466118163498936</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0.449616546776388</v>
+      </c>
+      <c r="I365" t="n">
+        <v>19.18852432655161</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K365" t="b">
+        <v>1</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>Buena puntuacion en analisis multivariable</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Anzen USDz</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>usdz</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/38039/large/usdz-image-200x200.png?1716334412</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="n">
+        <v>121128362</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.9852379999999999</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-0.409615703487786</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.16318712049164</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.8427581444355841</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
+      <c r="K366" t="b">
+        <v>0</v>
+      </c>
+      <c r="L366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/38376/large/aura_logo_200x200-01-01.png?1751114135</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="n">
+        <v>120701979</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.125335</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-11.73592268897098</v>
+      </c>
+      <c r="H367" t="n">
+        <v>14.36553593152547</v>
+      </c>
+      <c r="I367" t="n">
+        <v>13701.95877798988</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.6466666666666666</v>
+      </c>
+      <c r="K367" t="b">
+        <v>1</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>Explosion mensual (+100%) | Fuerte tendencia semanal (+10%) | Buena puntuacion en analisis multivariable</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Kadena</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>kda</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/3693/large/Social_-_Profile_Picture.png?1723001308</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="n">
+        <v>120615551</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0.372636</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-3.790234403799128</v>
+      </c>
+      <c r="H368" t="n">
+        <v>-4.131192172790647</v>
+      </c>
+      <c r="I368" t="n">
+        <v>-16.22938341587612</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K368" t="b">
+        <v>0</v>
+      </c>
+      <c r="L368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>SQD</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>sqd</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/37869/large/New_Logo_SQD_Icon.png?1720048443</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="n">
+        <v>120204240</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0.162931</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-0.05306986317568101</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0.198073248504389</v>
+      </c>
+      <c r="I369" t="n">
+        <v>-21.77795502089348</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
+      <c r="K369" t="b">
+        <v>0</v>
+      </c>
+      <c r="L369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Enjin Coin</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>enj</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/1102/large/Symbol_Only_-_Purple.png?1709725966</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="n">
+        <v>119619281</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0.06424299999999999</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-2.6665129723761</v>
+      </c>
+      <c r="H370" t="n">
+        <v>-0.924011964249375</v>
+      </c>
+      <c r="I370" t="n">
+        <v>-15.23149167880798</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K370" t="b">
+        <v>0</v>
+      </c>
+      <c r="L370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Mask Network</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>mask</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/14051/large/Mask_Network.jpg?1696513776</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="n">
+        <v>119609481</v>
+      </c>
+      <c r="F371" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-2.701063593131716</v>
+      </c>
+      <c r="H371" t="n">
+        <v>-0.019495255235594</v>
+      </c>
+      <c r="I371" t="n">
+        <v>-35.34586872125161</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
+      <c r="K371" t="b">
+        <v>0</v>
+      </c>
+      <c r="L371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Echelon Prime</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>prime</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/29053/large/prime-logo-small-border_%282%29.png?1696528020</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="n">
+        <v>119537787</v>
+      </c>
+      <c r="F372" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-5.29113376237221</v>
+      </c>
+      <c r="H372" t="n">
+        <v>-2.082096807620838</v>
+      </c>
+      <c r="I372" t="n">
+        <v>-13.95299240008044</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
+      <c r="K372" t="b">
+        <v>0</v>
+      </c>
+      <c r="L372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Resolv wstUSR</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>wstusr</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51880/large/USR_LOGO.png?1732098841</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="n">
+        <v>119258453</v>
+      </c>
+      <c r="F373" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="n">
+        <v>80.44094641780181</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="K373" t="b">
+        <v>0</v>
+      </c>
+      <c r="L373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Launch Coin on Believe</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>launchcoin</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53916/large/launchcoin.jpg?1747131421</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="n">
+        <v>119257893</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0.11888</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-3.419662470672686</v>
+      </c>
+      <c r="H374" t="n">
+        <v>-15.84945925871644</v>
+      </c>
+      <c r="I374" t="n">
+        <v>-27.44468937358589</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0</v>
+      </c>
+      <c r="K374" t="b">
+        <v>0</v>
+      </c>
+      <c r="L374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Horizen</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>zen</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/691/large/Horizen2.0-logo_icon-on-yellow_%281%29.png?1751696763</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="n">
+        <v>118797064</v>
+      </c>
+      <c r="F375" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-2.469860716508022</v>
+      </c>
+      <c r="H375" t="n">
+        <v>2.553878248375264</v>
+      </c>
+      <c r="I375" t="n">
+        <v>-26.89075749106678</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="K375" t="b">
+        <v>0</v>
+      </c>
+      <c r="L375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>aixbt by Virtuals</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>aixbt</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/51784/large/3.png?1731981138</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="n">
+        <v>118011361</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.123671</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-9.115426933568124</v>
+      </c>
+      <c r="H376" t="n">
+        <v>-3.943298725454398</v>
+      </c>
+      <c r="I376" t="n">
+        <v>-29.6219212145108</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0</v>
+      </c>
+      <c r="K376" t="b">
+        <v>0</v>
+      </c>
+      <c r="L376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>ZIGChain</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>zig</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/14796/large/zig.jpg?1731990265</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="n">
+        <v>117873681</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.083715</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-3.701897607801124</v>
+      </c>
+      <c r="H377" t="n">
+        <v>-6.367743214743764</v>
+      </c>
+      <c r="I377" t="n">
+        <v>-8.633462820536764</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0</v>
+      </c>
+      <c r="K377" t="b">
+        <v>0</v>
+      </c>
+      <c r="L377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Incrypt</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>inc</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55966/large/Incrypt_Token_Logo_%281%29.png?1747887506</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="n">
+        <v>117066706</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.01820899</v>
+      </c>
+      <c r="G378" t="n">
+        <v>24.58896648544549</v>
+      </c>
+      <c r="H378" t="n">
+        <v>25.83591927257465</v>
+      </c>
+      <c r="I378" t="n">
+        <v>-18.19267425855399</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="K378" t="b">
+        <v>0</v>
+      </c>
+      <c r="L378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Liquity</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>lqty</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/14665/large/logo_V2.png?1725437146</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="n">
+        <v>115289570</v>
+      </c>
+      <c r="F379" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-4.538411709520306</v>
+      </c>
+      <c r="H379" t="n">
+        <v>-13.84444620980381</v>
+      </c>
+      <c r="I379" t="n">
+        <v>34.3077215472813</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="K379" t="b">
+        <v>0</v>
+      </c>
+      <c r="L379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Spiko US T-Bills Money Market Fund</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>ustbl</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39666/large/USTB.png?1723541269</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="n">
+        <v>115219588</v>
+      </c>
+      <c r="F380" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.037535391873302</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0.079677174014572</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.342287728096258</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0</v>
+      </c>
+      <c r="K380" t="b">
+        <v>0</v>
+      </c>
+      <c r="L380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Orca</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>orca</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/17547/large/Orca_Logo.png?1696517083</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="n">
+        <v>114503396</v>
+      </c>
+      <c r="F381" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-3.177906239540469</v>
+      </c>
+      <c r="H381" t="n">
+        <v>-1.491845646058031</v>
+      </c>
+      <c r="I381" t="n">
+        <v>-19.36614766735637</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0</v>
+      </c>
+      <c r="K381" t="b">
+        <v>0</v>
+      </c>
+      <c r="L381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>crvUSD</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>crvusd</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30118/large/crvusd.jpg?1746670973</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="n">
+        <v>114401431</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.9996959999999999</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-0.033295537704368</v>
+      </c>
+      <c r="H382" t="n">
+        <v>-0.016320631990266</v>
+      </c>
+      <c r="I382" t="n">
+        <v>-0.007056848834443001</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0</v>
+      </c>
+      <c r="K382" t="b">
+        <v>0</v>
+      </c>
+      <c r="L382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Sushi</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>sushi</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12271/large/512x512_Logo_no_chop.png?1696512101</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="n">
+        <v>113687721</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.5897089999999999</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-3.511315430571598</v>
+      </c>
+      <c r="H383" t="n">
+        <v>-1.420799821966875</v>
+      </c>
+      <c r="I383" t="n">
+        <v>-9.506945432329656</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0</v>
+      </c>
+      <c r="K383" t="b">
+        <v>0</v>
+      </c>
+      <c r="L383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>io.net</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>io</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/37754/large/io_blackbg.png?1715446363</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="n">
+        <v>111695493</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.662449</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-5.159997437871057</v>
+      </c>
+      <c r="H384" t="n">
+        <v>-6.178764158928822</v>
+      </c>
+      <c r="I384" t="n">
+        <v>-14.82530951891758</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0</v>
+      </c>
+      <c r="K384" t="b">
+        <v>0</v>
+      </c>
+      <c r="L384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/predicciones_criptos.xlsx
+++ b/data/predicciones_criptos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L384"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
         <v>3.404126761127093</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>-1.413630270690066</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>-0.969268928301472</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>3.310589202212904</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>-0.674209286023263</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>-9.331747974351638</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1144,12 +1144,16 @@
         <v>22.08120425105527</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Buena puntuacion en analisis multivariable</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1184,7 +1188,7 @@
         <v>-4.336743214979863</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1224,7 +1228,7 @@
         <v>2.186606821604448</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1624,7 +1628,7 @@
         <v>39.17162961148887</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -1904,7 +1908,7 @@
         <v>13.88295718228861</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -2224,7 +2228,7 @@
         <v>-14.88173006709638</v>
       </c>
       <c r="J44" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -2304,7 +2308,7 @@
         <v>-11.71712559028115</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -2636,7 +2640,7 @@
         <v>-13.60086853440658</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -2756,7 +2760,7 @@
         <v>-19.01774212095845</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -2960,7 +2964,7 @@
         <v>-23.37237596293679</v>
       </c>
       <c r="J62" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3040,7 +3044,7 @@
         <v>3.672065484066418</v>
       </c>
       <c r="J64" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -3240,7 +3244,7 @@
         <v>-9.556828834635429</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -3280,7 +3284,7 @@
         <v>-22.95847335923886</v>
       </c>
       <c r="J70" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -3440,16 +3444,12 @@
         <v>34.02739822198766</v>
       </c>
       <c r="J74" t="n">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
       <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Buen rendimiento mensual (+30%) | Buena puntuacion en analisis multivariable</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3484,7 +3484,7 @@
         <v>-0.002877455154935</v>
       </c>
       <c r="J75" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>-0.035522872151087</v>
       </c>
       <c r="J76" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>-5.46076904273847</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>3.4530988051059</v>
       </c>
       <c r="J84" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>-7.558543714704253</v>
       </c>
       <c r="J87" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>-29.16914736896904</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -4044,7 +4044,7 @@
         <v>-11.37185206377279</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>-20.73487845027156</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>-16.34997855450167</v>
       </c>
       <c r="J93" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>-1.190710980089554</v>
       </c>
       <c r="J94" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>-0.021382708202666</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -4324,14 +4324,14 @@
         <v>40.64601967701537</v>
       </c>
       <c r="J96" t="n">
-        <v>0.8066666666666666</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Buen rendimiento mensual (+30%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
+          <t>Buen rendimiento mensual (+30%) | Fuerte tendencia semanal (+10%)</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
         <v>-1.157675008301329</v>
       </c>
       <c r="J97" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>40.59617452460589</v>
       </c>
       <c r="J98" t="n">
-        <v>0.12</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>-0.886004824973551</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>-0.405621828180371</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>-0.8559408883874851</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>-23.79567837798205</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>-4.60285756728105</v>
       </c>
       <c r="J116" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>0.335258106868906</v>
       </c>
       <c r="J122" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>41.49245405224639</v>
       </c>
       <c r="J125" t="n">
-        <v>0.08666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>-17.93144710419026</v>
       </c>
       <c r="J132" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>-11.84038380620835</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
@@ -5916,7 +5916,7 @@
         <v>-16.29308794843877</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K135" t="b">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>20.92562740792459</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
@@ -6316,7 +6316,7 @@
         <v>-1.190735470056644</v>
       </c>
       <c r="J145" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K145" t="b">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>-19.52762854189784</v>
       </c>
       <c r="J161" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K161" t="b">
         <v>0</v>
@@ -7088,7 +7088,7 @@
         <v>2.389421059170124</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K164" t="b">
         <v>0</v>
@@ -7248,7 +7248,7 @@
         <v>-15.97653267700319</v>
       </c>
       <c r="J168" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K168" t="b">
         <v>0</v>
@@ -7408,7 +7408,7 @@
         <v>-3.513577102122658</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K172" t="b">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>66.6628647616337</v>
       </c>
       <c r="J173" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="K173" t="b">
         <v>1</v>
@@ -8052,7 +8052,7 @@
         <v>-2.090806463705334</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K188" t="b">
         <v>0</v>
@@ -8172,7 +8172,7 @@
         <v>-35.88781794455505</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K191" t="b">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>-12.26553879250178</v>
       </c>
       <c r="J193" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K193" t="b">
         <v>0</v>
@@ -8340,7 +8340,7 @@
         <v>-16.61065655844157</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K195" t="b">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1.046832409288845</v>
       </c>
       <c r="J200" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K200" t="b">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>-7.532973615214416</v>
       </c>
       <c r="J202" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K202" t="b">
         <v>0</v>
@@ -8660,7 +8660,7 @@
         <v>-15.68666441754651</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K203" t="b">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>-4.853434536256496</v>
       </c>
       <c r="J204" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K204" t="b">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>-14.9165130167515</v>
       </c>
       <c r="J205" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K205" t="b">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>2.905883419452508</v>
       </c>
       <c r="J206" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K206" t="b">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>-1.248286493569382</v>
       </c>
       <c r="J213" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K213" t="b">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>-22.68415905786022</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K214" t="b">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>-3.287565598806175</v>
       </c>
       <c r="J215" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K215" t="b">
         <v>0</v>
@@ -9220,7 +9220,7 @@
         <v>3.945279934292688</v>
       </c>
       <c r="J217" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K217" t="b">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>26.22562127291115</v>
       </c>
       <c r="J218" t="n">
-        <v>0.6533333333333333</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="K218" t="b">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>-11.54370801710428</v>
       </c>
       <c r="J220" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K220" t="b">
         <v>0</v>
@@ -9384,7 +9384,7 @@
         <v>-14.5006863679377</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K221" t="b">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>-13.46085981617814</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K222" t="b">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>3.561986898496721</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="K223" t="b">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>-7.047057697558206</v>
       </c>
       <c r="J228" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K228" t="b">
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>3.497110880270336</v>
       </c>
       <c r="J230" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.02</v>
       </c>
       <c r="K230" t="b">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>-21.8776275833068</v>
       </c>
       <c r="J232" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K232" t="b">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>-27.32384950826589</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K235" t="b">
         <v>0</v>
@@ -10024,7 +10024,7 @@
         <v>-43.76879679502572</v>
       </c>
       <c r="J237" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K237" t="b">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>-8.159484776092002</v>
       </c>
       <c r="J242" t="n">
-        <v>0</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K242" t="b">
         <v>0</v>
@@ -10308,7 +10308,7 @@
         <v>4.666919234985784</v>
       </c>
       <c r="J244" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K244" t="b">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>2525.507647713709</v>
       </c>
       <c r="J247" t="n">
-        <v>0.8133333333333334</v>
+        <v>0.84</v>
       </c>
       <c r="K247" t="b">
         <v>1</v>
@@ -10512,7 +10512,7 @@
         <v>-1.492962025010192</v>
       </c>
       <c r="J249" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K249" t="b">
         <v>0</v>
@@ -10552,7 +10552,7 @@
         <v>-16.69381951840755</v>
       </c>
       <c r="J250" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K250" t="b">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>-0.9817093419727571</v>
       </c>
       <c r="J251" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K251" t="b">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>-16.15281694130593</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K253" t="b">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0.0008543484464590001</v>
       </c>
       <c r="J260" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K260" t="b">
         <v>0</v>
@@ -10992,7 +10992,7 @@
         <v>-2.31383761637606</v>
       </c>
       <c r="J261" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K261" t="b">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>29.82231551932909</v>
       </c>
       <c r="J262" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="K262" t="b">
         <v>1</v>
@@ -11076,7 +11076,7 @@
         <v>-6.86437034928737</v>
       </c>
       <c r="J263" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K263" t="b">
         <v>0</v>
@@ -11116,7 +11116,7 @@
         <v>-14.56847243700389</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K264" t="b">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>-19.0911853939931</v>
       </c>
       <c r="J265" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K265" t="b">
         <v>0</v>
@@ -11196,7 +11196,7 @@
         <v>-35.03024650942063</v>
       </c>
       <c r="J266" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K266" t="b">
         <v>0</v>
@@ -11236,7 +11236,7 @@
         <v>28.88513513513513</v>
       </c>
       <c r="J267" t="n">
-        <v>0.06</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="K267" t="b">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>-33.35010980697314</v>
       </c>
       <c r="J268" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K268" t="b">
         <v>0</v>
@@ -11316,7 +11316,7 @@
         <v>-7.061042783279207</v>
       </c>
       <c r="J269" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K269" t="b">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>18.71815613677644</v>
       </c>
       <c r="J271" t="n">
-        <v>0.06</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K271" t="b">
         <v>0</v>
@@ -11476,7 +11476,7 @@
         <v>-17.97829771807034</v>
       </c>
       <c r="J273" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="K273" t="b">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>-18.32687472125039</v>
       </c>
       <c r="J275" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K275" t="b">
         <v>0</v>
@@ -11596,7 +11596,7 @@
         <v>-0.8378535525696531</v>
       </c>
       <c r="J276" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K276" t="b">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>-12.35924248375612</v>
       </c>
       <c r="J278" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K278" t="b">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>-4.227749140768728</v>
       </c>
       <c r="J283" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="K283" t="b">
         <v>0</v>
@@ -11956,7 +11956,7 @@
         <v>-16.00654861182379</v>
       </c>
       <c r="J285" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K285" t="b">
         <v>0</v>
@@ -12076,7 +12076,7 @@
         <v>5.559773032294486</v>
       </c>
       <c r="J288" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K288" t="b">
         <v>0</v>
@@ -12120,7 +12120,7 @@
         <v>-12.48789007620941</v>
       </c>
       <c r="J289" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="K289" t="b">
         <v>0</v>
@@ -12292,7 +12292,7 @@
         <v>-3.233286290414927</v>
       </c>
       <c r="J293" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K293" t="b">
         <v>0</v>
@@ -12412,7 +12412,7 @@
         <v>-0.756420963240059</v>
       </c>
       <c r="J296" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K296" t="b">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>-14.1267229746276</v>
       </c>
       <c r="J300" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K300" t="b">
         <v>0</v>
@@ -12652,7 +12652,7 @@
         <v>21.18961591278832</v>
       </c>
       <c r="J302" t="n">
-        <v>0.4066666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="K302" t="b">
         <v>1</v>
@@ -12696,7 +12696,7 @@
         <v>-8.65285976745222</v>
       </c>
       <c r="J303" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K303" t="b">
         <v>0</v>
@@ -12816,7 +12816,7 @@
         <v>-15.16888882484637</v>
       </c>
       <c r="J306" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K306" t="b">
         <v>0</v>
@@ -13016,7 +13016,7 @@
         <v>4.392008408060252</v>
       </c>
       <c r="J311" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K311" t="b">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>-9.269192371854864</v>
       </c>
       <c r="J312" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K312" t="b">
         <v>0</v>
@@ -13140,7 +13140,7 @@
         <v>0.116753765151209</v>
       </c>
       <c r="J314" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K314" t="b">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>159.2683749555226</v>
       </c>
       <c r="J316" t="n">
-        <v>0.86</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="K316" t="b">
         <v>1</v>
@@ -13264,7 +13264,7 @@
         <v>-4.551014439902161</v>
       </c>
       <c r="J317" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K317" t="b">
         <v>0</v>
@@ -13304,7 +13304,7 @@
         <v>-10.65008778482681</v>
       </c>
       <c r="J318" t="n">
-        <v>0.06</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K318" t="b">
         <v>0</v>
@@ -13344,7 +13344,7 @@
         <v>-8.53412708937161</v>
       </c>
       <c r="J319" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K319" t="b">
         <v>0</v>
@@ -13384,7 +13384,7 @@
         <v>37.21380388528376</v>
       </c>
       <c r="J320" t="n">
-        <v>0.8866666666666667</v>
+        <v>0.8266666666666667</v>
       </c>
       <c r="K320" t="b">
         <v>1</v>
@@ -13468,7 +13468,7 @@
         <v>-31.17611753946589</v>
       </c>
       <c r="J322" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K322" t="b">
         <v>0</v>
@@ -13508,7 +13508,7 @@
         <v>-2.709078235406632</v>
       </c>
       <c r="J323" t="n">
-        <v>0.04</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K323" t="b">
         <v>0</v>
@@ -13628,7 +13628,7 @@
         <v>-0.047427938148765</v>
       </c>
       <c r="J326" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K326" t="b">
         <v>0</v>
@@ -13708,7 +13708,7 @@
         <v>-22.68250106939329</v>
       </c>
       <c r="J328" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K328" t="b">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v>43.17450146034166</v>
       </c>
       <c r="J332" t="n">
-        <v>0.84</v>
+        <v>0.8466666666666667</v>
       </c>
       <c r="K332" t="b">
         <v>1</v>
@@ -13912,7 +13912,7 @@
         <v>-13.62772268067522</v>
       </c>
       <c r="J333" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.02</v>
       </c>
       <c r="K333" t="b">
         <v>0</v>
@@ -13952,7 +13952,7 @@
         <v>-0.060574824621586</v>
       </c>
       <c r="J334" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K334" t="b">
         <v>0</v>
@@ -13992,7 +13992,7 @@
         <v>266.4637033990667</v>
       </c>
       <c r="J335" t="n">
-        <v>0.76</v>
+        <v>0.7866666666666666</v>
       </c>
       <c r="K335" t="b">
         <v>1</v>
@@ -14084,7 +14084,7 @@
         <v>-21.36335714978747</v>
       </c>
       <c r="J337" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K337" t="b">
         <v>0</v>
@@ -14168,7 +14168,7 @@
         <v>-0.8430173740105851</v>
       </c>
       <c r="J339" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K339" t="b">
         <v>0</v>
@@ -14208,7 +14208,7 @@
         <v>-16.28692181705772</v>
       </c>
       <c r="J340" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K340" t="b">
         <v>0</v>
@@ -14248,7 +14248,7 @@
         <v>-20.13485927990476</v>
       </c>
       <c r="J341" t="n">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K341" t="b">
         <v>0</v>
@@ -14288,7 +14288,7 @@
         <v>-29.19520734166939</v>
       </c>
       <c r="J342" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K342" t="b">
         <v>0</v>
@@ -14328,7 +14328,7 @@
         <v>-21.31820318937763</v>
       </c>
       <c r="J343" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K343" t="b">
         <v>0</v>
@@ -14408,7 +14408,7 @@
         <v>0.543455327093184</v>
       </c>
       <c r="J345" t="n">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K345" t="b">
         <v>0</v>
@@ -14488,7 +14488,7 @@
         <v>-4.011050559946679</v>
       </c>
       <c r="J347" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K347" t="b">
         <v>0</v>
@@ -14528,7 +14528,7 @@
         <v>23.925163867219</v>
       </c>
       <c r="J348" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.88</v>
       </c>
       <c r="K348" t="b">
         <v>1</v>
@@ -14572,7 +14572,7 @@
         <v>-18.67734229487051</v>
       </c>
       <c r="J349" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K349" t="b">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>0.358636478921627</v>
       </c>
       <c r="J355" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K355" t="b">
         <v>0</v>
@@ -15052,7 +15052,7 @@
         <v>19.85002231336454</v>
       </c>
       <c r="J361" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="K361" t="b">
         <v>0</v>
@@ -15092,7 +15092,7 @@
         <v>-15.893109279352</v>
       </c>
       <c r="J362" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K362" t="b">
         <v>0</v>
@@ -15212,7 +15212,7 @@
         <v>19.18852432655161</v>
       </c>
       <c r="J365" t="n">
-        <v>0.62</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="K365" t="b">
         <v>1</v>
@@ -15296,7 +15296,7 @@
         <v>13701.95877798988</v>
       </c>
       <c r="J367" t="n">
-        <v>0.6466666666666666</v>
+        <v>0.7866666666666666</v>
       </c>
       <c r="K367" t="b">
         <v>1</v>
@@ -15380,7 +15380,7 @@
         <v>-21.77795502089348</v>
       </c>
       <c r="J369" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K369" t="b">
         <v>0</v>
@@ -15420,7 +15420,7 @@
         <v>-15.23149167880798</v>
       </c>
       <c r="J370" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K370" t="b">
         <v>0</v>
@@ -15540,7 +15540,7 @@
         <v>80.44094641780181</v>
       </c>
       <c r="J373" t="n">
-        <v>0.1466666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="K373" t="b">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>-26.89075749106678</v>
       </c>
       <c r="J375" t="n">
-        <v>0.04666666666666667</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K375" t="b">
         <v>0</v>
@@ -15740,7 +15740,7 @@
         <v>-18.19267425855399</v>
       </c>
       <c r="J378" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K378" t="b">
         <v>0</v>
@@ -15780,7 +15780,7 @@
         <v>34.3077215472813</v>
       </c>
       <c r="J379" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.06</v>
       </c>
       <c r="K379" t="b">
         <v>0</v>
@@ -15986,6 +15986,1866 @@
         <v>0</v>
       </c>
       <c r="L384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Alchemist AI</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>alch</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52302/large/small-logo.png?1733053544</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>/charts/alch_chart.png</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>112070389</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.131894</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-2.115461700264835</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0.171357510626919</v>
+      </c>
+      <c r="I385" t="n">
+        <v>-2.316426379109076</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0</v>
+      </c>
+      <c r="K385" t="b">
+        <v>0</v>
+      </c>
+      <c r="L385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>sxp</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/9368/large/Solar_Blockchain_Foundation_Sun_CG.png?1742975137</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>/charts/sxp_chart.png</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>111136045</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0.171718</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-1.921646624666889</v>
+      </c>
+      <c r="H386" t="n">
+        <v>3.759937084759865</v>
+      </c>
+      <c r="I386" t="n">
+        <v>-3.403403677417287</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0</v>
+      </c>
+      <c r="K386" t="b">
+        <v>0</v>
+      </c>
+      <c r="L386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Nano</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>xno</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/756/large/nano.png?1696501910</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>/charts/xno_chart.png</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>111039204</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.833191</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-1.653172367319784</v>
+      </c>
+      <c r="H387" t="n">
+        <v>-3.131010820706118</v>
+      </c>
+      <c r="I387" t="n">
+        <v>-19.27255073417001</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K387" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Solayer Staked SOL</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>ssol</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39933/large/Green_Back_01a_%282%29.png?1744950020</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr"/>
+      <c r="E388" t="n">
+        <v>110701788</v>
+      </c>
+      <c r="F388" t="n">
+        <v>162.06</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-2.587098361616363</v>
+      </c>
+      <c r="H388" t="n">
+        <v>-3.028850720896867</v>
+      </c>
+      <c r="I388" t="n">
+        <v>-0.409410595247796</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0</v>
+      </c>
+      <c r="K388" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>ViciCoin</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>vcnt</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31305/large/ViciCoin_-_small.png?1696530124</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="n">
+        <v>110643844</v>
+      </c>
+      <c r="F389" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-0.425210346803901</v>
+      </c>
+      <c r="H389" t="n">
+        <v>-0.28363234236042</v>
+      </c>
+      <c r="I389" t="n">
+        <v>-0.883416721374863</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0</v>
+      </c>
+      <c r="K389" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>BORA</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>bora</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/7646/large/mqFw8hxm_400x400.jpeg?1696507900</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="n">
+        <v>110330475</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.095708</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-1.744924675626522</v>
+      </c>
+      <c r="H390" t="n">
+        <v>-9.147581973674095</v>
+      </c>
+      <c r="I390" t="n">
+        <v>10.10831411126945</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K390" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Lorenzo stBTC</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>stbtc</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/50978/large/a.jpg?1730208372</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="n">
+        <v>110281061</v>
+      </c>
+      <c r="F391" t="n">
+        <v>107465</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-1.276110370181595</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.912645422247764</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2.490034337162576</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0</v>
+      </c>
+      <c r="K391" t="b">
+        <v>0</v>
+      </c>
+      <c r="L391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Level USD</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>lvlusd</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53150/large/lvlusd-logo.png?1735406507</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="n">
+        <v>109884507</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0.9997189999999999</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.030284335013107</v>
+      </c>
+      <c r="H392" t="n">
+        <v>-0.04823158811917101</v>
+      </c>
+      <c r="I392" t="n">
+        <v>-0.01658825450012</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0</v>
+      </c>
+      <c r="K392" t="b">
+        <v>0</v>
+      </c>
+      <c r="L392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Chintai</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>chex</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/10349/large/logo-white-bg-dark.png?1733475849</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="n">
+        <v>109684345</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0.109803</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-11.41363254663542</v>
+      </c>
+      <c r="H393" t="n">
+        <v>-24.83804125682378</v>
+      </c>
+      <c r="I393" t="n">
+        <v>-42.57130740671312</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K393" t="b">
+        <v>0</v>
+      </c>
+      <c r="L393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>AWE Network</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>awe</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/8713/large/awe-network.jpg?1747816016</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="n">
+        <v>109495163</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0.056447</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-0.6294275587850371</v>
+      </c>
+      <c r="H394" t="n">
+        <v>1.200641411191949</v>
+      </c>
+      <c r="I394" t="n">
+        <v>10.76738933375865</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K394" t="b">
+        <v>0</v>
+      </c>
+      <c r="L394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Amnis Aptos</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>amapt</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/32567/large/amAPT.png?1730240666</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="n">
+        <v>109329899</v>
+      </c>
+      <c r="F395" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-2.388195628760377</v>
+      </c>
+      <c r="H395" t="n">
+        <v>-10.93727348694143</v>
+      </c>
+      <c r="I395" t="n">
+        <v>-8.463204051357451</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0</v>
+      </c>
+      <c r="K395" t="b">
+        <v>0</v>
+      </c>
+      <c r="L395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Ontology</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>ont</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/3447/large/ONT.png?1696504138</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr"/>
+      <c r="E396" t="n">
+        <v>109069737</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.119244</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-2.728582957980613</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.181235177663725</v>
+      </c>
+      <c r="I396" t="n">
+        <v>-13.43698847755994</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K396" t="b">
+        <v>0</v>
+      </c>
+      <c r="L396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>World Mobile Token</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>wmtx</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/17333/large/Token_icon_round_1024.png?1741247846</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="n">
+        <v>108961277</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0.145943</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-0.214983316712133</v>
+      </c>
+      <c r="H397" t="n">
+        <v>-4.892228220026445</v>
+      </c>
+      <c r="I397" t="n">
+        <v>-13.01382461034718</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0</v>
+      </c>
+      <c r="K397" t="b">
+        <v>0</v>
+      </c>
+      <c r="L397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Magic Eden</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>me</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39850/large/_ME_Profile_Dark_2x.png?1734013082</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="n">
+        <v>108943159</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0.7257779999999999</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-2.29477689930092</v>
+      </c>
+      <c r="H398" t="n">
+        <v>-0.007989541290359</v>
+      </c>
+      <c r="I398" t="n">
+        <v>-16.25296316576334</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K398" t="b">
+        <v>0</v>
+      </c>
+      <c r="L398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Apollo Diversified Credit Securitize Fund</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>acred</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54809/large/ACRED.png?1741801356</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="n">
+        <v>108671111</v>
+      </c>
+      <c r="F399" t="n">
+        <v>1035.72</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-0.004749977626563</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0.196974865556406</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.9143018892115361</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0</v>
+      </c>
+      <c r="K399" t="b">
+        <v>0</v>
+      </c>
+      <c r="L399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>COTI</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>coti</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/2962/large/Coti.png?1696503705</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="n">
+        <v>108072036</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0.04881149</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-3.186094782178738</v>
+      </c>
+      <c r="H400" t="n">
+        <v>-4.258192262654258</v>
+      </c>
+      <c r="I400" t="n">
+        <v>-16.89699918439059</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0</v>
+      </c>
+      <c r="K400" t="b">
+        <v>0</v>
+      </c>
+      <c r="L400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Osmosis</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>osmo</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/16724/large/osmo.png?1696516298</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="n">
+        <v>108024047</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0.146798</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.7884676629607491</v>
+      </c>
+      <c r="H401" t="n">
+        <v>4.782349487386696</v>
+      </c>
+      <c r="I401" t="n">
+        <v>-26.39629894322639</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K401" t="b">
+        <v>0</v>
+      </c>
+      <c r="L401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>sBTC</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>sbtc</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54285/large/sbtc-logo-orange-bg-white-circle-1000px_2.png?1739000556</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="n">
+        <v>107990041</v>
+      </c>
+      <c r="F402" t="n">
+        <v>107980</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.000209522085396</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.96044647373809</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2.444250700483026</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0</v>
+      </c>
+      <c r="K402" t="b">
+        <v>0</v>
+      </c>
+      <c r="L402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Zenrock BTC</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>zenbtc</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55147/large/zen_brandmark_%28blue%29_%281%29.png?1745550508</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="n">
+        <v>107897368</v>
+      </c>
+      <c r="F403" t="n">
+        <v>107897</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-1.228478231239065</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0.359221852024467</v>
+      </c>
+      <c r="I403" t="n">
+        <v>1.635839035844116</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0</v>
+      </c>
+      <c r="K403" t="b">
+        <v>0</v>
+      </c>
+      <c r="L403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Paycoin</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>pci</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/9330/large/new_logo_square.png?1696509434</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="n">
+        <v>107041395</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.104678</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-7.122350559942456</v>
+      </c>
+      <c r="H404" t="n">
+        <v>-0.8461000028928861</v>
+      </c>
+      <c r="I404" t="n">
+        <v>57.09169107227211</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.1133333333333333</v>
+      </c>
+      <c r="K404" t="b">
+        <v>0</v>
+      </c>
+      <c r="L404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Centrifuge [OLD]</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>cfg</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/15380/large/centrifuge.PNG?1696515027</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="n">
+        <v>106621922</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0.19015</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-8.908959798799927</v>
+      </c>
+      <c r="H405" t="n">
+        <v>11.05909825126799</v>
+      </c>
+      <c r="I405" t="n">
+        <v>7.287386578484954</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K405" t="b">
+        <v>0</v>
+      </c>
+      <c r="L405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Babylon</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>baby</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55092/large/Baby-Symbol-Mint_%281%29.png?1744788866</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="n">
+        <v>106557960</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.04645102</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-6.837403927901804</v>
+      </c>
+      <c r="H406" t="n">
+        <v>-2.204797728955765</v>
+      </c>
+      <c r="I406" t="n">
+        <v>-27.36379578329637</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0</v>
+      </c>
+      <c r="K406" t="b">
+        <v>0</v>
+      </c>
+      <c r="L406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Ozone Chain</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>ozo</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/31385/large/ozonechain-momogram-200x200.png?1696530201</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="n">
+        <v>106356759</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.127745</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-2.619106904430868</v>
+      </c>
+      <c r="H407" t="n">
+        <v>-1.050927827612261</v>
+      </c>
+      <c r="I407" t="n">
+        <v>-3.084471549414936</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0</v>
+      </c>
+      <c r="K407" t="b">
+        <v>0</v>
+      </c>
+      <c r="L407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Undeads Games</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>uds</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/36308/large/01_avatar.jpg?1711090303</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="n">
+        <v>106265248</v>
+      </c>
+      <c r="F408" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-0.197546726373764</v>
+      </c>
+      <c r="H408" t="n">
+        <v>-9.978897479118739</v>
+      </c>
+      <c r="I408" t="n">
+        <v>18.6816527210375</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K408" t="b">
+        <v>0</v>
+      </c>
+      <c r="L408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Purr</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>purr</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/37125/large/PURR_CG.png?1713368828</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="n">
+        <v>106151456</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.178039</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-9.552678769648661</v>
+      </c>
+      <c r="H409" t="n">
+        <v>-11.40977351557322</v>
+      </c>
+      <c r="I409" t="n">
+        <v>-19.78718861893022</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0</v>
+      </c>
+      <c r="K409" t="b">
+        <v>0</v>
+      </c>
+      <c r="L409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>BOOK OF MEME</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>bome</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/36071/large/bome.png?1710407255</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="n">
+        <v>105489868</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.00153179</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-5.100003308878838</v>
+      </c>
+      <c r="H410" t="n">
+        <v>-0.261103219018307</v>
+      </c>
+      <c r="I410" t="n">
+        <v>-15.16518882818578</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0</v>
+      </c>
+      <c r="K410" t="b">
+        <v>0</v>
+      </c>
+      <c r="L410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>snt</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/779/large/status.png?1696501931</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="n">
+        <v>105175316</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.02654231</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-4.688310145332312</v>
+      </c>
+      <c r="H411" t="n">
+        <v>-1.474372963530206</v>
+      </c>
+      <c r="I411" t="n">
+        <v>-12.35911633799233</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0</v>
+      </c>
+      <c r="K411" t="b">
+        <v>0</v>
+      </c>
+      <c r="L411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>LCX</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>lcx</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/9985/large/zRPSu_0o_400x400.jpg?1696510023</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="n">
+        <v>104877674</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.111455</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-2.466669678281989</v>
+      </c>
+      <c r="H412" t="n">
+        <v>-0.06494326647722901</v>
+      </c>
+      <c r="I412" t="n">
+        <v>-11.85134331021512</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K412" t="b">
+        <v>0</v>
+      </c>
+      <c r="L412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Rocket Pool</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>rpl</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/2090/large/rocket_pool_%28RPL%29.png?1696503058</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="n">
+        <v>104032993</v>
+      </c>
+      <c r="F413" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-1.825675257851306</v>
+      </c>
+      <c r="H413" t="n">
+        <v>-1.782677391927074</v>
+      </c>
+      <c r="I413" t="n">
+        <v>-11.17226609030467</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0</v>
+      </c>
+      <c r="K413" t="b">
+        <v>0</v>
+      </c>
+      <c r="L413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Hive</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>hive</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/10840/large/logo_transparent_4x.png?1696510797</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr"/>
+      <c r="E414" t="n">
+        <v>104012929</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.216285</v>
+      </c>
+      <c r="G414" t="n">
+        <v>2.829267282572865</v>
+      </c>
+      <c r="H414" t="n">
+        <v>7.756967271830177</v>
+      </c>
+      <c r="I414" t="n">
+        <v>-8.305565071363974</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K414" t="b">
+        <v>0</v>
+      </c>
+      <c r="L414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Request</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>req</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/1031/large/Request_icon_green.png?1696502140</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="n">
+        <v>103606999</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.13919</v>
+      </c>
+      <c r="G415" t="n">
+        <v>-1.110270792007949</v>
+      </c>
+      <c r="H415" t="n">
+        <v>3.101230323954515</v>
+      </c>
+      <c r="I415" t="n">
+        <v>-3.207831201026868</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0</v>
+      </c>
+      <c r="K415" t="b">
+        <v>0</v>
+      </c>
+      <c r="L415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Sui Bridged USDT (Sui)</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>sbusdt</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/56062/large/usdt.jpg?1748225088</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="n">
+        <v>103133168</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.9999749999999999</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-0.008298691669175001</v>
+      </c>
+      <c r="H416" t="n">
+        <v>-0.04319993919455</v>
+      </c>
+      <c r="I416" t="n">
+        <v>-0.012658098303397</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0</v>
+      </c>
+      <c r="K416" t="b">
+        <v>0</v>
+      </c>
+      <c r="L416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>SWFTCOIN</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>swftc</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/2346/large/SWFTCoin.jpg?1696503223</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="n">
+        <v>101761439</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0.01017706</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-2.026463302975086</v>
+      </c>
+      <c r="H417" t="n">
+        <v>-4.657685644278857</v>
+      </c>
+      <c r="I417" t="n">
+        <v>-13.76071106211771</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0</v>
+      </c>
+      <c r="K417" t="b">
+        <v>0</v>
+      </c>
+      <c r="L417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Acet</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>act</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/18205/large/ACET-LOGO.png?1696517703</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="n">
+        <v>101756816</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0.05951099999999999</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-2.023196425357325</v>
+      </c>
+      <c r="H418" t="n">
+        <v>-1.734367238941677</v>
+      </c>
+      <c r="I418" t="n">
+        <v>-13.12547116681166</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0</v>
+      </c>
+      <c r="K418" t="b">
+        <v>0</v>
+      </c>
+      <c r="L418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>RealLink</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/20665/large/TGBfBt6Y2Dm3RHdNpZAdqywBsvfdysf834.jpeg?1749135788</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="n">
+        <v>101348624</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.03607436</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-1.359653863896551</v>
+      </c>
+      <c r="H419" t="n">
+        <v>24.06744616934971</v>
+      </c>
+      <c r="I419" t="n">
+        <v>64.51589806840326</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K419" t="b">
+        <v>1</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>Crecimiento mensual sobresaliente (+60%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Terra</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>luna</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/25767/large/01_Luna_color.png?1696524851</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="n">
+        <v>101172403</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0.147081</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-3.521378274132744</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.9321928917238971</v>
+      </c>
+      <c r="I420" t="n">
+        <v>-11.44588027320056</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K420" t="b">
+        <v>0</v>
+      </c>
+      <c r="L420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Solv Protocol SolvBTC Jupiter</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>solvbtc.jup</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54834/large/solvBTC_Jupiter.png?1741969449</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="n">
+        <v>101161501</v>
+      </c>
+      <c r="F421" t="n">
+        <v>113845</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-1.422508981706614</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.686450759793733</v>
+      </c>
+      <c r="I421" t="n">
+        <v>2.418870753659049</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K421" t="b">
+        <v>0</v>
+      </c>
+      <c r="L421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>QL1 Bridged USDT (QL1)</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>qusdt</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52913/large/usdt.jpg?1734677175</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="n">
+        <v>99996010</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.9999600000000001</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-0.006893851757589001</v>
+      </c>
+      <c r="H422" t="n">
+        <v>-0.026126788035713</v>
+      </c>
+      <c r="I422" t="n">
+        <v>-0.036690557960992</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K422" t="b">
+        <v>0</v>
+      </c>
+      <c r="L422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>ONFA</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>oft</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/39159/large/logo-onfa-circle-green.png?1720776070</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="n">
+        <v>99569440</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.8699359999999999</v>
+      </c>
+      <c r="G423" t="n">
+        <v>3.053352050176332</v>
+      </c>
+      <c r="H423" t="n">
+        <v>139.2336339816779</v>
+      </c>
+      <c r="I423" t="n">
+        <v>278.4348970892472</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K423" t="b">
+        <v>1</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>Explosion mensual (+100%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Moonwell</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/26133/large/WELL.png?1696525221</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="n">
+        <v>97449292</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0.02786171</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-5.088413064368699</v>
+      </c>
+      <c r="H424" t="n">
+        <v>9.238751471336048</v>
+      </c>
+      <c r="I424" t="n">
+        <v>-14.31999929500089</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K424" t="b">
+        <v>0</v>
+      </c>
+      <c r="L424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Tellor Tributes</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>trb</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/9644/large/TRB-New_Logo.png?1737722143</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="n">
+        <v>97252468</v>
+      </c>
+      <c r="F425" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-2.397845291095618</v>
+      </c>
+      <c r="H425" t="n">
+        <v>-1.020591601330493</v>
+      </c>
+      <c r="I425" t="n">
+        <v>-25.74847109752198</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0</v>
+      </c>
+      <c r="K425" t="b">
+        <v>0</v>
+      </c>
+      <c r="L425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>AltLayer</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>alt</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/34608/large/Logomark_200x200.png?1715107868</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="n">
+        <v>97129494</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.02586527</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-4.52857432813512</v>
+      </c>
+      <c r="H426" t="n">
+        <v>-0.320436891944607</v>
+      </c>
+      <c r="I426" t="n">
+        <v>-1.91357632706648</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K426" t="b">
+        <v>0</v>
+      </c>
+      <c r="L426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Waves</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>waves</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/425/large/waves.png?1696501700</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="n">
+        <v>97108758</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.971479</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-2.463754323088179</v>
+      </c>
+      <c r="H427" t="n">
+        <v>1.681799234888228</v>
+      </c>
+      <c r="I427" t="n">
+        <v>-9.695491705106143</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K427" t="b">
+        <v>0</v>
+      </c>
+      <c r="L427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Venus</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>xvs</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12677/large/XVS_Token.jpg?1727454303</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="n">
+        <v>96694267</v>
+      </c>
+      <c r="F428" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-2.641229064024655</v>
+      </c>
+      <c r="H428" t="n">
+        <v>-0.6042645105986431</v>
+      </c>
+      <c r="I428" t="n">
+        <v>-3.864510659080766</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K428" t="b">
+        <v>0</v>
+      </c>
+      <c r="L428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Illuvium</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>ilv</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/14468/large/logo-200x200.png?1696514154</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="n">
+        <v>96421135</v>
+      </c>
+      <c r="F429" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-2.207524215727887</v>
+      </c>
+      <c r="H429" t="n">
+        <v>1.093079610024772</v>
+      </c>
+      <c r="I429" t="n">
+        <v>-16.22192345188167</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K429" t="b">
+        <v>0</v>
+      </c>
+      <c r="L429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>BitMart</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>bmx</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/5236/large/bitmart-token.png?1696505741</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr"/>
+      <c r="E430" t="n">
+        <v>96372920</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.283926</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-1.220919186663259</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.80366916723916</v>
+      </c>
+      <c r="I430" t="n">
+        <v>2.136232220300422</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="K430" t="b">
+        <v>0</v>
+      </c>
+      <c r="L430" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/predicciones_criptos.xlsx
+++ b/data/predicciones_criptos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
         <v>3.404126761127093</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>-0.969268928301472</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>-12.65917503513083</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>3.310589202212904</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>-0.674209286023263</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>-9.331747974351638</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1144,16 +1144,12 @@
         <v>22.08120425105527</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Buena puntuacion en analisis multivariable</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1188,7 +1184,7 @@
         <v>-4.336743214979863</v>
       </c>
       <c r="J18" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1308,7 +1304,7 @@
         <v>-11.83220447784404</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -1468,7 +1464,7 @@
         <v>-10.32749746727879</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -1548,7 +1544,7 @@
         <v>-8.852584643610301</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -1628,7 +1624,7 @@
         <v>39.17162961148887</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -1908,7 +1904,7 @@
         <v>13.88295718228861</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -1988,7 +1984,7 @@
         <v>-21.11312970592905</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -2308,7 +2304,7 @@
         <v>-11.71712559028115</v>
       </c>
       <c r="J46" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -2760,7 +2756,7 @@
         <v>-19.01774212095845</v>
       </c>
       <c r="J57" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3044,7 +3040,7 @@
         <v>3.672065484066418</v>
       </c>
       <c r="J64" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -3164,7 +3160,7 @@
         <v>-14.20939130068742</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -3244,7 +3240,7 @@
         <v>-9.556828834635429</v>
       </c>
       <c r="J69" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -3324,7 +3320,7 @@
         <v>-9.083725837365744</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -3444,12 +3440,16 @@
         <v>34.02739822198766</v>
       </c>
       <c r="J74" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="K74" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Buen rendimiento mensual (+30%) | Buena puntuacion en analisis multivariable</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3724,7 +3724,7 @@
         <v>-5.46076904273847</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>3.4530988051059</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>-7.558543714704253</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -4044,7 +4044,7 @@
         <v>-11.37185206377279</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>-0.021382708202666</v>
       </c>
       <c r="J95" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -4324,14 +4324,14 @@
         <v>40.64601967701537</v>
       </c>
       <c r="J96" t="n">
-        <v>0.4266666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Buen rendimiento mensual (+30%) | Fuerte tendencia semanal (+10%)</t>
+          <t>Buen rendimiento mensual (+30%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
         <v>40.59617452460589</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>-0.886004824973551</v>
       </c>
       <c r="J99" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>-10.54919185994349</v>
       </c>
       <c r="J102" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>-0.405621828180371</v>
       </c>
       <c r="J103" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>-0.472745469733487</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>-21.35993819296908</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>-0.8559408883874851</v>
       </c>
       <c r="J110" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>-23.79567837798205</v>
       </c>
       <c r="J111" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>-11.02243559720266</v>
       </c>
       <c r="J121" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>41.49245405224639</v>
       </c>
       <c r="J125" t="n">
-        <v>0.08</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
@@ -5636,7 +5636,7 @@
         <v>10.32845530727019</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>-11.84038380620835</v>
       </c>
       <c r="J133" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
@@ -5916,7 +5916,7 @@
         <v>-16.29308794843877</v>
       </c>
       <c r="J135" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K135" t="b">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>-5.75363722103801</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K139" t="b">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>20.92562740792459</v>
       </c>
       <c r="J144" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.06</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
@@ -6316,7 +6316,7 @@
         <v>-1.190735470056644</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K145" t="b">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>-19.52762854189784</v>
       </c>
       <c r="J161" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K161" t="b">
         <v>0</v>
@@ -7088,7 +7088,7 @@
         <v>2.389421059170124</v>
       </c>
       <c r="J164" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K164" t="b">
         <v>0</v>
@@ -7248,7 +7248,7 @@
         <v>-15.97653267700319</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K168" t="b">
         <v>0</v>
@@ -7408,7 +7408,7 @@
         <v>-3.513577102122658</v>
       </c>
       <c r="J172" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K172" t="b">
         <v>0</v>
@@ -7448,14 +7448,14 @@
         <v>66.6628647616337</v>
       </c>
       <c r="J173" t="n">
-        <v>0.44</v>
+        <v>0.86</v>
       </c>
       <c r="K173" t="b">
         <v>1</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Crecimiento mensual sobresaliente (+60%) | Fuerte tendencia semanal (+10%)</t>
+          <t>Crecimiento mensual sobresaliente (+60%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
         <v>5.317709580767196</v>
       </c>
       <c r="J174" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K174" t="b">
         <v>0</v>
@@ -7692,7 +7692,7 @@
         <v>3.166285552351646</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K179" t="b">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>-2.090806463705334</v>
       </c>
       <c r="J188" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="K188" t="b">
         <v>0</v>
@@ -8172,7 +8172,7 @@
         <v>-35.88781794455505</v>
       </c>
       <c r="J191" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K191" t="b">
         <v>0</v>
@@ -8212,7 +8212,7 @@
         <v>-24.11678545003828</v>
       </c>
       <c r="J192" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K192" t="b">
         <v>0</v>
@@ -8340,7 +8340,7 @@
         <v>-16.61065655844157</v>
       </c>
       <c r="J195" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K195" t="b">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1.046832409288845</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K200" t="b">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>-4.853434536256496</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K204" t="b">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>2.905883419452508</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K206" t="b">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>-1.248286493569382</v>
       </c>
       <c r="J213" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K213" t="b">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>-22.68415905786022</v>
       </c>
       <c r="J214" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.02</v>
       </c>
       <c r="K214" t="b">
         <v>0</v>
@@ -9220,7 +9220,7 @@
         <v>3.945279934292688</v>
       </c>
       <c r="J217" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K217" t="b">
         <v>0</v>
@@ -9260,16 +9260,12 @@
         <v>26.22562127291115</v>
       </c>
       <c r="J218" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Buena puntuacion en analisis multivariable</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9304,7 +9300,7 @@
         <v>0.02617310131229</v>
       </c>
       <c r="J219" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
@@ -9344,7 +9340,7 @@
         <v>-11.54370801710428</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K220" t="b">
         <v>0</v>
@@ -9384,7 +9380,7 @@
         <v>-14.5006863679377</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K221" t="b">
         <v>0</v>
@@ -9424,7 +9420,7 @@
         <v>-13.46085981617814</v>
       </c>
       <c r="J222" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K222" t="b">
         <v>0</v>
@@ -9464,7 +9460,7 @@
         <v>3.561986898496721</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K223" t="b">
         <v>0</v>
@@ -9504,7 +9500,7 @@
         <v>-0.4917969429396941</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K224" t="b">
         <v>0</v>
@@ -9664,7 +9660,7 @@
         <v>-7.047057697558206</v>
       </c>
       <c r="J228" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K228" t="b">
         <v>0</v>
@@ -9744,7 +9740,7 @@
         <v>3.497110880270336</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K230" t="b">
         <v>0</v>
@@ -9824,7 +9820,7 @@
         <v>-21.8776275833068</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.02</v>
       </c>
       <c r="K232" t="b">
         <v>0</v>
@@ -9944,7 +9940,7 @@
         <v>-27.32384950826589</v>
       </c>
       <c r="J235" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K235" t="b">
         <v>0</v>
@@ -10024,7 +10020,7 @@
         <v>-43.76879679502572</v>
       </c>
       <c r="J237" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K237" t="b">
         <v>0</v>
@@ -10064,7 +10060,7 @@
         <v>-2.501966759931275</v>
       </c>
       <c r="J238" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K238" t="b">
         <v>0</v>
@@ -10228,7 +10224,7 @@
         <v>-8.159484776092002</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K242" t="b">
         <v>0</v>
@@ -10268,7 +10264,7 @@
         <v>-17.54306165994133</v>
       </c>
       <c r="J243" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K243" t="b">
         <v>0</v>
@@ -10308,7 +10304,7 @@
         <v>4.666919234985784</v>
       </c>
       <c r="J244" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K244" t="b">
         <v>0</v>
@@ -10348,7 +10344,7 @@
         <v>-13.11399128219771</v>
       </c>
       <c r="J245" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K245" t="b">
         <v>0</v>
@@ -10388,7 +10384,7 @@
         <v>-22.79465392201658</v>
       </c>
       <c r="J246" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K246" t="b">
         <v>0</v>
@@ -10428,7 +10424,7 @@
         <v>2525.507647713709</v>
       </c>
       <c r="J247" t="n">
-        <v>0.84</v>
+        <v>0.9066666666666666</v>
       </c>
       <c r="K247" t="b">
         <v>1</v>
@@ -10512,7 +10508,7 @@
         <v>-1.492962025010192</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K249" t="b">
         <v>0</v>
@@ -10552,7 +10548,7 @@
         <v>-16.69381951840755</v>
       </c>
       <c r="J250" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K250" t="b">
         <v>0</v>
@@ -10592,7 +10588,7 @@
         <v>-0.9817093419727571</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K251" t="b">
         <v>0</v>
@@ -10672,7 +10668,7 @@
         <v>-16.15281694130593</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.02</v>
       </c>
       <c r="K253" t="b">
         <v>0</v>
@@ -10712,7 +10708,7 @@
         <v>-8.028313723126248</v>
       </c>
       <c r="J254" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K254" t="b">
         <v>0</v>
@@ -10952,7 +10948,7 @@
         <v>0.0008543484464590001</v>
       </c>
       <c r="J260" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K260" t="b">
         <v>0</v>
@@ -10992,7 +10988,7 @@
         <v>-2.31383761637606</v>
       </c>
       <c r="J261" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K261" t="b">
         <v>0</v>
@@ -11032,7 +11028,7 @@
         <v>29.82231551932909</v>
       </c>
       <c r="J262" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="K262" t="b">
         <v>1</v>
@@ -11116,7 +11112,7 @@
         <v>-14.56847243700389</v>
       </c>
       <c r="J264" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K264" t="b">
         <v>0</v>
@@ -11156,7 +11152,7 @@
         <v>-19.0911853939931</v>
       </c>
       <c r="J265" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K265" t="b">
         <v>0</v>
@@ -11196,7 +11192,7 @@
         <v>-35.03024650942063</v>
       </c>
       <c r="J266" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K266" t="b">
         <v>0</v>
@@ -11236,7 +11232,7 @@
         <v>28.88513513513513</v>
       </c>
       <c r="J267" t="n">
-        <v>0.1133333333333333</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="K267" t="b">
         <v>0</v>
@@ -11396,7 +11392,7 @@
         <v>18.71815613677644</v>
       </c>
       <c r="J271" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="K271" t="b">
         <v>0</v>
@@ -11476,7 +11472,7 @@
         <v>-17.97829771807034</v>
       </c>
       <c r="J273" t="n">
-        <v>0.02</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K273" t="b">
         <v>0</v>
@@ -11596,7 +11592,7 @@
         <v>-0.8378535525696531</v>
       </c>
       <c r="J276" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K276" t="b">
         <v>0</v>
@@ -11836,7 +11832,7 @@
         <v>-9.748815501129522</v>
       </c>
       <c r="J282" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K282" t="b">
         <v>0</v>
@@ -11876,7 +11872,7 @@
         <v>-4.227749140768728</v>
       </c>
       <c r="J283" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K283" t="b">
         <v>0</v>
@@ -12076,7 +12072,7 @@
         <v>5.559773032294486</v>
       </c>
       <c r="J288" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="K288" t="b">
         <v>0</v>
@@ -12120,7 +12116,7 @@
         <v>-12.48789007620941</v>
       </c>
       <c r="J289" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="K289" t="b">
         <v>0</v>
@@ -12160,7 +12156,7 @@
         <v>-1.129843369938731</v>
       </c>
       <c r="J290" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K290" t="b">
         <v>0</v>
@@ -12292,7 +12288,7 @@
         <v>-3.233286290414927</v>
       </c>
       <c r="J293" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K293" t="b">
         <v>0</v>
@@ -12412,7 +12408,7 @@
         <v>-0.756420963240059</v>
       </c>
       <c r="J296" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K296" t="b">
         <v>0</v>
@@ -12612,7 +12608,7 @@
         <v>-30.79976552723882</v>
       </c>
       <c r="J301" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K301" t="b">
         <v>0</v>
@@ -12652,14 +12648,14 @@
         <v>21.18961591278832</v>
       </c>
       <c r="J302" t="n">
-        <v>0.4</v>
+        <v>0.66</v>
       </c>
       <c r="K302" t="b">
         <v>1</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Recomendacion por analisis multivariable</t>
+          <t>Buena puntuacion en analisis multivariable</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12692,7 @@
         <v>-8.65285976745222</v>
       </c>
       <c r="J303" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="K303" t="b">
         <v>0</v>
@@ -12816,7 +12812,7 @@
         <v>-15.16888882484637</v>
       </c>
       <c r="J306" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K306" t="b">
         <v>0</v>
@@ -13056,7 +13052,7 @@
         <v>-9.269192371854864</v>
       </c>
       <c r="J312" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K312" t="b">
         <v>0</v>
@@ -13096,7 +13092,7 @@
         <v>57.46227086244219</v>
       </c>
       <c r="J313" t="n">
-        <v>0.8866666666666667</v>
+        <v>0.92</v>
       </c>
       <c r="K313" t="b">
         <v>1</v>
@@ -13140,7 +13136,7 @@
         <v>0.116753765151209</v>
       </c>
       <c r="J314" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K314" t="b">
         <v>0</v>
@@ -13220,7 +13216,7 @@
         <v>159.2683749555226</v>
       </c>
       <c r="J316" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K316" t="b">
         <v>1</v>
@@ -13264,7 +13260,7 @@
         <v>-4.551014439902161</v>
       </c>
       <c r="J317" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K317" t="b">
         <v>0</v>
@@ -13304,7 +13300,7 @@
         <v>-10.65008778482681</v>
       </c>
       <c r="J318" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K318" t="b">
         <v>0</v>
@@ -13344,7 +13340,7 @@
         <v>-8.53412708937161</v>
       </c>
       <c r="J319" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K319" t="b">
         <v>0</v>
@@ -13384,7 +13380,7 @@
         <v>37.21380388528376</v>
       </c>
       <c r="J320" t="n">
-        <v>0.8266666666666667</v>
+        <v>0.8533333333333334</v>
       </c>
       <c r="K320" t="b">
         <v>1</v>
@@ -13508,7 +13504,7 @@
         <v>-2.709078235406632</v>
       </c>
       <c r="J323" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K323" t="b">
         <v>0</v>
@@ -13828,7 +13824,7 @@
         <v>-15.10919686112438</v>
       </c>
       <c r="J331" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K331" t="b">
         <v>0</v>
@@ -13868,7 +13864,7 @@
         <v>43.17450146034166</v>
       </c>
       <c r="J332" t="n">
-        <v>0.8466666666666667</v>
+        <v>0.8133333333333334</v>
       </c>
       <c r="K332" t="b">
         <v>1</v>
@@ -13912,7 +13908,7 @@
         <v>-13.62772268067522</v>
       </c>
       <c r="J333" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K333" t="b">
         <v>0</v>
@@ -13952,7 +13948,7 @@
         <v>-0.060574824621586</v>
       </c>
       <c r="J334" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K334" t="b">
         <v>0</v>
@@ -13992,14 +13988,14 @@
         <v>266.4637033990667</v>
       </c>
       <c r="J335" t="n">
-        <v>0.7866666666666666</v>
+        <v>0.96</v>
       </c>
       <c r="K335" t="b">
         <v>1</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Explosion mensual (+100%) | Fuerte tendencia semanal (+10%) | Buena puntuacion en analisis multivariable</t>
+          <t>Explosion mensual (+100%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
         </is>
       </c>
     </row>
@@ -14248,7 +14244,7 @@
         <v>-20.13485927990476</v>
       </c>
       <c r="J341" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K341" t="b">
         <v>0</v>
@@ -14288,7 +14284,7 @@
         <v>-29.19520734166939</v>
       </c>
       <c r="J342" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K342" t="b">
         <v>0</v>
@@ -14528,14 +14524,14 @@
         <v>23.925163867219</v>
       </c>
       <c r="J348" t="n">
-        <v>0.88</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="K348" t="b">
         <v>1</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Tendencia semanal positiva | Alta confianza del modelo</t>
+          <t>Tendencia semanal positiva</t>
         </is>
       </c>
     </row>
@@ -14812,7 +14808,7 @@
         <v>0.358636478921627</v>
       </c>
       <c r="J355" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K355" t="b">
         <v>0</v>
@@ -15052,7 +15048,7 @@
         <v>19.85002231336454</v>
       </c>
       <c r="J361" t="n">
-        <v>0.2</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K361" t="b">
         <v>0</v>
@@ -15212,16 +15208,12 @@
         <v>19.18852432655161</v>
       </c>
       <c r="J365" t="n">
-        <v>0.6266666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K365" t="b">
-        <v>1</v>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>Buena puntuacion en analisis multivariable</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15296,14 +15288,14 @@
         <v>13701.95877798988</v>
       </c>
       <c r="J367" t="n">
-        <v>0.7866666666666666</v>
+        <v>0.54</v>
       </c>
       <c r="K367" t="b">
         <v>1</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Explosion mensual (+100%) | Fuerte tendencia semanal (+10%) | Buena puntuacion en analisis multivariable</t>
+          <t>Explosion mensual (+100%) | Fuerte tendencia semanal (+10%)</t>
         </is>
       </c>
     </row>
@@ -15380,7 +15372,7 @@
         <v>-21.77795502089348</v>
       </c>
       <c r="J369" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K369" t="b">
         <v>0</v>
@@ -15500,7 +15492,7 @@
         <v>-13.95299240008044</v>
       </c>
       <c r="J372" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K372" t="b">
         <v>0</v>
@@ -15540,7 +15532,7 @@
         <v>80.44094641780181</v>
       </c>
       <c r="J373" t="n">
-        <v>0.16</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="K373" t="b">
         <v>0</v>
@@ -15620,7 +15612,7 @@
         <v>-26.89075749106678</v>
       </c>
       <c r="J375" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K375" t="b">
         <v>0</v>
@@ -15740,7 +15732,7 @@
         <v>-18.19267425855399</v>
       </c>
       <c r="J378" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="K378" t="b">
         <v>0</v>
@@ -15780,7 +15772,7 @@
         <v>34.3077215472813</v>
       </c>
       <c r="J379" t="n">
-        <v>0.06</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="K379" t="b">
         <v>0</v>
@@ -15980,7 +15972,7 @@
         <v>-14.82530951891758</v>
       </c>
       <c r="J384" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K384" t="b">
         <v>0</v>
@@ -16068,7 +16060,7 @@
         <v>-3.403403677417287</v>
       </c>
       <c r="J386" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K386" t="b">
         <v>0</v>
@@ -16112,7 +16104,7 @@
         <v>-19.27255073417001</v>
       </c>
       <c r="J387" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K387" t="b">
         <v>0</v>
@@ -16232,7 +16224,7 @@
         <v>10.10831411126945</v>
       </c>
       <c r="J390" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K390" t="b">
         <v>0</v>
@@ -16352,7 +16344,7 @@
         <v>-42.57130740671312</v>
       </c>
       <c r="J393" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K393" t="b">
         <v>0</v>
@@ -16392,7 +16384,7 @@
         <v>10.76738933375865</v>
       </c>
       <c r="J394" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K394" t="b">
         <v>0</v>
@@ -16472,7 +16464,7 @@
         <v>-13.43698847755994</v>
       </c>
       <c r="J396" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K396" t="b">
         <v>0</v>
@@ -16552,7 +16544,7 @@
         <v>-16.25296316576334</v>
       </c>
       <c r="J398" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K398" t="b">
         <v>0</v>
@@ -16792,7 +16784,7 @@
         <v>57.09169107227211</v>
       </c>
       <c r="J404" t="n">
-        <v>0.1133333333333333</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="K404" t="b">
         <v>0</v>
@@ -16832,7 +16824,7 @@
         <v>7.287386578484954</v>
       </c>
       <c r="J405" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="K405" t="b">
         <v>0</v>
@@ -16952,7 +16944,7 @@
         <v>18.6816527210375</v>
       </c>
       <c r="J408" t="n">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K408" t="b">
         <v>0</v>
@@ -17112,7 +17104,7 @@
         <v>-11.85134331021512</v>
       </c>
       <c r="J412" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K412" t="b">
         <v>0</v>
@@ -17312,7 +17304,7 @@
         <v>-13.76071106211771</v>
       </c>
       <c r="J417" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K417" t="b">
         <v>0</v>
@@ -17352,7 +17344,7 @@
         <v>-13.12547116681166</v>
       </c>
       <c r="J418" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K418" t="b">
         <v>0</v>
@@ -17392,7 +17384,7 @@
         <v>64.51589806840326</v>
       </c>
       <c r="J419" t="n">
-        <v>0.86</v>
+        <v>0.8733333333333333</v>
       </c>
       <c r="K419" t="b">
         <v>1</v>
@@ -17436,7 +17428,7 @@
         <v>-11.44588027320056</v>
       </c>
       <c r="J420" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K420" t="b">
         <v>0</v>
@@ -17476,7 +17468,7 @@
         <v>2.418870753659049</v>
       </c>
       <c r="J421" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K421" t="b">
         <v>0</v>
@@ -17516,7 +17508,7 @@
         <v>-0.036690557960992</v>
       </c>
       <c r="J422" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K422" t="b">
         <v>0</v>
@@ -17556,7 +17548,7 @@
         <v>278.4348970892472</v>
       </c>
       <c r="J423" t="n">
-        <v>0.88</v>
+        <v>0.9066666666666666</v>
       </c>
       <c r="K423" t="b">
         <v>1</v>
@@ -17600,7 +17592,7 @@
         <v>-14.31999929500089</v>
       </c>
       <c r="J424" t="n">
-        <v>0.06</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K424" t="b">
         <v>0</v>
@@ -17680,7 +17672,7 @@
         <v>-1.91357632706648</v>
       </c>
       <c r="J426" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K426" t="b">
         <v>0</v>
@@ -17720,7 +17712,7 @@
         <v>-9.695491705106143</v>
       </c>
       <c r="J427" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K427" t="b">
         <v>0</v>
@@ -17760,7 +17752,7 @@
         <v>-3.864510659080766</v>
       </c>
       <c r="J428" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K428" t="b">
         <v>0</v>
@@ -17800,7 +17792,7 @@
         <v>-16.22192345188167</v>
       </c>
       <c r="J429" t="n">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K429" t="b">
         <v>0</v>
@@ -17840,12 +17832,1876 @@
         <v>2.136232220300422</v>
       </c>
       <c r="J430" t="n">
+        <v>0</v>
+      </c>
+      <c r="K430" t="b">
+        <v>0</v>
+      </c>
+      <c r="L430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>VVS Finance</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>vvs</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/20210/large/8glAYOTM_400x400.jpg?1696519620</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>/charts/vvs_chart.png</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>104726514</v>
+      </c>
+      <c r="F431" t="n">
+        <v>2.16e-06</v>
+      </c>
+      <c r="G431" t="n">
+        <v>15.71013677066031</v>
+      </c>
+      <c r="H431" t="n">
+        <v>15.92464040111533</v>
+      </c>
+      <c r="I431" t="n">
+        <v>-7.710040462111606</v>
+      </c>
+      <c r="J431" t="n">
         <v>0.03333333333333333</v>
       </c>
-      <c r="K430" t="b">
-        <v>0</v>
-      </c>
-      <c r="L430" t="inlineStr"/>
+      <c r="K431" t="b">
+        <v>0</v>
+      </c>
+      <c r="L431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>SKALE</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>skl</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/13245/large/SKALE_token_300x300.png?1696513021</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>/charts/skl_chart.png</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>97284695</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.016831</v>
+      </c>
+      <c r="G432" t="n">
+        <v>1.218214575693852</v>
+      </c>
+      <c r="H432" t="n">
+        <v>-5.62630428628989</v>
+      </c>
+      <c r="I432" t="n">
+        <v>-20.29432201389429</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0</v>
+      </c>
+      <c r="K432" t="b">
+        <v>0</v>
+      </c>
+      <c r="L432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Rei</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>rei</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52005/large/TIAutjcd_400x400.jpg?1741519600</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>/charts/rei_chart.png</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>97110697</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.09744499999999999</v>
+      </c>
+      <c r="G433" t="n">
+        <v>5.559234516424017</v>
+      </c>
+      <c r="H433" t="n">
+        <v>-10.21169720582954</v>
+      </c>
+      <c r="I433" t="n">
+        <v>63.59658648207511</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K433" t="b">
+        <v>0</v>
+      </c>
+      <c r="L433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Big Time</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>bigtime</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/32251/large/-6136155493475923781_121.jpg?1696998691</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="n">
+        <v>96411044</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.050496</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-0.511143533376993</v>
+      </c>
+      <c r="H434" t="n">
+        <v>1.095167171848813</v>
+      </c>
+      <c r="I434" t="n">
+        <v>-14.79188557967054</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0</v>
+      </c>
+      <c r="K434" t="b">
+        <v>0</v>
+      </c>
+      <c r="L434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Lift Dollar</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>usdl</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/38484/large/USDL-Token-200px.png?1725022887</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="n">
+        <v>96093061</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.999651</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-0.009519300912774</v>
+      </c>
+      <c r="H435" t="n">
+        <v>-0.026889401082196</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.006067910883572</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0</v>
+      </c>
+      <c r="K435" t="b">
+        <v>0</v>
+      </c>
+      <c r="L435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Velo</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>velo</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12538/large/Logo_200x_200.png?1696512350</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="n">
+        <v>96054907</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.01299363</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.365105966415385</v>
+      </c>
+      <c r="H436" t="n">
+        <v>-3.553714302544732</v>
+      </c>
+      <c r="I436" t="n">
+        <v>-0.9026938254210071</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K436" t="b">
+        <v>0</v>
+      </c>
+      <c r="L436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Goatseus Maximus</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>goat</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/50717/large/GOAT_LOGO_NEW.jpg?1731292759</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="n">
+        <v>95952973</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.095786</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-1.1253484940813</v>
+      </c>
+      <c r="H437" t="n">
+        <v>1.38845040174543</v>
+      </c>
+      <c r="I437" t="n">
+        <v>-19.88658602769759</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0</v>
+      </c>
+      <c r="K437" t="b">
+        <v>0</v>
+      </c>
+      <c r="L437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Lagrange</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/55550/large/Lagrange-logo-png-gradient.png?1746637731</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="n">
+        <v>95579734</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.495018</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-0.7724502824613571</v>
+      </c>
+      <c r="H438" t="n">
+        <v>1.22248025392056</v>
+      </c>
+      <c r="I438" t="n">
+        <v>-51.78758782685565</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0</v>
+      </c>
+      <c r="K438" t="b">
+        <v>0</v>
+      </c>
+      <c r="L438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>L2 Standard Bridged frxUSD</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>frxusd</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54455/large/frxusd.png?1739790094</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="n">
+        <v>94773919</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.9994600000000001</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-0.033023531506404</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.1314494644545</v>
+      </c>
+      <c r="I439" t="n">
+        <v>-0.00019788232466</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0</v>
+      </c>
+      <c r="K439" t="b">
+        <v>0</v>
+      </c>
+      <c r="L439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Constellation</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>dag</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4645/large/Constellation_Network_Logo.png?1696505213</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="n">
+        <v>93579209</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.03269595</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-3.445812084849323</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.513108983059511</v>
+      </c>
+      <c r="I440" t="n">
+        <v>-17.48960164045483</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K440" t="b">
+        <v>0</v>
+      </c>
+      <c r="L440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Restaked Swell ETH</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>rsweth</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/34489/large/rswETH_Icon.png?1706865484</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="n">
+        <v>93526337</v>
+      </c>
+      <c r="F441" t="n">
+        <v>2676.54</v>
+      </c>
+      <c r="G441" t="n">
+        <v>6.48304338422064</v>
+      </c>
+      <c r="H441" t="n">
+        <v>6.167008509575308</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2.18579098287398</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="K441" t="b">
+        <v>0</v>
+      </c>
+      <c r="L441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>UMA</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>uma</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/10951/large/UMA.png?1696510900</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="n">
+        <v>93436458</v>
+      </c>
+      <c r="F442" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-0.8525044830326031</v>
+      </c>
+      <c r="H442" t="n">
+        <v>-1.047255499236967</v>
+      </c>
+      <c r="I442" t="n">
+        <v>-19.83805462391854</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0</v>
+      </c>
+      <c r="K442" t="b">
+        <v>0</v>
+      </c>
+      <c r="L442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>NKYC Token</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>nkyc</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30337/large/NKYC-Logo.png?1696529238</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="n">
+        <v>93382818</v>
+      </c>
+      <c r="F443" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.114620730442197</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0.198781266721632</v>
+      </c>
+      <c r="I443" t="n">
+        <v>-4.076415313471843</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
+      <c r="K443" t="b">
+        <v>0</v>
+      </c>
+      <c r="L443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Metis</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>metis</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/15595/large/Metis_Black_Bg.png?1702968192</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="n">
+        <v>92933669</v>
+      </c>
+      <c r="F444" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-1.718460952630052</v>
+      </c>
+      <c r="H444" t="n">
+        <v>-10.18706544722492</v>
+      </c>
+      <c r="I444" t="n">
+        <v>-17.3343158669264</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0</v>
+      </c>
+      <c r="K444" t="b">
+        <v>0</v>
+      </c>
+      <c r="L444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Elixir Staked deUSD</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>sdeusd</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52847/large/Staked_deUSD_%28sdeUSD%29_Logo.png?1734473339</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr"/>
+      <c r="E445" t="n">
+        <v>92813129</v>
+      </c>
+      <c r="F445" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-0.035029871053175</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0.183452523960722</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0.453088902899591</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0</v>
+      </c>
+      <c r="K445" t="b">
+        <v>0</v>
+      </c>
+      <c r="L445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Rollbit Coin</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>rlb</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/24552/large/unziL6wO_400x400.jpg?1696523729</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr"/>
+      <c r="E446" t="n">
+        <v>92664857</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0.04556248</v>
+      </c>
+      <c r="G446" t="n">
+        <v>2.249119373532227</v>
+      </c>
+      <c r="H446" t="n">
+        <v>10.15099293963239</v>
+      </c>
+      <c r="I446" t="n">
+        <v>-24.94822582653359</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K446" t="b">
+        <v>0</v>
+      </c>
+      <c r="L446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Alchemy Pay</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>ach</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/12390/large/ACH_%281%29.png?1696512213</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="n">
+        <v>91957285</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0.01857476</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-1.662780706649764</v>
+      </c>
+      <c r="H447" t="n">
+        <v>5.238823876703431</v>
+      </c>
+      <c r="I447" t="n">
+        <v>-10.94845642184715</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K447" t="b">
+        <v>0</v>
+      </c>
+      <c r="L447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>DOLA</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>dola</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/14287/large/dola.png?1696513984</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="n">
+        <v>91568566</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0.997895</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-0.023541738343394</v>
+      </c>
+      <c r="H448" t="n">
+        <v>-0.07679508855515201</v>
+      </c>
+      <c r="I448" t="n">
+        <v>-0.192151812436207</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0</v>
+      </c>
+      <c r="K448" t="b">
+        <v>0</v>
+      </c>
+      <c r="L448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>SpaceN</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/27576/large/sn.png?1696526609</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="n">
+        <v>91139920</v>
+      </c>
+      <c r="F449" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-12.23532727174345</v>
+      </c>
+      <c r="H449" t="n">
+        <v>43.39737942661318</v>
+      </c>
+      <c r="I449" t="n">
+        <v>79.28397871028986</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K449" t="b">
+        <v>1</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>Crecimiento mensual sobresaliente (+60%) | Fuerte tendencia semanal (+10%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>ALEO</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>aleo</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/27916/large/secondary-icon-dark.png?1726770428</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="n">
+        <v>90972833</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0.211915</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-4.086750398420591</v>
+      </c>
+      <c r="H450" t="n">
+        <v>6.837915061083058</v>
+      </c>
+      <c r="I450" t="n">
+        <v>17.41933801250743</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="K450" t="b">
+        <v>0</v>
+      </c>
+      <c r="L450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Verasity</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>vra</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/14025/large/logo_%281%29.png?1716968890</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="n">
+        <v>90531211</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0.00109679</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.384412884796638</v>
+      </c>
+      <c r="H451" t="n">
+        <v>4.392960640363028</v>
+      </c>
+      <c r="I451" t="n">
+        <v>-23.38632888983545</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K451" t="b">
+        <v>0</v>
+      </c>
+      <c r="L451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Metaplex</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>mplx</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/27344/large/mplx.png?1696526391</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="n">
+        <v>90388773</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.108948</v>
+      </c>
+      <c r="G452" t="n">
+        <v>5.965229349120954</v>
+      </c>
+      <c r="H452" t="n">
+        <v>-5.568983632697615</v>
+      </c>
+      <c r="I452" t="n">
+        <v>-21.82906714324731</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0</v>
+      </c>
+      <c r="K452" t="b">
+        <v>0</v>
+      </c>
+      <c r="L452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Blast</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>blast</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/35494/large/Blast.jpg?1719385662</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr"/>
+      <c r="E453" t="n">
+        <v>90229467</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.00217735</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-8.594689580904953</v>
+      </c>
+      <c r="H453" t="n">
+        <v>9.72085737532397</v>
+      </c>
+      <c r="I453" t="n">
+        <v>-19.2047916008658</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K453" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Diverge Loop</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>dlc</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/27323/large/dlr.png?1745232682</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="n">
+        <v>90195661</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.101343</v>
+      </c>
+      <c r="G454" t="n">
+        <v>4.49280980036916</v>
+      </c>
+      <c r="H454" t="n">
+        <v>2.608596728681044</v>
+      </c>
+      <c r="I454" t="n">
+        <v>-46.47636596911948</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K454" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>ConstitutionDAO</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/20612/large/GN_UVm3d_400x400.jpg?1696520017</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="n">
+        <v>89646210</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0.01768698</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-0.7431193890874971</v>
+      </c>
+      <c r="H455" t="n">
+        <v>1.328730397474849</v>
+      </c>
+      <c r="I455" t="n">
+        <v>-13.37942730749878</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0</v>
+      </c>
+      <c r="K455" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Clearpool</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>cpool</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/19252/large/photo_2022-08-31_12.45.02.jpeg?1696518697</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="n">
+        <v>89563924</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.114122</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-1.048443180410713</v>
+      </c>
+      <c r="H456" t="n">
+        <v>3.064198988609981</v>
+      </c>
+      <c r="I456" t="n">
+        <v>-8.375316027420304</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0</v>
+      </c>
+      <c r="K456" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Stratis</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>strax</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/531/large/stratis.png?1696501751</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr"/>
+      <c r="E457" t="n">
+        <v>89278460</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.04492797</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-2.156326476205286</v>
+      </c>
+      <c r="H457" t="n">
+        <v>4.471167307331012</v>
+      </c>
+      <c r="I457" t="n">
+        <v>-0.15753400748836</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K457" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>BugsCoin</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>bgsc</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/52619/large/bnUmy-NT_400x400.png?1733784337</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="n">
+        <v>89059906</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.0075739</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-5.338676839717611</v>
+      </c>
+      <c r="H458" t="n">
+        <v>1.994136990124923</v>
+      </c>
+      <c r="I458" t="n">
+        <v>-6.317808607769174</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0</v>
+      </c>
+      <c r="K458" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>IOST</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>iost</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/2523/large/IOST.png?1696503337</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="n">
+        <v>88977696</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.00332462</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.7601197514151751</v>
+      </c>
+      <c r="H459" t="n">
+        <v>4.944622005451823</v>
+      </c>
+      <c r="I459" t="n">
+        <v>-14.80656210994365</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K459" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Loopring</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>lrc</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/913/large/LRC.png?1696502034</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="n">
+        <v>88929281</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0.071353</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-0.8839073635598701</v>
+      </c>
+      <c r="H460" t="n">
+        <v>-0.9640710690552601</v>
+      </c>
+      <c r="I460" t="n">
+        <v>-14.42585290207963</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0</v>
+      </c>
+      <c r="K460" t="b">
+        <v>0</v>
+      </c>
+      <c r="L460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Band Protocol</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>band</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/9545/large/Band_token_blue_violet_token.png?1696509627</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="n">
+        <v>88841746</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.568685</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-0.502702291207846</v>
+      </c>
+      <c r="H461" t="n">
+        <v>4.58618000820494</v>
+      </c>
+      <c r="I461" t="n">
+        <v>-13.60934492963547</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="K461" t="b">
+        <v>0</v>
+      </c>
+      <c r="L461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>HashKey Platform Token</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>hsk</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/29779/large/HSKlogo.jpg?1719445510</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="n">
+        <v>88824901</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.670424</v>
+      </c>
+      <c r="G462" t="n">
+        <v>13.73511725373279</v>
+      </c>
+      <c r="H462" t="n">
+        <v>4.523522753306781</v>
+      </c>
+      <c r="I462" t="n">
+        <v>127.58243329045</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>Explosion mensual (+100%) | Buena puntuacion en analisis multivariable</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>NexusMind</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>nmd</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/35449/large/nmd-cg.jpg?1708664539</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="n">
+        <v>88801648</v>
+      </c>
+      <c r="F463" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-0.09160846633159601</v>
+      </c>
+      <c r="H463" t="n">
+        <v>2.24263398161103</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2.301196467225316</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0</v>
+      </c>
+      <c r="K463" t="b">
+        <v>0</v>
+      </c>
+      <c r="L463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Coreum</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>coreum</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/24169/large/Coreum-Icon_%282%29.png?1738317497</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="n">
+        <v>88691653</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.136514</v>
+      </c>
+      <c r="G464" t="n">
+        <v>6.242480690638005</v>
+      </c>
+      <c r="H464" t="n">
+        <v>13.35238326099936</v>
+      </c>
+      <c r="I464" t="n">
+        <v>4.819340752807322</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K464" t="b">
+        <v>0</v>
+      </c>
+      <c r="L464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Metal Blockchain</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/27222/large/MB-Logo.png?1710514210</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="n">
+        <v>88028637</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.173408</v>
+      </c>
+      <c r="G465" t="n">
+        <v>5.382591059636176</v>
+      </c>
+      <c r="H465" t="n">
+        <v>48.70987765015511</v>
+      </c>
+      <c r="I465" t="n">
+        <v>66.08180518192947</v>
+      </c>
+      <c r="J465" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="K465" t="b">
+        <v>1</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>Crecimiento mensual sobresaliente (+60%) | Fuerte tendencia semanal (+10%) | Alta confianza del modelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Bio Protocol</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>bio</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53022/large/bio.jpg?1735011002</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="n">
+        <v>87710941</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.04838689</v>
+      </c>
+      <c r="G466" t="n">
+        <v>-5.280276824096681</v>
+      </c>
+      <c r="H466" t="n">
+        <v>-5.089772200962483</v>
+      </c>
+      <c r="I466" t="n">
+        <v>-20.00107364864943</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0</v>
+      </c>
+      <c r="K466" t="b">
+        <v>0</v>
+      </c>
+      <c r="L466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Animecoin</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>anime</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/53575/large/anime.jpg?1736748703</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="n">
+        <v>87671117</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.01582205</v>
+      </c>
+      <c r="G467" t="n">
+        <v>-2.795023102020059</v>
+      </c>
+      <c r="H467" t="n">
+        <v>-4.898460058093431</v>
+      </c>
+      <c r="I467" t="n">
+        <v>-52.34039745009329</v>
+      </c>
+      <c r="J467" t="n">
+        <v>0</v>
+      </c>
+      <c r="K467" t="b">
+        <v>0</v>
+      </c>
+      <c r="L467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>0x0.ai: AI Smart Contract</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/28880/large/0x0.png?1696527857</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="n">
+        <v>87325069</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.09760199999999999</v>
+      </c>
+      <c r="G468" t="n">
+        <v>7.961228026740043</v>
+      </c>
+      <c r="H468" t="n">
+        <v>-3.832941298226657</v>
+      </c>
+      <c r="I468" t="n">
+        <v>17.60690974388485</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="K468" t="b">
+        <v>0</v>
+      </c>
+      <c r="L468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Biconomy</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>bico</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/21061/large/biconomy_logo.jpg?1696520444</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="n">
+        <v>87031779</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.09024299999999999</v>
+      </c>
+      <c r="G469" t="n">
+        <v>-0.781582461749148</v>
+      </c>
+      <c r="H469" t="n">
+        <v>1.813077316119085</v>
+      </c>
+      <c r="I469" t="n">
+        <v>-9.752686317925798</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0</v>
+      </c>
+      <c r="K469" t="b">
+        <v>0</v>
+      </c>
+      <c r="L469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>XPR Network</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>xpr</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/10941/large/XPR.jpg?1696510891</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="n">
+        <v>86758288</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0.00312878</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.6879480535111161</v>
+      </c>
+      <c r="H470" t="n">
+        <v>6.770393076703206</v>
+      </c>
+      <c r="I470" t="n">
+        <v>-9.230004296791302</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0</v>
+      </c>
+      <c r="K470" t="b">
+        <v>0</v>
+      </c>
+      <c r="L470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Orbs</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>orbs</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/4630/large/Orbs.jpg?1696505200</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="n">
+        <v>86745277</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0.01852155</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.049808910335726</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.570536028131248</v>
+      </c>
+      <c r="I471" t="n">
+        <v>-3.846978598686662</v>
+      </c>
+      <c r="J471" t="n">
+        <v>0</v>
+      </c>
+      <c r="K471" t="b">
+        <v>0</v>
+      </c>
+      <c r="L471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Delysium</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>agi</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/29299/large/AGI_logo_200.png?1696528251</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="n">
+        <v>86441529</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0.04828397</v>
+      </c>
+      <c r="G472" t="n">
+        <v>-2.015170029820241</v>
+      </c>
+      <c r="H472" t="n">
+        <v>12.58234173892475</v>
+      </c>
+      <c r="I472" t="n">
+        <v>-12.50420591176875</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0</v>
+      </c>
+      <c r="K472" t="b">
+        <v>0</v>
+      </c>
+      <c r="L472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>PAAL AI</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>paal</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/30815/large/Paal_New_Logo_%281%29.png?1718160584</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="n">
+        <v>86256895</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.09591899999999999</v>
+      </c>
+      <c r="G473" t="n">
+        <v>-3.434013184779078</v>
+      </c>
+      <c r="H473" t="n">
+        <v>2.976242830499873</v>
+      </c>
+      <c r="I473" t="n">
+        <v>-17.79534976415649</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0</v>
+      </c>
+      <c r="K473" t="b">
+        <v>0</v>
+      </c>
+      <c r="L473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>SingularityNET</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>agix</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/2138/large/singularitynet.png?1696503103</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="n">
+        <v>86103844</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.288453</v>
+      </c>
+      <c r="G474" t="n">
+        <v>-0.3469013946244801</v>
+      </c>
+      <c r="H474" t="n">
+        <v>1.274458165559376</v>
+      </c>
+      <c r="I474" t="n">
+        <v>-11.98353835824248</v>
+      </c>
+      <c r="J474" t="n">
+        <v>0</v>
+      </c>
+      <c r="K474" t="b">
+        <v>0</v>
+      </c>
+      <c r="L474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>The Grays Currency</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>ptgc</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/32933/large/IMG_8413.jpeg?1738402400</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="n">
+        <v>86012509</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0.00029497</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0.697034118477859</v>
+      </c>
+      <c r="H475" t="n">
+        <v>20.33322657563125</v>
+      </c>
+      <c r="I475" t="n">
+        <v>8.398283157897838</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0.08666666666666667</v>
+      </c>
+      <c r="K475" t="b">
+        <v>0</v>
+      </c>
+      <c r="L475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Venice Token</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>vvv</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>https://coin-images.coingecko.com/coins/images/54023/large/VVV_Token_Transparent.png?1741856877</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="n">
+        <v>85852104</v>
+      </c>
+      <c r="F476" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.4438353487632961</v>
+      </c>
+      <c r="H476" t="n">
+        <v>-6.183021431044884</v>
+      </c>
+      <c r="I476" t="n">
+        <v>-3.443205488891702</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="K476" t="b">
+        <v>0</v>
+      </c>
+      <c r="L476" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
